--- a/Datos/IzquierdaA2.xlsx
+++ b/Datos/IzquierdaA2.xlsx
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:K452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9081,31 +9081,31 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>2.0208673263176803E-7</v>
+        <v>-0.11830985915492959</v>
       </c>
       <c r="C272">
-        <v>1.8961224296314038E-7</v>
+        <v>-1.8038922155688621E-4</v>
       </c>
       <c r="D272">
-        <v>2.5647550758698462E-3</v>
+        <v>0.58028985507246378</v>
       </c>
       <c r="E272">
-        <v>-0.18486445219526068</v>
+        <v>-0.22936810668559093</v>
       </c>
       <c r="F272">
-        <v>8.3753723635166082E-3</v>
+        <v>-0.19571162362963143</v>
       </c>
       <c r="G272">
-        <v>-3.5028366989506461E-3</v>
+        <v>6.6749564784879388E-6</v>
       </c>
       <c r="H272">
-        <v>-3.0729657849697369E-2</v>
+        <v>-0.45459317585301839</v>
       </c>
       <c r="I272">
-        <v>-4.4341820976103868E-2</v>
+        <v>-0.93708560483276848</v>
       </c>
       <c r="J272">
-        <v>9.7151325539272197E-3</v>
+        <v>0.16608170206607084</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -9113,31 +9113,31 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.46022727272727276</v>
+        <v>-0.14647887323943662</v>
       </c>
       <c r="C273">
-        <v>1.2768031189083821E-4</v>
+        <v>-7.6347305389221553E-5</v>
       </c>
       <c r="D273">
-        <v>0.87598253275109172</v>
+        <v>0.63188405797101455</v>
       </c>
       <c r="E273">
-        <v>-0.21425185495661372</v>
+        <v>-0.12436527073269733</v>
       </c>
       <c r="F273">
-        <v>-0.10480509607570714</v>
+        <v>-0.18242540112775588</v>
       </c>
       <c r="G273">
-        <v>-0.19523460296159909</v>
+        <v>-9.1121611539418064E-6</v>
       </c>
       <c r="H273">
-        <v>-0.80293388706544311</v>
+        <v>-0.45389326334208224</v>
       </c>
       <c r="I273">
-        <v>-0.70740968014113681</v>
+        <v>-1.070134079858553</v>
       </c>
       <c r="J273">
-        <v>0.18873990970036941</v>
+        <v>0.16166733002858485</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -9145,31 +9145,31 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.40909090909090906</v>
+        <v>-0.22253521126760564</v>
       </c>
       <c r="C274">
-        <v>1.9883040935672513E-4</v>
+        <v>-6.1377245508982032E-5</v>
       </c>
       <c r="D274">
-        <v>8.6550218340611352E-4</v>
+        <v>0.57971014492753625</v>
       </c>
       <c r="E274">
-        <v>-0.23344011496489678</v>
+        <v>-0.17670271418164615</v>
       </c>
       <c r="F274">
-        <v>2.959603638556112E-2</v>
+        <v>-0.21712930471188985</v>
       </c>
       <c r="G274">
-        <v>-0.1561939238847192</v>
+        <v>2.0034817209649339E-2</v>
       </c>
       <c r="H274">
-        <v>-0.83649273226605936</v>
+        <v>-0.44464858559346748</v>
       </c>
       <c r="I274">
-        <v>-0.7453401856255274</v>
+        <v>-1.0970973920730809</v>
       </c>
       <c r="J274">
-        <v>0.23005883157750717</v>
+        <v>0.20273546332814704</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -9177,31 +9177,31 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.55113636363636365</v>
+        <v>-0.38309859154929582</v>
       </c>
       <c r="C275">
-        <v>3.3138401559454193E-4</v>
+        <v>-2.6946107784431136E-5</v>
       </c>
       <c r="D275">
-        <v>8.1135371179039302E-4</v>
+        <v>0.60985507246376813</v>
       </c>
       <c r="E275">
-        <v>-0.31292756313339221</v>
+        <v>-0.27875400863957595</v>
       </c>
       <c r="F275">
-        <v>4.3201300233307996E-2</v>
+        <v>-2.2893928026911255E-2</v>
       </c>
       <c r="G275">
-        <v>-8.1904286360728384E-2</v>
+        <v>1.0325789604575976E-2</v>
       </c>
       <c r="H275">
-        <v>-0.80621608949025392</v>
+        <v>-0.42790901137357829</v>
       </c>
       <c r="I275">
-        <v>-0.7921300912786684</v>
+        <v>-1.287756004125534</v>
       </c>
       <c r="J275">
-        <v>0.2718224107265016</v>
+        <v>0.16517711763215978</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -9209,31 +9209,31 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.40340909090909088</v>
+        <v>-0.29295774647887324</v>
       </c>
       <c r="C276">
-        <v>4.7076023391812865E-4</v>
+        <v>9.9550898203592823E-5</v>
       </c>
       <c r="D276">
-        <v>7.3624454148471616E-4</v>
+        <v>0.59536231884057966</v>
       </c>
       <c r="E276">
-        <v>-0.28582299198139804</v>
+        <v>-0.59081366311030115</v>
       </c>
       <c r="F276">
-        <v>-4.0003145725745141E-2</v>
+        <v>0.24002323273880111</v>
       </c>
       <c r="G276">
-        <v>-6.665938489865339E-2</v>
+        <v>6.8002984332255656E-2</v>
       </c>
       <c r="H276">
-        <v>-0.83321052984124855</v>
+        <v>-0.42540099154272382</v>
       </c>
       <c r="I276">
-        <v>-0.82212165375469815</v>
+        <v>-1.4981582437011935</v>
       </c>
       <c r="J276">
-        <v>0.336947598850732</v>
+        <v>0.17624923110323118</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -9241,31 +9241,31 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.51136363636363635</v>
+        <v>-0.21971830985915494</v>
       </c>
       <c r="C277">
-        <v>5.0584795321637424E-4</v>
+        <v>2.7769461077844311E-4</v>
       </c>
       <c r="D277">
-        <v>7.2227074235807855E-4</v>
+        <v>5.5826086956521734E-4</v>
       </c>
       <c r="E277">
-        <v>-0.17877191144110294</v>
+        <v>-0.45578467187621807</v>
       </c>
       <c r="F277">
-        <v>-0.10480509607570714</v>
+        <v>5.4657438106531786E-2</v>
       </c>
       <c r="G277">
-        <v>2.8570536926365721E-2</v>
+        <v>6.0681422531708529E-7</v>
       </c>
       <c r="H277">
-        <v>-0.79476187286489386</v>
+        <v>-0.41189851268591426</v>
       </c>
       <c r="I277">
-        <v>-0.85065582572677767</v>
+        <v>-1.8093413879475468</v>
       </c>
       <c r="J277">
-        <v>0.37621425639622386</v>
+        <v>0.21333719289358469</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -9273,31 +9273,31 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.37500000000000006</v>
+        <v>-9.2957746478873254E-2</v>
       </c>
       <c r="C278">
-        <v>5.6237816764132551E-4</v>
+        <v>3.9820359281437129E-4</v>
       </c>
       <c r="D278">
-        <v>6.8034934497816595E-4</v>
+        <v>4.6898550724637684E-4</v>
       </c>
       <c r="E278">
-        <v>-0.1420744577339341</v>
+        <v>-0.49302839447432723</v>
       </c>
       <c r="F278">
-        <v>-1.039400214957926E-5</v>
+        <v>4.5049732581496089E-2</v>
       </c>
       <c r="G278">
-        <v>-2.6666874717181332E-2</v>
+        <v>1.8204426759512558E-6</v>
       </c>
       <c r="H278">
-        <v>-0.80293388706544311</v>
+        <v>-0.41650627004957713</v>
       </c>
       <c r="I278">
-        <v>-0.84693564470353611</v>
+        <v>-2.0162074554294978</v>
       </c>
       <c r="J278">
-        <v>0.40207278697496235</v>
+        <v>0.2455765821181749</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -9305,31 +9305,31 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.42613636363636365</v>
+        <v>2.2535211267605635E-2</v>
       </c>
       <c r="C279">
-        <v>6.1208576998050682E-4</v>
+        <v>4.7979041916167668E-4</v>
       </c>
       <c r="D279">
-        <v>6.5676855895196507E-4</v>
+        <v>3.7971014492753623E-4</v>
       </c>
       <c r="E279">
-        <v>-0.10781202441008138</v>
+        <v>-0.31386337427320304</v>
       </c>
       <c r="F279">
-        <v>1.1193540776469971E-5</v>
+        <v>4.8740349943128189E-2</v>
       </c>
       <c r="G279">
-        <v>-2.285955029881255E-2</v>
+        <v>1.7000746083063914E-2</v>
       </c>
       <c r="H279">
-        <v>-0.79556567754035767</v>
+        <v>-0.4179352580927384</v>
       </c>
       <c r="I279">
-        <v>-0.83240009204571608</v>
+        <v>-2.0755856785030207</v>
       </c>
       <c r="J279">
-        <v>0.40751128745382403</v>
+        <v>0.26059268372109851</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -9337,31 +9337,31 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.48295454545454553</v>
+        <v>-7.6056338028169024E-2</v>
       </c>
       <c r="C280">
-        <v>6.1890838206627677E-4</v>
+        <v>4.7230538922155691E-4</v>
       </c>
       <c r="D280">
-        <v>6.4541484716157209E-4</v>
+        <v>3.4492753623188406E-4</v>
       </c>
       <c r="E280">
-        <v>-7.0503320709149789E-2</v>
+        <v>4.6759621407008969E-2</v>
       </c>
       <c r="F280">
-        <v>-3.1994652266233256E-2</v>
+        <v>-4.7264102998475353E-2</v>
       </c>
       <c r="G280">
-        <v>-0.10571566776413313</v>
+        <v>-2.7326535687639892E-2</v>
       </c>
       <c r="H280">
-        <v>-0.81519190836626698</v>
+        <v>-0.40726159230096237</v>
       </c>
       <c r="I280">
-        <v>-0.85813454015494361</v>
+        <v>-2.124208044791513</v>
       </c>
       <c r="J280">
-        <v>0.44465727185661513</v>
+        <v>0.27825017187104245</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -9369,31 +9369,31 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.58522727272727271</v>
+        <v>-4.507042253521127E-2</v>
       </c>
       <c r="C281">
-        <v>2.3391812865497078E-5</v>
+        <v>-6.5793413173652695E-4</v>
       </c>
       <c r="D281">
-        <v>0.91091703056768558</v>
+        <v>3.089855072463768E-4</v>
       </c>
       <c r="E281">
-        <v>-5.786416777689625E-2</v>
+        <v>-0.57095930474800338</v>
       </c>
       <c r="F281">
-        <v>0.15440270532414083</v>
+        <v>-0.14697127368650323</v>
       </c>
       <c r="G281">
-        <v>-8.6663441883689366E-2</v>
+        <v>-8.6824173091270829E-2</v>
       </c>
       <c r="H281">
-        <v>-0.7408399758858597</v>
+        <v>-0.41971420239136775</v>
       </c>
       <c r="I281">
-        <v>-0.71630743269157016</v>
+        <v>0.33637837041402679</v>
       </c>
       <c r="J281">
-        <v>7.8088657819127105E-2</v>
+        <v>0.36440279335673192</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -9401,31 +9401,31 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.57386363636363646</v>
+        <v>6.1971830985915494E-2</v>
       </c>
       <c r="C282">
-        <v>4.9707602339181283E-5</v>
+        <v>-5.9580838323353299E-4</v>
       </c>
       <c r="D282">
-        <v>0.88646288209606983</v>
+        <v>3.089855072463768E-4</v>
       </c>
       <c r="E282">
-        <v>-0.1381150547131117</v>
+        <v>-0.50205236970073308</v>
       </c>
       <c r="F282">
-        <v>-2.3986158806721365E-6</v>
+        <v>-2.5846421916216937E-2</v>
       </c>
       <c r="G282">
-        <v>-0.1247678936445769</v>
+        <v>-0.17850285998507834</v>
       </c>
       <c r="H282">
-        <v>-0.75142340411280062</v>
+        <v>-0.42613006707494894</v>
       </c>
       <c r="I282">
-        <v>-0.73126486154790216</v>
+        <v>9.3561219979372331E-5</v>
       </c>
       <c r="J282">
-        <v>7.4326173211109597E-2</v>
+        <v>0.29771682888880846</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -9433,31 +9433,31 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.55113636363636365</v>
+        <v>-2.8169014084507044E-3</v>
       </c>
       <c r="C283">
-        <v>1.0623781676413256E-4</v>
+        <v>-4.902694610778443E-4</v>
       </c>
       <c r="D283">
-        <v>0.88471615720524022</v>
+        <v>4.573913043478261E-4</v>
       </c>
       <c r="E283">
-        <v>-0.24151110978049889</v>
+        <v>-0.56292186479359374</v>
       </c>
       <c r="F283">
-        <v>-2.8796497758670405E-2</v>
+        <v>-0.15435250840976744</v>
       </c>
       <c r="G283">
-        <v>-0.16190491051227238</v>
+        <v>-9.2285501119124591E-2</v>
       </c>
       <c r="H283">
-        <v>-0.74492598298613433</v>
+        <v>-0.44712744240303298</v>
       </c>
       <c r="I283">
-        <v>-0.77153486231494972</v>
+        <v>-0.19419478414616179</v>
       </c>
       <c r="J283">
-        <v>0.12399097003694076</v>
+        <v>0.25574411115533524</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -9465,31 +9465,31 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.50568181818181823</v>
+        <v>-0.12957746478873239</v>
       </c>
       <c r="C284">
-        <v>2.0370370370370369E-4</v>
+        <v>-4.296407185628742E-4</v>
       </c>
       <c r="D284">
-        <v>8.4716157205240168E-4</v>
+        <v>4.4405797101449275E-4</v>
       </c>
       <c r="E284">
-        <v>-0.23541856902634115</v>
+        <v>-0.41673454136862281</v>
       </c>
       <c r="F284">
-        <v>-0.13759928696883111</v>
+        <v>-0.14401877979719754</v>
       </c>
       <c r="G284">
-        <v>-9.4278090720426921E-2</v>
+        <v>3.0340711265854264E-6</v>
       </c>
       <c r="H284">
-        <v>-0.72282135441087814</v>
+        <v>-0.44712744240303298</v>
       </c>
       <c r="I284">
-        <v>-0.84083761601595464</v>
+        <v>-0.3615735965817003</v>
       </c>
       <c r="J284">
-        <v>0.17454508140648514</v>
+        <v>0.2521981401744039</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -9497,31 +9497,31 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.53409090909090917</v>
+        <v>-0.20845070422535211</v>
       </c>
       <c r="C285">
-        <v>2.9824561403508774E-4</v>
+        <v>-2.3278443113772455E-4</v>
       </c>
       <c r="D285">
-        <v>8.2969432314410475E-4</v>
+        <v>0.68057971014492757</v>
       </c>
       <c r="E285">
-        <v>-0.24013891591694983</v>
+        <v>-0.34487337671938045</v>
       </c>
       <c r="F285">
-        <v>-0.12640574619236114</v>
+        <v>-0.11225526971757702</v>
       </c>
       <c r="G285">
-        <v>-7.0482313105622044E-2</v>
+        <v>0.123252922158667</v>
       </c>
       <c r="H285">
-        <v>-0.75222720878826443</v>
+        <v>-0.44179060950714494</v>
       </c>
       <c r="I285">
-        <v>-0.84083761601595464</v>
+        <v>-0.51613378517754527</v>
       </c>
       <c r="J285">
-        <v>0.21668490901628129</v>
+        <v>0.18858776278177805</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -9529,31 +9529,31 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.46022727272727276</v>
+        <v>1.1267605633802818E-2</v>
       </c>
       <c r="C286">
-        <v>3.8499025341130608E-4</v>
+        <v>-2.0883233532934133E-4</v>
       </c>
       <c r="D286">
-        <v>8.0000000000000004E-4</v>
+        <v>4.7072463768115945E-4</v>
       </c>
       <c r="E286">
-        <v>-0.21912688551911341</v>
+        <v>-0.12469321978769331</v>
       </c>
       <c r="F286">
-        <v>-5.9205179961727E-2</v>
+        <v>8.271823043972798E-2</v>
       </c>
       <c r="G286">
-        <v>3.4281523553918891E-2</v>
+        <v>0.18882864958965431</v>
       </c>
       <c r="H286">
-        <v>-0.72442896376180588</v>
+        <v>-0.42362204724409447</v>
       </c>
       <c r="I286">
-        <v>-0.87454935951522594</v>
+        <v>-0.49108589951377635</v>
       </c>
       <c r="J286">
-        <v>0.30479545765494598</v>
+        <v>0.20494264934689005</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -9561,31 +9561,31 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.5</v>
+        <v>-0.16056338028169015</v>
       </c>
       <c r="C287">
-        <v>4.483430799220273E-4</v>
+        <v>-3.0089820359281439E-4</v>
       </c>
       <c r="D287">
-        <v>7.6419213973799127E-4</v>
+        <v>5.6637681159420292E-4</v>
       </c>
       <c r="E287">
-        <v>-0.20054738060665939</v>
+        <v>2.0015644782787514E-2</v>
       </c>
       <c r="F287">
-        <v>3.9976931344535613E-6</v>
+        <v>0.23485636843251614</v>
       </c>
       <c r="G287">
-        <v>2.1907719194220358E-2</v>
+        <v>7.5284755036060677E-2</v>
       </c>
       <c r="H287">
-        <v>-0.74572978766159825</v>
+        <v>-0.42755905511811021</v>
       </c>
       <c r="I287">
-        <v>-0.90262330290711057</v>
+        <v>-0.44968321791660526</v>
       </c>
       <c r="J287">
-        <v>0.36366123956765634</v>
+        <v>0.18417339074429206</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -9593,31 +9593,31 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.53409090909090917</v>
+        <v>7.3239436619718309E-2</v>
       </c>
       <c r="C288">
-        <v>5.9356725146198831E-4</v>
+        <v>-3.9595808383233535E-4</v>
       </c>
       <c r="D288">
-        <v>7.0393013100436682E-4</v>
+        <v>0.64231884057971012</v>
       </c>
       <c r="E288">
-        <v>-0.15745300859741829</v>
+        <v>-5.6439494743406746E-2</v>
       </c>
       <c r="F288">
-        <v>-2.5598343251107557E-2</v>
+        <v>0.37739890128506087</v>
       </c>
       <c r="G288">
-        <v>8.7615272988281548E-2</v>
+        <v>2.8540164138274062E-2</v>
       </c>
       <c r="H288">
-        <v>-0.77185343961417374</v>
+        <v>-0.43003791192767571</v>
       </c>
       <c r="I288">
-        <v>-0.88390734064585408</v>
+        <v>-0.43701193458081627</v>
       </c>
       <c r="J288">
-        <v>0.42923108496374335</v>
+        <v>0.18507797517820312</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9625,31 +9625,31 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.28977272727272729</v>
+        <v>-4.507042253521127E-2</v>
       </c>
       <c r="C289">
-        <v>6.0916179337231965E-4</v>
+        <v>-2.0134730538922158E-4</v>
       </c>
       <c r="D289">
-        <v>6.8384279475982538E-4</v>
+        <v>0.59072463768115946</v>
       </c>
       <c r="E289">
-        <v>-9.4411927608041554E-2</v>
+        <v>-7.1205266539250398E-2</v>
       </c>
       <c r="F289">
-        <v>9.4397986735523104E-2</v>
+        <v>-0.13367295079983543</v>
       </c>
       <c r="G289">
-        <v>4.7622762806809493E-2</v>
+        <v>3.4001492166127828E-2</v>
       </c>
       <c r="H289">
-        <v>-0.75309799718668369</v>
+        <v>-0.42933799941673956</v>
       </c>
       <c r="I289">
-        <v>-0.87876812150034522</v>
+        <v>-0.41550022101075584</v>
       </c>
       <c r="J289">
-        <v>0.40043097550964563</v>
+        <v>0.14444404240691827</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -9657,31 +9657,31 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.45454545454545459</v>
+        <v>-8.4507042253521136E-3</v>
       </c>
       <c r="C290">
-        <v>9.746588693957115E-7</v>
+        <v>-3.9670658682634733E-5</v>
       </c>
       <c r="D290">
-        <v>0.88646288209606983</v>
+        <v>0.58260869565217388</v>
       </c>
       <c r="E290">
-        <v>-1.9185765110349334E-2</v>
+        <v>2.295643384971869E-6</v>
       </c>
       <c r="F290">
-        <v>-2.5598343251107557E-2</v>
+        <v>7.3812347232641991E-7</v>
       </c>
       <c r="G290">
-        <v>8.0952455256136188E-2</v>
+        <v>-0.23071872668490426</v>
       </c>
       <c r="H290">
-        <v>-0.80621608949025392</v>
+        <v>-0.43610382035578887</v>
       </c>
       <c r="I290">
-        <v>-0.64888394569302754</v>
+        <v>-0.90113452188006482</v>
       </c>
       <c r="J290">
-        <v>8.6024079901491315E-2</v>
+        <v>0.1629699316134168</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -9689,31 +9689,31 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.38636363636363641</v>
+        <v>0.23098591549295777</v>
       </c>
       <c r="C291">
-        <v>-9.746588693957115E-7</v>
+        <v>-5.9880239520958085E-6</v>
       </c>
       <c r="D291">
-        <v>0.90917030567685586</v>
+        <v>0.58840579710144925</v>
       </c>
       <c r="E291">
-        <v>-0.10826859073195316</v>
+        <v>-1.1647567666373662E-2</v>
       </c>
       <c r="F291">
-        <v>9.1199832227960256E-2</v>
+        <v>-6.6431112509377806E-6</v>
       </c>
       <c r="G291">
-        <v>6.1900229375692416E-2</v>
+        <v>-0.13843322556577967</v>
       </c>
       <c r="H291">
-        <v>-0.81606269676468624</v>
+        <v>-0.44820647419072618</v>
       </c>
       <c r="I291">
-        <v>-0.65636266012119349</v>
+        <v>-0.86871961102106965</v>
       </c>
       <c r="J291">
-        <v>0.10938568887672732</v>
+        <v>0.15989434453811918</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -9721,31 +9721,31 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.36363636363636365</v>
+        <v>-2.5352112676056339E-2</v>
       </c>
       <c r="C292">
-        <v>9.064327485380117E-5</v>
+        <v>-2.3203592814371256E-5</v>
       </c>
       <c r="D292">
-        <v>0.8838427947598253</v>
+        <v>0.5895652173913043</v>
       </c>
       <c r="E292">
-        <v>-0.26145781876063451</v>
+        <v>-5.5778220419398453E-3</v>
       </c>
       <c r="F292">
-        <v>1.3605263847746874E-2</v>
+        <v>-3.6906173616320997E-6</v>
       </c>
       <c r="G292">
-        <v>6.2852060480284619E-2</v>
+        <v>-4.6147724446655061E-2</v>
       </c>
       <c r="H292">
-        <v>-0.79804407528970456</v>
+        <v>-0.45888013998250221</v>
       </c>
       <c r="I292">
-        <v>-0.68025619390964176</v>
+        <v>-0.96950051569176365</v>
       </c>
       <c r="J292">
-        <v>0.11608975236010398</v>
+        <v>0.15236820204797916</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9753,31 +9753,31 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.21590909090909091</v>
+        <v>9.8591549295774655E-2</v>
       </c>
       <c r="C293">
-        <v>2.2027290448343081E-4</v>
+        <v>-2.6946107784431136E-5</v>
       </c>
       <c r="D293">
-        <v>0.87860262008733625</v>
+        <v>0.58898550724637677</v>
       </c>
       <c r="E293">
-        <v>-0.21333872231287018</v>
+        <v>-2.2477950802265535E-2</v>
       </c>
       <c r="F293">
-        <v>-0.16639578472750149</v>
+        <v>-7.3812347232641991E-7</v>
       </c>
       <c r="G293">
-        <v>5.7141073852731442E-2</v>
+        <v>-3.2787863715493658E-2</v>
       </c>
       <c r="H293">
-        <v>-0.83321052984124855</v>
+        <v>-0.4666958296879557</v>
       </c>
       <c r="I293">
-        <v>-0.70460995627828493</v>
+        <v>-1.0234271401208193</v>
       </c>
       <c r="J293">
-        <v>0.18162539335066358</v>
+        <v>0.13029634186054925</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -9785,31 +9785,31 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.27272727272727276</v>
+        <v>-3.3802816901408454E-2</v>
       </c>
       <c r="C294">
-        <v>3.1676413255360625E-4</v>
+        <v>1.5494011976047904E-4</v>
       </c>
       <c r="D294">
-        <v>8.5938864628820957E-4</v>
+        <v>0.59188405797101451</v>
       </c>
       <c r="E294">
-        <v>-0.22673881911491001</v>
+        <v>3.6587824488117225E-2</v>
       </c>
       <c r="F294">
-        <v>-1.2805725220856162E-5</v>
+        <v>-7.3812347232641991E-7</v>
       </c>
       <c r="G294">
-        <v>4.6670931702217297E-2</v>
+        <v>5.4643123601094253E-2</v>
       </c>
       <c r="H294">
-        <v>-0.89208922231897647</v>
+        <v>-0.45497229512977544</v>
       </c>
       <c r="I294">
-        <v>-0.72942394722712278</v>
+        <v>-0.92441432149697955</v>
       </c>
       <c r="J294">
-        <v>0.22338897249965795</v>
+        <v>0.17357166117885445</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -9817,31 +9817,31 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.40909090909090906</v>
+        <v>5.6338028169014088E-3</v>
       </c>
       <c r="C295">
-        <v>3.6647173489278752E-4</v>
+        <v>3.7425149700598802E-6</v>
       </c>
       <c r="D295">
-        <v>8.0087336244541484E-4</v>
+        <v>0.58608695652173914</v>
       </c>
       <c r="E295">
-        <v>-0.20633554381290262</v>
+        <v>-5.3815902303438898E-2</v>
       </c>
       <c r="F295">
-        <v>2.3199727370435422E-2</v>
+        <v>-1.6250816775973474E-2</v>
       </c>
       <c r="G295">
-        <v>-8.566479941329755E-6</v>
+        <v>0.12810743596120369</v>
       </c>
       <c r="H295">
-        <v>-0.87326679616853109</v>
+        <v>-0.44001166520851559</v>
       </c>
       <c r="I295">
-        <v>-0.74250210938099259</v>
+        <v>-0.86326801237660233</v>
       </c>
       <c r="J295">
-        <v>0.24801614447940895</v>
+        <v>0.10333972572999964</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -9849,31 +9849,31 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.39204545454545459</v>
+        <v>-5.6338028169014088E-3</v>
       </c>
       <c r="C296">
-        <v>4.415204678362573E-4</v>
+        <v>-2.3952095808383234E-5</v>
       </c>
       <c r="D296">
-        <v>7.4410480349344972E-4</v>
+        <v>0.58260869565217388</v>
       </c>
       <c r="E296">
-        <v>-0.21516748249829099</v>
+        <v>-3.5276028268133301E-2</v>
       </c>
       <c r="F296">
-        <v>6.5601488976852695E-2</v>
+        <v>-6.6431112509377806E-6</v>
       </c>
       <c r="G296">
-        <v>-0.17905347418353176</v>
+        <v>0.15482715742352648</v>
       </c>
       <c r="H296">
-        <v>-0.91499765556969659</v>
+        <v>-0.42470107903178772</v>
       </c>
       <c r="I296">
-        <v>-0.78419114827030756</v>
+        <v>-0.91734197730956235</v>
       </c>
       <c r="J296">
-        <v>0.28851416062388835</v>
+        <v>0.15634837355718784</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -9881,31 +9881,31 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.43181818181818182</v>
+        <v>0.10140845070422536</v>
       </c>
       <c r="C297">
-        <v>5.1851851851851853E-4</v>
+        <v>-7.4850299401197606E-7</v>
       </c>
       <c r="D297">
-        <v>6.8908296943231441E-4</v>
+        <v>0.60173913043478255</v>
       </c>
       <c r="E297">
-        <v>-0.21775469165556438</v>
+        <v>-4.5611799714523033E-2</v>
       </c>
       <c r="F297">
-        <v>-1.3605263847746874E-2</v>
+        <v>1.4762469446528398E-6</v>
       </c>
       <c r="G297">
-        <v>-7.2385975314806436E-2</v>
+        <v>0.19125590649092267</v>
       </c>
       <c r="H297">
-        <v>-0.88224261504454415</v>
+        <v>-0.4335958005249344</v>
       </c>
       <c r="I297">
-        <v>-0.8118048630819974</v>
+        <v>-0.89936643583321052</v>
       </c>
       <c r="J297">
-        <v>0.33404022438090025</v>
+        <v>0.14972681550095887</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -9913,31 +9913,31 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.39772727272727276</v>
+        <v>-0.10422535211267606</v>
       </c>
       <c r="C298">
-        <v>5.6725146198830401E-4</v>
+        <v>-8.2335329341317368E-6</v>
       </c>
       <c r="D298">
-        <v>6.8820960698689961E-4</v>
+        <v>0.60115942028985503</v>
       </c>
       <c r="E298">
-        <v>-0.22354285486180761</v>
+        <v>-6.7761801461792587E-2</v>
       </c>
       <c r="F298">
-        <v>-0.11360002097150497</v>
+        <v>3.3977880496599791E-2</v>
       </c>
       <c r="G298">
-        <v>0.20189742069374444</v>
+        <v>0.32301417557821438</v>
       </c>
       <c r="H298">
-        <v>-0.88880701989416577</v>
+        <v>-0.42682997958588509</v>
       </c>
       <c r="I298">
-        <v>-0.8118048630819974</v>
+        <v>-0.81656107263886846</v>
       </c>
       <c r="J298">
-        <v>0.37036530305103299</v>
+        <v>0.13471071389803524</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -9945,31 +9945,31 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.43181818181818182</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="C299">
-        <v>5.1851851851851853E-4</v>
+        <v>-5.9505988023952103E-4</v>
       </c>
       <c r="D299">
-        <v>6.8908296943231441E-4</v>
+        <v>3.9014492753623189E-4</v>
       </c>
       <c r="E299">
-        <v>-0.21775469165556438</v>
+        <v>-9.2207446594034015E-2</v>
       </c>
       <c r="F299">
-        <v>-1.3605263847746874E-2</v>
+        <v>0.13293482732750903</v>
       </c>
       <c r="G299">
-        <v>-7.2385975314806436E-2</v>
+        <v>-5.4613280278537684E-6</v>
       </c>
       <c r="H299">
-        <v>-0.88224261504454415</v>
+        <v>-0.39620880723242929</v>
       </c>
       <c r="I299">
-        <v>-0.8118048630819974</v>
+        <v>0.54678060998968614</v>
       </c>
       <c r="J299">
-        <v>0.33404022438090025</v>
+        <v>0.33744617722618231</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -9977,31 +9977,31 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.39772727272727276</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="C300">
-        <v>5.6725146198830401E-4</v>
+        <v>-5.6287425149700594E-4</v>
       </c>
       <c r="D300">
-        <v>6.8820960698689961E-4</v>
+        <v>3.7971014492753623E-4</v>
       </c>
       <c r="E300">
-        <v>-0.22354285486180761</v>
+        <v>-0.1711248921397063</v>
       </c>
       <c r="F300">
-        <v>-0.11360002097150497</v>
+        <v>-2.4370174971564094E-2</v>
       </c>
       <c r="G300">
-        <v>0.20189742069374444</v>
+        <v>-0.11354389455359364</v>
       </c>
       <c r="H300">
-        <v>-0.88880701989416577</v>
+        <v>-0.40262467191601048</v>
       </c>
       <c r="I300">
-        <v>-0.8118048630819974</v>
+        <v>0.47296301753351999</v>
       </c>
       <c r="J300">
-        <v>0.37036530305103299</v>
+        <v>0.34627492130115423</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -10009,31 +10009,31 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.38068181818181823</v>
+        <v>3.3802816901408454E-2</v>
       </c>
       <c r="C301">
-        <v>6.1598440545808971E-4</v>
+        <v>-5.0598802395209581E-4</v>
       </c>
       <c r="D301">
-        <v>6.1746724890829688E-4</v>
+        <v>4.4637681159420293E-4</v>
       </c>
       <c r="E301">
-        <v>-0.19323982455877731</v>
+        <v>-0.20000053762140163</v>
       </c>
       <c r="F301">
-        <v>-0.1223949458673028</v>
+        <v>-1.6988940248299896E-2</v>
       </c>
       <c r="G301">
-        <v>0.17237505266278652</v>
+        <v>-7.4071126585426514E-2</v>
       </c>
       <c r="H301">
-        <v>-0.86509478196798173</v>
+        <v>-0.42470107903178772</v>
       </c>
       <c r="I301">
-        <v>-0.78089284344557797</v>
+        <v>0.42448799174893176</v>
       </c>
       <c r="J301">
-        <v>0.4133602407990149</v>
+        <v>0.30213120092629447</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -10041,31 +10041,31 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-5.1136363636363633E-2</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="C302">
-        <v>7.4463937621832359E-4</v>
+        <v>-4.4910179640718562E-4</v>
       </c>
       <c r="D302">
-        <v>5.9213973799126639E-4</v>
+        <v>4.8637681159420287E-4</v>
       </c>
       <c r="E302">
-        <v>-0.19780798267542876</v>
+        <v>-0.17128886666720428</v>
       </c>
       <c r="F302">
-        <v>0.11120140509083283</v>
+        <v>1.8465187192952735E-2</v>
       </c>
       <c r="G302">
-        <v>0.40571410738527314</v>
+        <v>-5.4036309375777171E-2</v>
       </c>
       <c r="H302">
-        <v>-0.89778283877017884</v>
+        <v>-0.42648002333041701</v>
       </c>
       <c r="I302">
-        <v>-0.78979059599601131</v>
+        <v>0.39575659348754971</v>
       </c>
       <c r="J302">
-        <v>0.45009577233547682</v>
+        <v>0.2672142417773275</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -10073,31 +10073,31 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7.3863636363636367E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="C303">
-        <v>7.9142300194931774E-4</v>
+        <v>-4.3188622754491014E-4</v>
       </c>
       <c r="D303">
-        <v>5.25764192139738E-4</v>
+        <v>5.1768115942028988E-4</v>
       </c>
       <c r="E303">
-        <v>-0.20968369683996227</v>
+        <v>-0.17342053552467818</v>
       </c>
       <c r="F303">
-        <v>-7.9953862689071226E-6</v>
+        <v>-6.3514919774448828E-2</v>
       </c>
       <c r="G303">
-        <v>0.25810226723048357</v>
+        <v>-4.6147724446655061E-2</v>
       </c>
       <c r="H303">
-        <v>-0.93214548864625901</v>
+        <v>-0.43432487605715953</v>
       </c>
       <c r="I303">
-        <v>-0.75327912863388813</v>
+        <v>0.26624429055547372</v>
       </c>
       <c r="J303">
-        <v>0.5073197427828704</v>
+        <v>0.26193146868328687</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -10105,31 +10105,31 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>-9.6590909090909102E-2</v>
+        <v>1.9718309859154931E-2</v>
       </c>
       <c r="C304">
-        <v>7.6608187134502928E-4</v>
+        <v>-3.7200598802395211E-4</v>
       </c>
       <c r="D304">
-        <v>4.7336244541484722E-4</v>
+        <v>4.9739130434782604E-4</v>
       </c>
       <c r="E304">
-        <v>-0.23587513534821292</v>
+        <v>-0.15127053377740862</v>
       </c>
       <c r="F304">
-        <v>-0.12319448449419351</v>
+        <v>-6.499116671910167E-2</v>
       </c>
       <c r="G304">
-        <v>0.15048293725716605</v>
+        <v>-6.9216612782889833E-2</v>
       </c>
       <c r="H304">
-        <v>-0.93294929332172283</v>
+        <v>-0.42895888013998251</v>
       </c>
       <c r="I304">
-        <v>-0.74718109994630666</v>
+        <v>0.19242669809930749</v>
       </c>
       <c r="J304">
-        <v>0.55866055547954574</v>
+        <v>0.21909034989325904</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -10137,31 +10137,31 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.10227272727272727</v>
+        <v>-3.6619718309859155E-2</v>
       </c>
       <c r="C305">
-        <v>8.7231968810916186E-4</v>
+        <v>-3.4955089820359284E-4</v>
       </c>
       <c r="D305">
-        <v>3.8165938864628823E-4</v>
+        <v>5.3797101449275361E-4</v>
       </c>
       <c r="E305">
-        <v>-0.28947801745430596</v>
+        <v>-0.12436527073269733</v>
       </c>
       <c r="F305">
-        <v>-6.4801950349961987E-2</v>
+        <v>-1.1083952469688537E-5</v>
       </c>
       <c r="G305">
-        <v>3.9992510181472062E-2</v>
+        <v>-4.1283262869932849E-2</v>
       </c>
       <c r="H305">
-        <v>-0.94607810302096595</v>
+        <v>-0.44356955380577429</v>
       </c>
       <c r="I305">
-        <v>-0.74204188080079769</v>
+        <v>9.5329306026226612E-5</v>
       </c>
       <c r="J305">
-        <v>0.63421808728964291</v>
+        <v>0.26457285523030721</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -10169,31 +10169,31 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>3.4090909090909095E-2</v>
+        <v>-1.6901408450704227E-2</v>
       </c>
       <c r="C306">
-        <v>9.1325536062378178E-4</v>
+        <v>-3.0763473053892215E-4</v>
       </c>
       <c r="D306">
-        <v>2.1659388646288211E-4</v>
+        <v>5.4666666666666665E-4</v>
       </c>
       <c r="E306">
-        <v>-0.30744627237299721</v>
+        <v>-0.12272283735070925</v>
       </c>
       <c r="F306">
-        <v>-0.25839515558235249</v>
+        <v>8.8574816679170402E-6</v>
       </c>
       <c r="G306">
-        <v>8.0000624151543992E-2</v>
+        <v>-2.6719721462322807E-2</v>
       </c>
       <c r="H306">
-        <v>-0.92725567687052046</v>
+        <v>-0.44321959755030621</v>
       </c>
       <c r="I306">
-        <v>-0.71722788985195984</v>
+        <v>1.2523942831884487E-5</v>
       </c>
       <c r="J306">
-        <v>0.68265152551648656</v>
+        <v>0.21026160581828707</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -10201,31 +10201,31 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.14772727272727273</v>
+        <v>0</v>
       </c>
       <c r="C307">
-        <v>9.3469785575048725E-4</v>
+        <v>-2.9565868263473056E-4</v>
       </c>
       <c r="D307">
-        <v>1.5895196506550218E-4</v>
+        <v>5.628985507246377E-4</v>
       </c>
       <c r="E307">
-        <v>-0.11238018252673283</v>
+        <v>-3.396154394114121E-2</v>
       </c>
       <c r="F307">
-        <v>-0.13120297795370539</v>
+        <v>5.6133685051184629E-2</v>
       </c>
       <c r="G307">
-        <v>3.713701686769548E-2</v>
+        <v>-1.3359860731161403E-2</v>
       </c>
       <c r="H307">
-        <v>-0.93783910509746127</v>
+        <v>-0.43502478856809568</v>
       </c>
       <c r="I307">
-        <v>-0.67089821277901363</v>
+        <v>-1.7975541476351848E-5</v>
       </c>
       <c r="J307">
-        <v>0.71316185524695586</v>
+        <v>0.15591417302891053</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -10233,31 +10233,31 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.38068181818181823</v>
+        <v>0.26760563380281693</v>
       </c>
       <c r="C308">
-        <v>-1.0916179337231968E-4</v>
+        <v>-7.3802395209580842E-4</v>
       </c>
       <c r="D308">
-        <v>0.89432314410480351</v>
+        <v>1.4202898550724638E-4</v>
       </c>
       <c r="E308">
-        <v>-6.7307356456047379E-2</v>
+        <v>-0.3365052996029666</v>
       </c>
       <c r="F308">
-        <v>1.5204341101528298E-2</v>
+        <v>-0.52584642191621689</v>
       </c>
       <c r="G308">
-        <v>-2.7618705821773528E-2</v>
+        <v>-0.14754538671972145</v>
       </c>
       <c r="H308">
-        <v>-0.88311340344296341</v>
+        <v>-0.39763779527559057</v>
       </c>
       <c r="I308">
-        <v>-0.5177955051008668</v>
+        <v>0.69603654044496832</v>
       </c>
       <c r="J308">
-        <v>9.3514844711998904E-2</v>
+        <v>0.38911604009118211</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -10265,31 +10265,31 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.36363636363636365</v>
+        <v>0.21126760563380281</v>
       </c>
       <c r="C309">
-        <v>-3.6062378167641321E-5</v>
+        <v>-6.5868263473053891E-4</v>
       </c>
       <c r="D309">
-        <v>0.88558951965065502</v>
+        <v>2.4463768115942029E-4</v>
       </c>
       <c r="E309">
-        <v>-0.17999191653069474</v>
+        <v>-0.38129722667999966</v>
       </c>
       <c r="F309">
-        <v>-4.0802684352635857E-2</v>
+        <v>-0.51772706372062627</v>
       </c>
       <c r="G309">
-        <v>-0.16856772824441774</v>
+        <v>-0.1797164884357125</v>
       </c>
       <c r="H309">
-        <v>-0.89697903409471502</v>
+        <v>-0.40904053659959172</v>
       </c>
       <c r="I309">
-        <v>-0.55572601058525739</v>
+        <v>0.5844997789892441</v>
       </c>
       <c r="J309">
-        <v>7.6412641948282942E-2</v>
+        <v>0.41343126967471144</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -10297,31 +10297,31 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.30113636363636365</v>
+        <v>-7.6056338028169024E-2</v>
       </c>
       <c r="C310">
-        <v>3.1189083820662768E-5</v>
+        <v>-6.1901197604790411E-4</v>
       </c>
       <c r="D310">
-        <v>0.90917030567685586</v>
+        <v>3.4840579710144928E-4</v>
       </c>
       <c r="E310">
-        <v>-0.22628225279303824</v>
+        <v>-0.3333870954734966</v>
       </c>
       <c r="F310">
-        <v>-0.11519909822528639</v>
+        <v>-0.21048619346095207</v>
       </c>
       <c r="G310">
-        <v>-0.1457081779456052</v>
+        <v>-0.20582939567271824</v>
       </c>
       <c r="H310">
-        <v>-0.86998459374372028</v>
+        <v>-0.4179352580927384</v>
       </c>
       <c r="I310">
-        <v>-0.57678146812917086</v>
+        <v>0.4297922498894946</v>
       </c>
       <c r="J310">
-        <v>0.14988370502120674</v>
+        <v>0.3732315374317039</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -10329,31 +10329,31 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.25568181818181818</v>
+        <v>-0.10422535211267606</v>
       </c>
       <c r="C311">
-        <v>1.2183235867446393E-4</v>
+        <v>-5.9131736526946111E-4</v>
       </c>
       <c r="D311">
-        <v>0.88733624454148474</v>
+        <v>3.8666666666666667E-4</v>
       </c>
       <c r="E311">
-        <v>-0.22491255382742292</v>
+        <v>-0.32633350268407485</v>
       </c>
       <c r="F311">
-        <v>-0.11759771410595853</v>
+        <v>-5.3919314634205365E-2</v>
       </c>
       <c r="G311">
-        <v>-0.10571566776413313</v>
+        <v>-2.7933349912956977E-2</v>
       </c>
       <c r="H311">
-        <v>-0.88391720811842722</v>
+        <v>-0.43181685622630506</v>
       </c>
       <c r="I311">
-        <v>-0.61893073559868073</v>
+        <v>0.26801237660232796</v>
       </c>
       <c r="J311">
-        <v>0.15197017375838007</v>
+        <v>0.3149401165104751</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -10361,31 +10361,31 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.15909090909090912</v>
+        <v>-0.10704225352112676</v>
       </c>
       <c r="C312">
-        <v>2.0760233918128655E-4</v>
+        <v>-4.4910179640718562E-4</v>
       </c>
       <c r="D312">
-        <v>8.358078602620087E-4</v>
+        <v>4.3536231884057971E-4</v>
       </c>
       <c r="E312">
-        <v>-0.20024300305874487</v>
+        <v>-0.28843388197597369</v>
       </c>
       <c r="F312">
-        <v>-1.4404802474637586E-2</v>
+        <v>-0.11964860482563346</v>
       </c>
       <c r="G312">
-        <v>4.7591555229609745E-6</v>
+        <v>-8.5610544640636652E-2</v>
       </c>
       <c r="H312">
-        <v>-0.8904146292450934</v>
+        <v>-0.43893263342082239</v>
       </c>
       <c r="I312">
-        <v>-0.65870215540385058</v>
+        <v>0.21762192426698099</v>
       </c>
       <c r="J312">
-        <v>0.20625256533041456</v>
+        <v>0.33614357564135039</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -10393,31 +10393,31 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.35227272727272729</v>
+        <v>-6.1971830985915494E-2</v>
       </c>
       <c r="C313">
-        <v>2.9434697855750485E-4</v>
+        <v>-4.7904191616766467E-4</v>
       </c>
       <c r="D313">
-        <v>8.4366812227074236E-4</v>
+        <v>4.7999999999999996E-4</v>
       </c>
       <c r="E313">
-        <v>-0.16232554426198426</v>
+        <v>-0.3453653003018744</v>
       </c>
       <c r="F313">
-        <v>7.9193645633994808E-2</v>
+        <v>0.11077902277292417</v>
       </c>
       <c r="G313">
-        <v>7.9048793046951796E-2</v>
+        <v>9.410594379507585E-2</v>
       </c>
       <c r="H313">
-        <v>-0.87326679616853109</v>
+        <v>-0.42435112277631964</v>
       </c>
       <c r="I313">
-        <v>-0.65544220296080391</v>
+        <v>0.14748784440842788</v>
       </c>
       <c r="J313">
-        <v>0.19414420577370364</v>
+        <v>0.33480479067916197</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -10425,31 +10425,31 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.38636363636363641</v>
+        <v>-0.14366197183098592</v>
       </c>
       <c r="C314">
-        <v>3.3820662768031188E-4</v>
+        <v>-3.3607784431137727E-4</v>
       </c>
       <c r="D314">
-        <v>8.0960698689956331E-4</v>
+        <v>4.9391304347826083E-4</v>
       </c>
       <c r="E314">
-        <v>-0.14420510056933572</v>
+        <v>-0.30369157735431129</v>
       </c>
       <c r="F314">
-        <v>1.039400214957926E-5</v>
+        <v>-5.0216596887781031E-2</v>
       </c>
       <c r="G314">
-        <v>-8.1904286360728384E-2</v>
+        <v>-2.3068888336234768E-2</v>
       </c>
       <c r="H314">
-        <v>-0.88800321521870185</v>
+        <v>-0.45389326334208224</v>
       </c>
       <c r="I314">
-        <v>-0.6722788985195981</v>
+        <v>2.8731398261382054E-5</v>
       </c>
       <c r="J314">
-        <v>0.24425365987139144</v>
+        <v>0.24821796866519522</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -10457,31 +10457,31 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.42613636363636365</v>
+        <v>6.4788732394366194E-2</v>
       </c>
       <c r="C315">
-        <v>3.8401559454191036E-4</v>
+        <v>-3.1362275449101795E-4</v>
       </c>
       <c r="D315">
-        <v>7.7816593886462888E-4</v>
+        <v>5.5710144927536231E-4</v>
       </c>
       <c r="E315">
-        <v>-0.13278595272667396</v>
+        <v>-0.26448016042622624</v>
       </c>
       <c r="F315">
-        <v>-2.6397881877998269E-2</v>
+        <v>0.11225526971757702</v>
       </c>
       <c r="G315">
-        <v>-2.0955888089628161E-2</v>
+        <v>0.1542203431982094</v>
       </c>
       <c r="H315">
-        <v>-0.93214548864625901</v>
+        <v>-0.43715368912219305</v>
       </c>
       <c r="I315">
-        <v>-0.69241389890312188</v>
+        <v>-5.7610137026668636E-5</v>
       </c>
       <c r="J315">
-        <v>0.2417567382678889</v>
+        <v>0.2252777074212107</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -10489,31 +10489,31 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.41477272727272729</v>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="C316">
-        <v>4.4346978557504874E-4</v>
+        <v>-1.3323353293413174E-4</v>
       </c>
       <c r="D316">
-        <v>7.676855895196507E-4</v>
+        <v>5.76231884057971E-4</v>
       </c>
       <c r="E316">
-        <v>-0.12654122319855896</v>
+        <v>-0.13814719536355302</v>
       </c>
       <c r="F316">
-        <v>-7.3596875245759821E-2</v>
+        <v>2.3632051499237677E-2</v>
       </c>
       <c r="G316">
-        <v>-6.0948398271100226E-2</v>
+        <v>6.0721213628450635E-2</v>
       </c>
       <c r="H316">
-        <v>-0.93623149574653364</v>
+        <v>-0.44426946631671044</v>
       </c>
       <c r="I316">
-        <v>-0.71864692797422725</v>
+        <v>-3.4182996905849421E-5</v>
       </c>
       <c r="J316">
-        <v>0.2918661923655767</v>
+        <v>0.21333719289358469</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -10521,31 +10521,31 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.41477272727272729</v>
+        <v>0.16619718309859155</v>
       </c>
       <c r="C317">
-        <v>4.4346978557504874E-4</v>
+        <v>-2.2604790419161676E-4</v>
       </c>
       <c r="D317">
-        <v>7.676855895196507E-4</v>
+        <v>0.65565217391304342</v>
       </c>
       <c r="E317">
-        <v>-0.12654122319855896</v>
+        <v>-0.179162332094116</v>
       </c>
       <c r="F317">
-        <v>-7.3596875245759821E-2</v>
+        <v>4.3573485636843254E-2</v>
       </c>
       <c r="G317">
-        <v>-6.0948398271100226E-2</v>
+        <v>0.10685899030092016</v>
       </c>
       <c r="H317">
-        <v>-0.93623149574653364</v>
+        <v>-0.43003791192767571</v>
       </c>
       <c r="I317">
-        <v>-0.71864692797422725</v>
+        <v>-1.0431707676440253E-4</v>
       </c>
       <c r="J317">
-        <v>0.2918661923655767</v>
+        <v>0.14929261497268154</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -10553,31 +10553,31 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.34090909090909094</v>
+        <v>3.6619718309859155E-2</v>
       </c>
       <c r="C318">
-        <v>4.6686159844054582E-4</v>
+        <v>-6.736526946107784E-6</v>
       </c>
       <c r="D318">
-        <v>7.4497816593886463E-4</v>
+        <v>0.57971014492753625</v>
       </c>
       <c r="E318">
-        <v>-0.10583107545070332</v>
+        <v>-0.35077914781631625</v>
       </c>
       <c r="F318">
-        <v>-9.3598448108632396E-2</v>
+        <v>0.13293482732750903</v>
       </c>
       <c r="G318">
-        <v>2.855493313776585E-6</v>
+        <v>0.21736881372792838</v>
       </c>
       <c r="H318">
-        <v>-0.88063500569361641</v>
+        <v>-0.42968795567220763</v>
       </c>
       <c r="I318">
-        <v>-0.70599064201886941</v>
+        <v>-0.20863415352880507</v>
       </c>
       <c r="J318">
-        <v>0.30270898891777259</v>
+        <v>9.9829938126424725E-2</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -10585,31 +10585,31 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.22727272727272729</v>
+        <v>0.35492957746478876</v>
       </c>
       <c r="C319">
-        <v>5.0584795321637424E-4</v>
+        <v>-2.2455089820359281E-5</v>
       </c>
       <c r="D319">
-        <v>7.414847161572052E-4</v>
+        <v>5.2579710144927535E-4</v>
       </c>
       <c r="E319">
-        <v>-0.10842077950591042</v>
+        <v>-0.32321529855460485</v>
       </c>
       <c r="F319">
-        <v>-6.8799643484415557E-2</v>
+        <v>0.1912828827956729</v>
       </c>
       <c r="G319">
-        <v>3.2377861344734499E-2</v>
+        <v>0.25197712011937329</v>
       </c>
       <c r="H319">
-        <v>-0.94688190769642977</v>
+        <v>-0.41472732575094778</v>
       </c>
       <c r="I319">
-        <v>-0.72002761371481172</v>
+        <v>-0.31840282893767496</v>
       </c>
       <c r="J319">
-        <v>0.34614858393761117</v>
+        <v>6.0968990845605531E-2</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -10617,31 +10617,31 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.19886363636363638</v>
+        <v>0.12957746478873239</v>
       </c>
       <c r="C320">
-        <v>5.5945419103313834E-4</v>
+        <v>1.4371257485029941E-4</v>
       </c>
       <c r="D320">
-        <v>7.1266375545851529E-4</v>
+        <v>0.60927536231884061</v>
       </c>
       <c r="E320">
-        <v>-0.11907898347878589</v>
+        <v>-0.17834245945662605</v>
       </c>
       <c r="F320">
-        <v>-0.10400555744881643</v>
+        <v>7.311052491469229E-2</v>
       </c>
       <c r="G320">
-        <v>-1.0470142150514146E-5</v>
+        <v>6.0681422531708529E-7</v>
       </c>
       <c r="H320">
-        <v>-0.94688190769642977</v>
+        <v>-0.40974044911052787</v>
       </c>
       <c r="I320">
-        <v>-0.7453401856255274</v>
+        <v>-0.49462207160748489</v>
       </c>
       <c r="J320">
-        <v>0.35408400601997536</v>
+        <v>7.6419292976806455E-2</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -10649,31 +10649,31 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.17045454545454547</v>
+        <v>0.6535211267605634</v>
       </c>
       <c r="C321">
-        <v>5.8674463937621836E-4</v>
+        <v>6.2874251497005995E-5</v>
       </c>
       <c r="D321">
-        <v>6.9781659388646288E-4</v>
+        <v>5.7739130434782604E-4</v>
       </c>
       <c r="E321">
-        <v>-8.8167198079926554E-2</v>
+        <v>-0.42083659266308071</v>
       </c>
       <c r="F321">
-        <v>-5.2795763755996539E-2</v>
+        <v>7.3812347232641991E-7</v>
       </c>
       <c r="G321">
-        <v>-9.5183110459219489E-6</v>
+        <v>-3.6408853519025116E-6</v>
       </c>
       <c r="H321">
-        <v>-0.94607810302096595</v>
+        <v>-0.39693788276465442</v>
       </c>
       <c r="I321">
-        <v>-0.75657743345861783</v>
+        <v>-0.74289082068660672</v>
       </c>
       <c r="J321">
-        <v>0.4054248187166507</v>
+        <v>1.5450302131200927E-5</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -10681,31 +10681,31 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.21022727272727273</v>
+        <v>0.21408450704225351</v>
       </c>
       <c r="C322">
-        <v>6.1403508771929827E-4</v>
+        <v>3.6377245508982037E-4</v>
       </c>
       <c r="D322">
-        <v>6.6550218340611354E-4</v>
+        <v>5.6521739130434778E-4</v>
       </c>
       <c r="E322">
-        <v>-7.507147882580123E-2</v>
+        <v>-0.38539927797445761</v>
       </c>
       <c r="F322">
-        <v>4.7972317613442731E-6</v>
+        <v>-7.5336995716463781E-2</v>
       </c>
       <c r="G322">
-        <v>-3.6185185763103284E-2</v>
+        <v>-4.2476995772195972E-6</v>
       </c>
       <c r="H322">
-        <v>-0.93870989349588052</v>
+        <v>-0.40192475940507438</v>
       </c>
       <c r="I322">
-        <v>-0.76217688118432159</v>
+        <v>-0.96051274495358774</v>
       </c>
       <c r="J322">
-        <v>0.41585716240251747</v>
+        <v>6.2271592430437457E-2</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -10713,31 +10713,31 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.20454545454545453</v>
+        <v>0.25633802816901408</v>
       </c>
       <c r="C323">
-        <v>6.2962962962962961E-4</v>
+        <v>3.7649700598802393E-4</v>
       </c>
       <c r="D323">
-        <v>6.5676855895196507E-4</v>
+        <v>4.3188405797101449E-4</v>
       </c>
       <c r="E323">
-        <v>-6.0149494284188837E-2</v>
+        <v>-0.41804902569561492</v>
       </c>
       <c r="F323">
-        <v>5.3595302382887254E-2</v>
+        <v>1.2560199414341377E-2</v>
       </c>
       <c r="G323">
-        <v>1.142197325510634E-5</v>
+        <v>6.6789355881621493E-2</v>
       </c>
       <c r="H323">
-        <v>-0.91332306249581352</v>
+        <v>-0.39798775153105864</v>
       </c>
       <c r="I323">
-        <v>-0.75469816675615553</v>
+        <v>-1.2734639752467953</v>
       </c>
       <c r="J323">
-        <v>0.37453824052537965</v>
+        <v>5.6084234902485798E-2</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -10745,31 +10745,31 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.15340909090909091</v>
+        <v>0.16338028169014085</v>
       </c>
       <c r="C324">
-        <v>6.4912280701754385E-4</v>
+        <v>4.7979041916167668E-4</v>
       </c>
       <c r="D324">
-        <v>6.3755458515283843E-4</v>
+        <v>4.3188405797101449E-4</v>
       </c>
       <c r="E324">
-        <v>-4.6140642386319979E-2</v>
+        <v>-7.547129236120631E-2</v>
       </c>
       <c r="F324">
-        <v>4.3201300233307996E-2</v>
+        <v>-0.13072045691052975</v>
       </c>
       <c r="G324">
-        <v>0.10190834334576435</v>
+        <v>-7.2817707038050231E-6</v>
       </c>
       <c r="H324">
-        <v>-0.93375309799718664</v>
+        <v>-0.40370370370370373</v>
       </c>
       <c r="I324">
-        <v>-0.75047940477103625</v>
+        <v>-1.4028289376749667</v>
       </c>
       <c r="J324">
-        <v>0.41835408400601998</v>
+        <v>7.0231935448854796E-2</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -10777,31 +10777,31 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.23863636363636367</v>
+        <v>-2.8169014084507044E-3</v>
       </c>
       <c r="C325">
-        <v>6.7153996101364515E-4</v>
+        <v>4.3787425149700594E-4</v>
       </c>
       <c r="D325">
-        <v>6.1397379912663756E-4</v>
+        <v>4.0231884057971009E-4</v>
       </c>
       <c r="E325">
-        <v>-3.6550254729079035E-3</v>
+        <v>-0.1235427099881992</v>
       </c>
       <c r="F325">
-        <v>1.1193540776469971E-5</v>
+        <v>4.0620991747537569E-2</v>
       </c>
       <c r="G325">
-        <v>0.14475634684101299</v>
+        <v>1.7000746083063914E-2</v>
       </c>
       <c r="H325">
-        <v>-1</v>
+        <v>-0.40370370370370373</v>
       </c>
       <c r="I325">
-        <v>-0.73080463296770726</v>
+        <v>-1.4946220716074849</v>
       </c>
       <c r="J325">
-        <v>0.37453824052537965</v>
+        <v>0.10069833918297934</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -10809,31 +10809,31 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.27272727272727276</v>
+        <v>0.11549295774647889</v>
       </c>
       <c r="C326">
-        <v>-3.898635477582846E-6</v>
+        <v>1.781437125748503E-4</v>
       </c>
       <c r="D326">
-        <v>0.89432314410480351</v>
+        <v>0.58144927536231883</v>
       </c>
       <c r="E326">
-        <v>-3.9594030208224178E-3</v>
+        <v>-1.0007822391393757E-2</v>
       </c>
       <c r="F326">
-        <v>4.2401761606417281E-2</v>
+        <v>-8.271823043972798E-2</v>
       </c>
       <c r="G326">
-        <v>-1.5244901462074992E-5</v>
+        <v>-2.0034817209649339E-2</v>
       </c>
       <c r="H326">
-        <v>-0.86918078906825647</v>
+        <v>-0.42006415864683583</v>
       </c>
       <c r="I326">
-        <v>-0.59549743039042724</v>
+        <v>-0.88315898040371299</v>
       </c>
       <c r="J326">
-        <v>6.0131344917225341E-2</v>
+        <v>8.2172449976480808E-2</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -10841,31 +10841,31 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.38636363636363641</v>
+        <v>-5.3521126760563378E-2</v>
       </c>
       <c r="C327">
-        <v>3.8986354775828462E-5</v>
+        <v>1.6017964071856288E-4</v>
       </c>
       <c r="D327">
-        <v>0.90131004366812228</v>
+        <v>5.5652173913043473E-4</v>
       </c>
       <c r="E327">
-        <v>-0.1091817233756967</v>
+        <v>-0.11074732062933962</v>
       </c>
       <c r="F327">
-        <v>1.1193540776469971E-5</v>
+        <v>-5.7609931995837464E-2</v>
       </c>
       <c r="G327">
-        <v>-9.5183110459219489E-6</v>
+        <v>1.6393931857746829E-2</v>
       </c>
       <c r="H327">
-        <v>-0.90434724361980035</v>
+        <v>-0.43076698745990083</v>
       </c>
       <c r="I327">
-        <v>-0.6203114213392652</v>
+        <v>-0.84897598349786352</v>
       </c>
       <c r="J327">
-        <v>0.10521275140238062</v>
+        <v>6.889315048666643E-2</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -10873,31 +10873,31 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.38068181818181823</v>
+        <v>-7.3239436619718309E-2</v>
       </c>
       <c r="C328">
-        <v>1.0721247563352827E-4</v>
+        <v>1.6167664670658683E-4</v>
       </c>
       <c r="D328">
-        <v>0.87685589519650653</v>
+        <v>5.6463768115942031E-4</v>
       </c>
       <c r="E328">
-        <v>-0.19917768164104407</v>
+        <v>-9.8933090328459788E-2</v>
       </c>
       <c r="F328">
-        <v>-0.11200094371772354</v>
+        <v>-5.687180852351105E-2</v>
       </c>
       <c r="G328">
-        <v>2.285955029881255E-2</v>
+        <v>2.7326535687639892E-2</v>
       </c>
       <c r="H328">
-        <v>-0.90186884587045346</v>
+        <v>-0.41402741324001169</v>
       </c>
       <c r="I328">
-        <v>-0.63672624069954742</v>
+        <v>-0.97480477383232655</v>
       </c>
       <c r="J328">
-        <v>0.1473867834177042</v>
+        <v>9.6283967145493365E-2</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -10905,31 +10905,31 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.23295454545454547</v>
+        <v>0.14929577464788732</v>
       </c>
       <c r="C329">
-        <v>2.0467836257309941E-4</v>
+        <v>2.4401197604790421E-4</v>
       </c>
       <c r="D329">
-        <v>8.6550218340611352E-4</v>
+        <v>5.7391304347826082E-4</v>
       </c>
       <c r="E329">
-        <v>-0.19278325823690554</v>
+        <v>-9.9752962965949751E-2</v>
       </c>
       <c r="F329">
-        <v>-6.0004718588617716E-2</v>
+        <v>-0.11225526971757702</v>
       </c>
       <c r="G329">
-        <v>-0.10000468113657997</v>
+        <v>0.11839840835613032</v>
       </c>
       <c r="H329">
-        <v>-0.95585772657244295</v>
+        <v>-0.42006415864683583</v>
       </c>
       <c r="I329">
-        <v>-0.64186545984505639</v>
+        <v>-1</v>
       </c>
       <c r="J329">
-        <v>0.16575454918593516</v>
+        <v>7.9494880052104061E-2</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -10937,31 +10937,31 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.21590909090909091</v>
+        <v>-5.6338028169014086E-2</v>
       </c>
       <c r="C330">
-        <v>2.8654970760233917E-4</v>
+        <v>2.5973053892215566E-4</v>
       </c>
       <c r="D330">
-        <v>8.2882096069868995E-4</v>
+        <v>5.2753623188405796E-4</v>
       </c>
       <c r="E330">
-        <v>-0.17176873294113537</v>
+        <v>-6.1853342257848602E-2</v>
       </c>
       <c r="F330">
-        <v>-1.3605263847746874E-2</v>
+        <v>-5.318119116187895E-2</v>
       </c>
       <c r="G330">
-        <v>-9.2374428511242529E-2</v>
+        <v>0.14510818204426759</v>
       </c>
       <c r="H330">
-        <v>-0.94199209592069122</v>
+        <v>-0.41615631379410906</v>
       </c>
       <c r="I330">
-        <v>-0.69053463220065969</v>
+        <v>-1.0126712833357889</v>
       </c>
       <c r="J330">
-        <v>0.22089205089615543</v>
+        <v>5.3008647827188192E-2</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -10969,31 +10969,31 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.35227272727272729</v>
+        <v>-1.6901408450704227E-2</v>
       </c>
       <c r="C331">
-        <v>3.3138401559454193E-4</v>
+        <v>4.0494011976047905E-4</v>
       </c>
       <c r="D331">
-        <v>8.2096069868995629E-4</v>
+        <v>5.2811594202898553E-4</v>
       </c>
       <c r="E331">
-        <v>-0.13826724348706895</v>
+        <v>-0.23658836210951886</v>
       </c>
       <c r="F331">
-        <v>1.1193540776469971E-5</v>
+        <v>-5.9049877786113593E-6</v>
       </c>
       <c r="G331">
-        <v>-0.1428526846318286</v>
+        <v>6.3148470529718975E-2</v>
       </c>
       <c r="H331">
-        <v>-0.88311340344296341</v>
+        <v>-0.41863517060367456</v>
       </c>
       <c r="I331">
-        <v>-0.69383293702538928</v>
+        <v>-1.0935612199793723</v>
       </c>
       <c r="J331">
-        <v>0.23046928444383635</v>
+        <v>9.7622752107681732E-2</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -11001,31 +11001,31 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.40340909090909088</v>
+        <v>-8.1690140845070425E-2</v>
       </c>
       <c r="C332">
-        <v>3.7426900584795324E-4</v>
+        <v>3.9296407185628745E-4</v>
       </c>
       <c r="D332">
-        <v>8.0000000000000004E-4</v>
+        <v>4.9855072463768119E-4</v>
       </c>
       <c r="E332">
-        <v>-0.14070226387038506</v>
+        <v>-0.49663583407928302</v>
       </c>
       <c r="F332">
-        <v>-3.6005452591291585E-2</v>
+        <v>0.13145858038285618</v>
       </c>
       <c r="G332">
-        <v>-8.2856117465320581E-2</v>
+        <v>0.17607560308380998</v>
       </c>
       <c r="H332">
-        <v>-0.90515104829526427</v>
+        <v>-0.40904053659959172</v>
       </c>
       <c r="I332">
-        <v>-0.71208867070645088</v>
+        <v>-1.3381464564608812</v>
       </c>
       <c r="J332">
-        <v>0.22338897249965795</v>
+        <v>8.4379635995223801E-2</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -11033,31 +11033,31 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.38068181818181823</v>
+        <v>-0.11267605633802817</v>
       </c>
       <c r="C333">
-        <v>4.2495126705653023E-4</v>
+        <v>3.5703592814371256E-4</v>
       </c>
       <c r="D333">
-        <v>7.6943231441048031E-4</v>
+        <v>3.8724637681159424E-4</v>
       </c>
       <c r="E333">
-        <v>-0.11862241715691411</v>
+        <v>-0.44315056893784827</v>
       </c>
       <c r="F333">
-        <v>-3.9976931344535613E-6</v>
+        <v>6.2038672829795985E-2</v>
       </c>
       <c r="G333">
-        <v>-7.4289637523990829E-2</v>
+        <v>-1.6393931857746829E-2</v>
       </c>
       <c r="H333">
-        <v>-0.88632862214481878</v>
+        <v>-0.41863517060367456</v>
       </c>
       <c r="I333">
-        <v>-0.7415816522206029</v>
+        <v>-1.5305731545601886</v>
       </c>
       <c r="J333">
-        <v>0.24928170748392392</v>
+        <v>8.1267865542569748E-2</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -11065,31 +11065,31 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.35795454545454547</v>
+        <v>-2.8169014084507043E-2</v>
       </c>
       <c r="C334">
-        <v>4.7465886939571149E-4</v>
+        <v>5.7784431137724549E-4</v>
       </c>
       <c r="D334">
-        <v>7.5720524017467252E-4</v>
+        <v>3.3797101449275358E-4</v>
       </c>
       <c r="E334">
-        <v>-0.11161923865694655</v>
+        <v>-0.24265810773395266</v>
       </c>
       <c r="F334">
-        <v>-4.0802684352635857E-2</v>
+        <v>-2.9537039277849036E-2</v>
       </c>
       <c r="G334">
-        <v>-0.21523865994663505</v>
+        <v>-2.4889331012186024E-2</v>
       </c>
       <c r="H334">
-        <v>-0.91499765556969659</v>
+        <v>-0.44286964129483813</v>
       </c>
       <c r="I334">
-        <v>-0.75749789061900741</v>
+        <v>-1.7392073080889936</v>
       </c>
       <c r="J334">
-        <v>0.30356409905595838</v>
+        <v>0.13206932735101495</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -11097,31 +11097,31 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.38636363636363641</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="C335">
-        <v>4.9707602339181284E-4</v>
+        <v>-6.5868263473053891E-4</v>
       </c>
       <c r="D335">
-        <v>7.5196506550218338E-4</v>
+        <v>2.7304347826086954E-4</v>
       </c>
       <c r="E335">
-        <v>-9.8523519402821225E-2</v>
+        <v>-0.19278028219747373</v>
       </c>
       <c r="F335">
-        <v>-5.8405641334836292E-2</v>
+        <v>2.5846421916216937E-2</v>
       </c>
       <c r="G335">
-        <v>-9.5245525613618987E-2</v>
+        <v>0.10443173339965182</v>
       </c>
       <c r="H335">
-        <v>-0.85940116551677947</v>
+        <v>-0.37556138815981338</v>
       </c>
       <c r="I335">
-        <v>-0.76827490987190306</v>
+        <v>0.43347576248710773</v>
       </c>
       <c r="J335">
-        <v>0.32986728690655359</v>
+        <v>0.38206028150667581</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -11129,31 +11129,31 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.46022727272727276</v>
+        <v>9.2957746478873254E-2</v>
       </c>
       <c r="C336">
-        <v>5.1851851851851853E-4</v>
+        <v>-6.5643712574850303E-4</v>
       </c>
       <c r="D336">
-        <v>7.3187772925764193E-4</v>
+        <v>3.3565217391304345E-4</v>
       </c>
       <c r="E336">
-        <v>-8.9082825621603814E-2</v>
+        <v>-0.3440535040818905</v>
       </c>
       <c r="F336">
-        <v>1.7602956982200435E-2</v>
+        <v>0.2850850657050894</v>
       </c>
       <c r="G336">
-        <v>4.9526425015993886E-2</v>
+        <v>0.11110668987813976</v>
       </c>
       <c r="H336">
-        <v>-0.89945743184406191</v>
+        <v>-0.38092738407699039</v>
       </c>
       <c r="I336">
-        <v>-0.77855334816292088</v>
+        <v>0.55930455282157066</v>
       </c>
       <c r="J336">
-        <v>0.34905595840744286</v>
+        <v>0.36306400839454356</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -11161,31 +11161,31 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.45454545454545459</v>
+        <v>7.8873239436619724E-2</v>
       </c>
       <c r="C337">
-        <v>5.662768031189084E-4</v>
+        <v>-5.5988023952095809E-4</v>
       </c>
       <c r="D337">
-        <v>7.0655021834061145E-4</v>
+        <v>4.0173913043478257E-4</v>
       </c>
       <c r="E337">
-        <v>-7.6748050237264789E-2</v>
+        <v>-0.31698157840267305</v>
       </c>
       <c r="F337">
-        <v>3.1195113639342544E-2</v>
+        <v>0.28729943612206871</v>
       </c>
       <c r="G337">
-        <v>-2.3811381403404747E-2</v>
+        <v>-0.39587167371300669</v>
       </c>
       <c r="H337">
-        <v>-0.88961082456962959</v>
+        <v>-0.39550889472149314</v>
       </c>
       <c r="I337">
-        <v>-0.77249367185702233</v>
+        <v>0.26256077795786059</v>
       </c>
       <c r="J337">
-        <v>0.38664660008209056</v>
+        <v>0.26413865470202991</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -11193,31 +11193,31 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.38636363636363641</v>
+        <v>7.6056338028169024E-2</v>
       </c>
       <c r="C338">
-        <v>5.7504873294346979E-4</v>
+        <v>-4.7380239520958083E-4</v>
       </c>
       <c r="D338">
-        <v>6.9344978165938864E-4</v>
+        <v>4.4347826086956523E-4</v>
       </c>
       <c r="E338">
-        <v>-5.2382877016501253E-2</v>
+        <v>-0.20869656379281146</v>
       </c>
       <c r="F338">
-        <v>9.2798909481741687E-2</v>
+        <v>1.7727063720626317E-2</v>
       </c>
       <c r="G338">
-        <v>1.9052225880443772E-2</v>
+        <v>-0.34668987813976621</v>
       </c>
       <c r="H338">
-        <v>-0.91740906959608814</v>
+        <v>-0.40049577136191311</v>
       </c>
       <c r="I338">
-        <v>-0.78323233872823506</v>
+        <v>-6.8365993811698842E-5</v>
       </c>
       <c r="J338">
-        <v>0.33068819263921195</v>
+        <v>0.23761623909975757</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -11225,31 +11225,31 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.36931818181818188</v>
+        <v>-2.8169014084507044E-3</v>
       </c>
       <c r="C339">
-        <v>5.9064327485380114E-4</v>
+        <v>-4.2140718562874247E-4</v>
       </c>
       <c r="D339">
-        <v>6.7860262008733623E-4</v>
+        <v>4.8057971014492753E-4</v>
       </c>
       <c r="E339">
-        <v>-7.9639636942452685E-2</v>
+        <v>-0.39803069280581921</v>
       </c>
       <c r="F339">
-        <v>0.11679817547906782</v>
+        <v>-0.11299339318990344</v>
       </c>
       <c r="G339">
-        <v>-4.7591555229609745E-6</v>
+        <v>-4.4327281770703802E-2</v>
       </c>
       <c r="H339">
-        <v>-0.91412686717127734</v>
+        <v>-0.39337999416739572</v>
       </c>
       <c r="I339">
-        <v>-0.80198665337117436</v>
+        <v>-0.22660969500515693</v>
       </c>
       <c r="J339">
-        <v>0.35281844301546039</v>
+        <v>0.17798603321634041</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -11257,31 +11257,31 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.50568181818181823</v>
+        <v>-3.0985915492957747E-2</v>
       </c>
       <c r="C340">
-        <v>6.3840155945419101E-4</v>
+        <v>-3.869760479041916E-4</v>
       </c>
       <c r="D340">
-        <v>6.331877729257642E-4</v>
+        <v>5.2405797101449274E-4</v>
       </c>
       <c r="E340">
-        <v>-7.4158346182057688E-2</v>
+        <v>-0.318129400095159</v>
       </c>
       <c r="F340">
-        <v>7.439641387265053E-2</v>
+        <v>0.16838895476876165</v>
       </c>
       <c r="G340">
-        <v>-1.9036622091843899E-6</v>
+        <v>-1.3966674956478489E-2</v>
       </c>
       <c r="H340">
-        <v>-0.89369683166990421</v>
+        <v>-0.39515893846602507</v>
       </c>
       <c r="I340">
-        <v>-0.79914857712663956</v>
+        <v>-0.33092677176955942</v>
       </c>
       <c r="J340">
-        <v>0.37245177178820632</v>
+        <v>0.17624923110323118</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -11289,31 +11289,31 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.4375</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="C341">
-        <v>6.5302144249512674E-4</v>
+        <v>-2.679640718562874E-4</v>
       </c>
       <c r="D341">
-        <v>6.2969432314410477E-4</v>
+        <v>5.6985507246376814E-4</v>
       </c>
       <c r="E341">
-        <v>-6.3500142209182223E-2</v>
+        <v>-0.34487337671938045</v>
       </c>
       <c r="F341">
-        <v>4.8798070621542976E-2</v>
+        <v>0.2333801214878633</v>
       </c>
       <c r="G341">
-        <v>-4.1911776179256323E-2</v>
+        <v>4.6147724446655061E-2</v>
       </c>
       <c r="H341">
-        <v>-0.86918078906825647</v>
+        <v>-0.39763779527559057</v>
       </c>
       <c r="I341">
-        <v>-0.77667408146045869</v>
+        <v>-0.54132901134521882</v>
       </c>
       <c r="J341">
-        <v>0.37368313038719386</v>
+        <v>0.12588196982306329</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -11321,31 +11321,31 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.51704545454545459</v>
+        <v>4.7887323943661977E-2</v>
       </c>
       <c r="C342">
-        <v>6.6374269005847958E-4</v>
+        <v>-1.9386227544910181E-4</v>
       </c>
       <c r="D342">
-        <v>6.1135371179039293E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="E342">
-        <v>-9.9284463272607523E-2</v>
+        <v>-0.43035249147198051</v>
       </c>
       <c r="F342">
-        <v>-2.1600650116653998E-2</v>
+        <v>0.24076135621112751</v>
       </c>
       <c r="G342">
-        <v>-0.11142665439168631</v>
+        <v>-0.29265356876398907</v>
       </c>
       <c r="H342">
-        <v>-0.8740706008439949</v>
+        <v>-0.40262467191601048</v>
       </c>
       <c r="I342">
-        <v>-0.80758610109687812</v>
+        <v>-0.82009724473257695</v>
       </c>
       <c r="J342">
-        <v>0.42088521001504992</v>
+        <v>0.11926041176683431</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -11353,31 +11353,31 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.64204545454545459</v>
+        <v>0.19718309859154931</v>
       </c>
       <c r="C343">
-        <v>6.9688109161793372E-4</v>
+        <v>1.5718562874251499E-5</v>
       </c>
       <c r="D343">
-        <v>5.8777292576419216E-4</v>
+        <v>0.58028985507246378</v>
       </c>
       <c r="E343">
-        <v>-9.2430978648663481E-2</v>
+        <v>-0.48958224128986128</v>
       </c>
       <c r="F343">
-        <v>-8.9600754974178839E-2</v>
+        <v>0.21196244040560488</v>
       </c>
       <c r="G343">
-        <v>-0.13904536021345984</v>
+        <v>-8.8644615767222087E-2</v>
       </c>
       <c r="H343">
-        <v>-0.82423471096523548</v>
+        <v>-0.38410615339749199</v>
       </c>
       <c r="I343">
-        <v>-0.8291401396026693</v>
+        <v>-1.1726830705761013</v>
       </c>
       <c r="J343">
-        <v>0.46011766315501434</v>
+        <v>0.1263161703513406</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -11385,31 +11385,31 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.44886363636363641</v>
+        <v>8.1690140845070425E-2</v>
       </c>
       <c r="C344">
-        <v>-6.8226120857699818E-5</v>
+        <v>-7.2979041916167663E-4</v>
       </c>
       <c r="D344">
-        <v>0.90480349344978162</v>
+        <v>-1.2985507246376812E-4</v>
       </c>
       <c r="E344">
-        <v>-2.6648004830122401E-2</v>
+        <v>-0.3228873494996089</v>
       </c>
       <c r="F344">
-        <v>6.2403334469289855E-2</v>
+        <v>-7.5336995716463781E-2</v>
       </c>
       <c r="G344">
-        <v>-2.9522368030957917E-2</v>
+        <v>0.13600596866451131</v>
       </c>
       <c r="H344">
-        <v>-0.67787527630785716</v>
+        <v>-0.37451151939340915</v>
       </c>
       <c r="I344">
-        <v>-0.71910715655442203</v>
+        <v>0.43892736113157504</v>
       </c>
       <c r="J344">
-        <v>5.3871938705705294E-2</v>
+        <v>0.53222129753591196</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -11417,31 +11417,31 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.48295454545454553</v>
+        <v>1.6901408450704227E-2</v>
       </c>
       <c r="C345">
-        <v>-5.1656920077972708E-5</v>
+        <v>-0.78667664670658688</v>
       </c>
       <c r="D345">
-        <v>0.92489082969432312</v>
+        <v>6.1449275362318844E-5</v>
       </c>
       <c r="E345">
-        <v>-7.4767101277886716E-2</v>
+        <v>-0.6759648288079052</v>
       </c>
       <c r="F345">
-        <v>-9.5997063989304535E-2</v>
+        <v>5.3919314634205365E-2</v>
       </c>
       <c r="G345">
-        <v>-3.9040679076879865E-2</v>
+        <v>5.1002238249191742E-2</v>
       </c>
       <c r="H345">
-        <v>-0.72938575926049964</v>
+        <v>-0.38626421697287838</v>
       </c>
       <c r="I345">
-        <v>-0.71818669939403235</v>
+        <v>0.49285398556063059</v>
       </c>
       <c r="J345">
-        <v>0.12358051717061158</v>
+        <v>0.46994970510547457</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -11449,31 +11449,31 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.58522727272727271</v>
+        <v>0.24225352112676055</v>
       </c>
       <c r="C346">
-        <v>6.5302144249512677E-5</v>
+        <v>-6.3398203592814366E-4</v>
       </c>
       <c r="D346">
-        <v>0.92489082969432312</v>
+        <v>1.9304347826086958E-4</v>
       </c>
       <c r="E346">
-        <v>-0.23770389553363372</v>
+        <v>-0.6480730304911978</v>
       </c>
       <c r="F346">
-        <v>-2.3199727370435422E-2</v>
+        <v>9.6754676798722197E-2</v>
       </c>
       <c r="G346">
-        <v>-0.16285674161686459</v>
+        <v>0.40801790599353394</v>
       </c>
       <c r="H346">
-        <v>-0.71136713778551808</v>
+        <v>-0.39941673957421991</v>
       </c>
       <c r="I346">
-        <v>-0.75749789061900741</v>
+        <v>0.50184175629880656</v>
       </c>
       <c r="J346">
-        <v>0.13445751812833492</v>
+        <v>0.33393638962260735</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -11481,31 +11481,31 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.48295454545454553</v>
+        <v>0.24788732394366197</v>
       </c>
       <c r="C347">
-        <v>1.7641325536062378E-4</v>
+        <v>-6.3323353293413169E-4</v>
       </c>
       <c r="D347">
-        <v>0.87860262008733625</v>
+        <v>3.147826086956522E-4</v>
       </c>
       <c r="E347">
-        <v>-0.35282347599159719</v>
+        <v>-0.49614391049678908</v>
       </c>
       <c r="F347">
-        <v>-9.5197525362413826E-2</v>
+        <v>0.2466784443745311</v>
       </c>
       <c r="G347">
-        <v>-3.1426030240142309E-2</v>
+        <v>1.5180303407112659E-2</v>
       </c>
       <c r="H347">
-        <v>-0.73179717328689131</v>
+        <v>-0.3641878098571012</v>
       </c>
       <c r="I347">
-        <v>-0.82070261563243074</v>
+        <v>0.46397524679534402</v>
       </c>
       <c r="J347">
-        <v>0.18371186208783691</v>
+        <v>0.24423779715598654</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -11513,31 +11513,31 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.29545454545454547</v>
+        <v>0.2394366197183099</v>
       </c>
       <c r="C348">
-        <v>3.2943469785575049E-4</v>
+        <v>-6.2050898203592814E-4</v>
       </c>
       <c r="D348">
-        <v>8.4104803493449784E-4</v>
+        <v>3.7043478260869567E-4</v>
       </c>
       <c r="E348">
-        <v>-0.39805098573417363</v>
+        <v>-0.29368375496291754</v>
       </c>
       <c r="F348">
-        <v>-0.14559467323773823</v>
+        <v>0.22673701023692552</v>
       </c>
       <c r="G348">
-        <v>-3.713701686769548E-2</v>
+        <v>-2.7933349912956977E-2</v>
       </c>
       <c r="H348">
-        <v>-0.73588318038716594</v>
+        <v>-0.37664041994750658</v>
       </c>
       <c r="I348">
-        <v>-0.8455166065812687</v>
+        <v>0.23559746574333285</v>
       </c>
       <c r="J348">
-        <v>0.25259953482008485</v>
+        <v>0.19036074827224372</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -11545,31 +11545,31 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.44886363636363641</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="C349">
-        <v>4.6003898635477581E-4</v>
+        <v>-4.9176646706586833E-4</v>
       </c>
       <c r="D349">
-        <v>7.3711790393013097E-4</v>
+        <v>3.7159420289855071E-4</v>
       </c>
       <c r="E349">
-        <v>-0.31353631822922123</v>
+        <v>-0.21115618170528133</v>
       </c>
       <c r="F349">
-        <v>1.2805725220856162E-5</v>
+        <v>-9.8969047215701461E-2</v>
       </c>
       <c r="G349">
-        <v>9.5183110459219489E-6</v>
+        <v>-0.14146729669236507</v>
       </c>
       <c r="H349">
-        <v>-0.75222720878826443</v>
+        <v>-0.37308253135024788</v>
       </c>
       <c r="I349">
-        <v>-0.87546981667561552</v>
+        <v>4.6706939737733901E-5</v>
       </c>
       <c r="J349">
-        <v>0.33404022438090025</v>
+        <v>0.19169953323443209</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -11577,31 +11577,31 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.32954545454545459</v>
+        <v>0</v>
       </c>
       <c r="C350">
-        <v>5.3703703703703704E-4</v>
+        <v>-5.5239520958083827E-4</v>
       </c>
       <c r="D350">
-        <v>6.602620087336245E-4</v>
+        <v>4.7826086956521735E-4</v>
       </c>
       <c r="E350">
-        <v>-0.26800692583666402</v>
+        <v>-0.50779416627017093</v>
       </c>
       <c r="F350">
-        <v>9.3598448108632396E-2</v>
+        <v>0.11004089930059775</v>
       </c>
       <c r="G350">
-        <v>-2.5715043612589136E-2</v>
+        <v>9.1121611539418064E-6</v>
       </c>
       <c r="H350">
-        <v>-0.77352803268805681</v>
+        <v>-0.37378244386118403</v>
       </c>
       <c r="I350">
-        <v>-0.87313032139295854</v>
+        <v>-0.21762192426698099</v>
       </c>
       <c r="J350">
-        <v>0.39666849090162815</v>
+        <v>0.15236820204797916</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -11609,31 +11609,31 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.52840909090909094</v>
+        <v>0.17183098591549295</v>
       </c>
       <c r="C351">
-        <v>6.2085769980506822E-4</v>
+        <v>-3.9970059880239521E-4</v>
       </c>
       <c r="D351">
-        <v>5.9563318777292582E-4</v>
+        <v>5.1942028985507249E-4</v>
       </c>
       <c r="E351">
-        <v>-0.22064877325868598</v>
+        <v>-0.23314220892505289</v>
       </c>
       <c r="F351">
-        <v>-0.13120297795370539</v>
+        <v>4.4287408339585201E-6</v>
       </c>
       <c r="G351">
-        <v>0.14666000905019738</v>
+        <v>1.8821188759015169E-2</v>
       </c>
       <c r="H351">
-        <v>-0.75142340411280062</v>
+        <v>-0.35030621172353454</v>
       </c>
       <c r="I351">
-        <v>-0.8811076167830022</v>
+        <v>-0.3867688227493738</v>
       </c>
       <c r="J351">
-        <v>0.45762074155151183</v>
+        <v>0.1020371241451677</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -11641,31 +11641,31 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.47727272727272735</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="C352">
-        <v>6.8323586744639371E-4</v>
+        <v>-3.5853293413173654E-4</v>
       </c>
       <c r="D352">
-        <v>5.6244541484716157E-4</v>
+        <v>5.1768115942028988E-4</v>
       </c>
       <c r="E352">
-        <v>-0.16354554935157603</v>
+        <v>-0.1931082312524697</v>
       </c>
       <c r="F352">
-        <v>-7.1198259365087682E-2</v>
+        <v>-0.277691730597033</v>
       </c>
       <c r="G352">
-        <v>0.24476102797759297</v>
+        <v>-0.18640139268838599</v>
       </c>
       <c r="H352">
-        <v>-0.76287762073816068</v>
+        <v>-0.37734033245844267</v>
       </c>
       <c r="I352">
-        <v>-0.8815678453631971</v>
+        <v>-0.55576838072786205</v>
       </c>
       <c r="J352">
-        <v>0.5181625393350664</v>
+        <v>0.11661902521981402</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -11673,31 +11673,31 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.86363636363636365</v>
+        <v>6.1971830985915494E-2</v>
       </c>
       <c r="C353">
-        <v>-7.8947368421052633E-5</v>
+        <v>-2.9041916167664672E-4</v>
       </c>
       <c r="D353">
-        <v>8.6724890829694323E-4</v>
+        <v>5.3739130434782615E-4</v>
       </c>
       <c r="E353">
-        <v>-0.16704838605052666</v>
+        <v>-0.1911405369224938</v>
       </c>
       <c r="F353">
-        <v>-0.1447951346108475</v>
+        <v>-0.35450497325814961</v>
       </c>
       <c r="G353">
-        <v>-1.7148563671259383E-2</v>
+        <v>4.918179557324049E-2</v>
       </c>
       <c r="H353">
-        <v>-0.54618527697769437</v>
+        <v>-0.37273257509477981</v>
       </c>
       <c r="I353">
-        <v>-0.81740431080770115</v>
+        <v>-0.67629291292176219</v>
       </c>
       <c r="J353">
-        <v>4.2994937747981937E-2</v>
+        <v>0.11926041176683431</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -11705,31 +11705,31 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.76704545454545459</v>
+        <v>7.3239436619718309E-2</v>
       </c>
       <c r="C354">
-        <v>5.6530214424951267E-5</v>
+        <v>-2.5823353293413174E-4</v>
       </c>
       <c r="D354">
-        <v>0.87860262008733625</v>
+        <v>5.7275362318840578E-4</v>
       </c>
       <c r="E354">
-        <v>-0.18699509503066231</v>
+        <v>-0.24807195524839454</v>
       </c>
       <c r="F354">
-        <v>-0.15680132120481297</v>
+        <v>-0.13959003896323904</v>
       </c>
       <c r="G354">
-        <v>-0.14380451573642081</v>
+        <v>5.8890823178313852E-2</v>
       </c>
       <c r="H354">
-        <v>-0.5535534865027798</v>
+        <v>-0.37664041994750658</v>
       </c>
       <c r="I354">
-        <v>-0.8651913783845977</v>
+        <v>-0.77692647708855167</v>
       </c>
       <c r="J354">
-        <v>3.8822000273635242E-2</v>
+        <v>0.14046387089770959</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -11737,31 +11737,31 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.59090909090909094</v>
+        <v>0.10704225352112676</v>
       </c>
       <c r="C355">
-        <v>8.3820662768031178E-5</v>
+        <v>-1.4446107784431137E-4</v>
       </c>
       <c r="D355">
-        <v>0.88820960698689955</v>
+        <v>0.5808695652173913</v>
       </c>
       <c r="E355">
-        <v>-0.13796286593915444</v>
+        <v>-0.25529221067232244</v>
       </c>
       <c r="F355">
-        <v>-9.6796602616195243E-2</v>
+        <v>-6.5729290191428091E-2</v>
       </c>
       <c r="G355">
-        <v>-2.8570536926365721E-2</v>
+        <v>1.2136284506341706E-6</v>
       </c>
       <c r="H355">
-        <v>-0.57974412217831062</v>
+        <v>-0.40084572761738119</v>
       </c>
       <c r="I355">
-        <v>-0.87359054997315333</v>
+        <v>-0.97480477383232655</v>
       </c>
       <c r="J355">
-        <v>0.10439184566972226</v>
+        <v>0.14621702789738394</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -11769,31 +11769,31 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.73863636363636376</v>
+        <v>5.0704225352112678E-2</v>
       </c>
       <c r="C356">
-        <v>1.2378167641325535E-4</v>
+        <v>-6.2874251497005995E-5</v>
       </c>
       <c r="D356">
-        <v>8.5065502183406111E-4</v>
+        <v>5.6927536231884057E-4</v>
       </c>
       <c r="E356">
-        <v>-0.180144105304652</v>
+        <v>-0.3424110706999024</v>
       </c>
       <c r="F356">
-        <v>3.4406375337510155E-2</v>
+        <v>4.2097238692190411E-2</v>
       </c>
       <c r="G356">
-        <v>-9.4278090720426921E-2</v>
+        <v>5.5856752051728423E-2</v>
       </c>
       <c r="H356">
-        <v>-0.57398352200415304</v>
+        <v>-0.41151939340915716</v>
       </c>
       <c r="I356">
-        <v>-0.89936335046406379</v>
+        <v>-1.1457197583615737</v>
       </c>
       <c r="J356">
-        <v>0.11024079901491313</v>
+        <v>9.1001194051452766E-2</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -11801,31 +11801,31 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.6647727272727274</v>
+        <v>-5.6338028169014088E-3</v>
       </c>
       <c r="C357">
-        <v>1.783625730994152E-4</v>
+        <v>-2.5449101796407187E-5</v>
       </c>
       <c r="D357">
-        <v>8.5851528384279477E-4</v>
+        <v>0.62782608695652176</v>
       </c>
       <c r="E357">
-        <v>-0.23846483940342</v>
+        <v>-0.2907295253609456</v>
       </c>
       <c r="F357">
-        <v>-0.14559467323773823</v>
+        <v>4.6525979526148932E-2</v>
       </c>
       <c r="G357">
-        <v>-1.332563546429073E-5</v>
+        <v>-2.0034817209649339E-2</v>
       </c>
       <c r="H357">
-        <v>-0.58463393395404917</v>
+        <v>-0.39585885097696122</v>
       </c>
       <c r="I357">
-        <v>-0.91432077932039579</v>
+        <v>-1.2500368351259761</v>
       </c>
       <c r="J357">
-        <v>0.19414420577370364</v>
+        <v>0.11661902521981402</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -11833,31 +11833,31 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.69318181818181823</v>
+        <v>5.9154929577464793E-2</v>
       </c>
       <c r="C358">
-        <v>2.5243664717348931E-4</v>
+        <v>3.5928143712574853E-5</v>
       </c>
       <c r="D358">
-        <v>8.1834061135371188E-4</v>
+        <v>0.60463768115942029</v>
       </c>
       <c r="E358">
-        <v>-0.26176219630854902</v>
+        <v>-9.0728987739543937E-2</v>
       </c>
       <c r="F358">
-        <v>-0.32719479906676802</v>
+        <v>-0.17281769560272017</v>
       </c>
       <c r="G358">
-        <v>0.10095651224117215</v>
+        <v>8.4953991544391943E-6</v>
       </c>
       <c r="H358">
-        <v>-0.61819277915466542</v>
+        <v>-0.39480898221055699</v>
       </c>
       <c r="I358">
-        <v>-0.94711206565927741</v>
+        <v>-1.3615735965817004</v>
       </c>
       <c r="J358">
-        <v>0.30144342591325762</v>
+        <v>0.12410898433259761</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -11865,31 +11865,31 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.49431818181818182</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="C359">
-        <v>4.2592592592592595E-4</v>
+        <v>6.6616766467065869E-5</v>
       </c>
       <c r="D359">
-        <v>8.2008733624454148E-4</v>
+        <v>0.59768115942028988</v>
       </c>
       <c r="E359">
-        <v>-0.23191822722532421</v>
+        <v>-1.0007822391393757E-2</v>
       </c>
       <c r="F359">
-        <v>-0.14319605735706609</v>
+        <v>-4.2835362164516833E-2</v>
       </c>
       <c r="G359">
-        <v>5.428558053895486E-2</v>
+        <v>-2.4272569012683412E-6</v>
       </c>
       <c r="H359">
-        <v>-0.6214079978565209</v>
+        <v>-0.4047535724701079</v>
       </c>
       <c r="I359">
-        <v>-0.99344174273222363</v>
+        <v>-1.3435980551053484</v>
       </c>
       <c r="J359">
-        <v>0.39372691202626897</v>
+        <v>0.10381010963563339</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -11897,31 +11897,31 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.36931818181818188</v>
+        <v>0</v>
       </c>
       <c r="C360">
-        <v>4.9902534113060429E-4</v>
+        <v>8.4580838323353302E-5</v>
       </c>
       <c r="D360">
-        <v>7.3711790393013097E-4</v>
+        <v>0.57971014492753625</v>
       </c>
       <c r="E360">
-        <v>-0.16658932483072117</v>
+        <v>-6.4151673749828636E-2</v>
       </c>
       <c r="F360">
-        <v>0.12640574619236114</v>
+        <v>-7.6075119188790202E-2</v>
       </c>
       <c r="G360">
-        <v>0.23809821024544758</v>
+        <v>4.1283262869932849E-2</v>
       </c>
       <c r="H360">
-        <v>-0.63614441690669166</v>
+        <v>-0.41971420239136775</v>
       </c>
       <c r="I360">
-        <v>-0.94523279895681522</v>
+        <v>-1.3795491380580522</v>
       </c>
       <c r="J360">
-        <v>0.41753317827336162</v>
+        <v>0.12986214133227195</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -11929,31 +11929,31 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.30113636363636365</v>
+        <v>-1.1267605633802818E-2</v>
       </c>
       <c r="C361">
-        <v>4.8343079922027289E-4</v>
+        <v>1.1152694610778443E-4</v>
       </c>
       <c r="D361">
-        <v>7.1353711790393009E-4</v>
+        <v>0.58782608695652172</v>
       </c>
       <c r="E361">
-        <v>-0.15060201887140798</v>
+        <v>-0.18720246015553388</v>
       </c>
       <c r="F361">
-        <v>0.16079901433926652</v>
+        <v>8.8574816679170402E-6</v>
       </c>
       <c r="G361">
-        <v>0.17047139045360213</v>
+        <v>-1.0325789604575976E-2</v>
       </c>
       <c r="H361">
-        <v>-0.64270882175631316</v>
+        <v>-0.42006415864683583</v>
       </c>
       <c r="I361">
-        <v>-0.94991178952212929</v>
+        <v>-1.4459997053189921</v>
       </c>
       <c r="J361">
-        <v>0.43172800656724586</v>
+        <v>0.13955928646379853</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -11961,31 +11961,31 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.73295454545454553</v>
+        <v>-8.4507042253521125E-2</v>
       </c>
       <c r="C362">
-        <v>-1.3450292397660819E-4</v>
+        <v>1.841317365269461E-4</v>
       </c>
       <c r="D362">
-        <v>0.8733624454148472</v>
+        <v>5.6173913043478256E-4</v>
       </c>
       <c r="E362">
-        <v>-3.1984591510361309E-3</v>
+        <v>-0.1542247633793806</v>
       </c>
       <c r="F362">
-        <v>7.3596875245759821E-2</v>
+        <v>-1.1083952469688537E-5</v>
       </c>
       <c r="G362">
-        <v>-8.3807948569912777E-2</v>
+        <v>5.3429495150460082E-2</v>
       </c>
       <c r="H362">
-        <v>-0.58383012927858535</v>
+        <v>-0.39871682706328376</v>
       </c>
       <c r="I362">
-        <v>-0.75423793817596074</v>
+        <v>-1.573743922204214</v>
       </c>
       <c r="J362">
-        <v>-4.1318921877137774E-2</v>
+        <v>0.12765495531352897</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -11993,31 +11993,31 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.8125</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="C363">
-        <v>-1.2962962962962963E-4</v>
+        <v>1.841317365269461E-4</v>
       </c>
       <c r="D363">
-        <v>0.88646288209606983</v>
+        <v>0.5872463768115942</v>
       </c>
       <c r="E363">
-        <v>-8.9841274593456377E-3</v>
+        <v>-0.23478195420003278</v>
       </c>
       <c r="F363">
-        <v>9.4397986735523104E-2</v>
+        <v>0.12333922218726555</v>
       </c>
       <c r="G363">
-        <v>-9.0470766302058137E-2</v>
+        <v>-6.1934842079084805E-2</v>
       </c>
       <c r="H363">
-        <v>-0.57565811507803599</v>
+        <v>-0.4093904928550598</v>
       </c>
       <c r="I363">
-        <v>-0.74438137608345478</v>
+        <v>-1.6780609989686164</v>
       </c>
       <c r="J363">
-        <v>2.0864687371733478E-5</v>
+        <v>0.16828888808481385</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -12025,31 +12025,31 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.78409090909090917</v>
+        <v>8.4507042253521136E-3</v>
       </c>
       <c r="C364">
-        <v>-1.2378167641325535E-4</v>
+        <v>2.7994011976047905E-4</v>
       </c>
       <c r="D364">
-        <v>8.6113537117903929E-4</v>
+        <v>5.1362318840579709E-4</v>
       </c>
       <c r="E364">
-        <v>-4.3398749557155614E-2</v>
+        <v>-0.10090347276544384</v>
       </c>
       <c r="F364">
-        <v>-7.1997797991978404E-2</v>
+        <v>5.1692843832433874E-2</v>
       </c>
       <c r="G364">
-        <v>-0.11237848549627849</v>
+        <v>2.0034817209649339E-2</v>
       </c>
       <c r="H364">
-        <v>-0.60345636010449466</v>
+        <v>-0.38731408573928261</v>
       </c>
       <c r="I364">
-        <v>-0.78231188156784537</v>
+        <v>-1.7770738175924561</v>
       </c>
       <c r="J364">
-        <v>-1.8778218634560132E-5</v>
+        <v>0.16828888808481385</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -12057,31 +12057,31 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.75568181818181823</v>
+        <v>5.9154929577464793E-2</v>
       </c>
       <c r="C365">
-        <v>-8.8693957115009738E-5</v>
+        <v>2.7769461077844311E-4</v>
       </c>
       <c r="D365">
-        <v>0.87860262008733625</v>
+        <v>5.6927536231884057E-4</v>
       </c>
       <c r="E365">
-        <v>-5.5276958619622868E-2</v>
+        <v>-0.23248631081506094</v>
       </c>
       <c r="F365">
-        <v>3.6804991218182294E-2</v>
+        <v>0.21860555165654269</v>
       </c>
       <c r="G365">
-        <v>-0.10666749886872533</v>
+        <v>-0.11839840835613032</v>
       </c>
       <c r="H365">
-        <v>-0.56828990555295067</v>
+        <v>-0.40297462817147855</v>
       </c>
       <c r="I365">
-        <v>-0.80758610109687812</v>
+        <v>-1.8417562988065419</v>
       </c>
       <c r="J365">
-        <v>-1.1697906690381722E-5</v>
+        <v>0.17447624561276551</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -12089,31 +12089,31 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.7897727272727274</v>
+        <v>3.3802816901408454E-2</v>
       </c>
       <c r="C366">
-        <v>-1.1598440545808966E-4</v>
+        <v>3.9221556886227544E-4</v>
       </c>
       <c r="D366">
-        <v>0.88122270742358078</v>
+        <v>4.7884057971014492E-4</v>
       </c>
       <c r="E366">
-        <v>-9.2278789874706224E-2</v>
+        <v>-0.19376681746946983</v>
       </c>
       <c r="F366">
-        <v>1.2805725220856162E-5</v>
+        <v>0.18242540112775588</v>
       </c>
       <c r="G366">
-        <v>-7.3337806419398632E-2</v>
+        <v>-2.4272569012683412E-6</v>
       </c>
       <c r="H366">
-        <v>-0.58215553620470228</v>
+        <v>-0.40370370370370373</v>
       </c>
       <c r="I366">
-        <v>-0.80478637723402624</v>
+        <v>-2.0593782230735229</v>
       </c>
       <c r="J366">
-        <v>1.7957312901901764E-5</v>
+        <v>0.18771936172522344</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -12121,31 +12121,31 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.78409090909090917</v>
+        <v>0.24507042253521127</v>
       </c>
       <c r="C367">
-        <v>-4.2884990253411305E-5</v>
+        <v>3.6676646706586827E-4</v>
       </c>
       <c r="D367">
-        <v>0.874235807860262</v>
+        <v>5.2927536231884057E-4</v>
       </c>
       <c r="E367">
-        <v>-0.15303703925472409</v>
+        <v>-0.24396990395393661</v>
       </c>
       <c r="F367">
-        <v>-0.14880593493590583</v>
+        <v>0.11891048135330703</v>
       </c>
       <c r="G367">
-        <v>-9.4278090720426921E-2</v>
+        <v>-0.16028848545138025</v>
       </c>
       <c r="H367">
-        <v>-0.5666153124790676</v>
+        <v>-0.39337999416739572</v>
       </c>
       <c r="I367">
-        <v>-0.83569839687044567</v>
+        <v>-2.2770001473405039</v>
       </c>
       <c r="J367">
-        <v>2.7124093583253526E-5</v>
+        <v>0.20360386438470165</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -12153,31 +12153,31 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.57954545454545459</v>
+        <v>0.11549295774647889</v>
       </c>
       <c r="C368">
-        <v>1.3645224171539961E-5</v>
+        <v>4.6706586826347307E-4</v>
       </c>
       <c r="D368">
-        <v>0.874235807860262</v>
+        <v>4.2086956521739127E-4</v>
       </c>
       <c r="E368">
-        <v>-0.14039788632247055</v>
+        <v>-0.16915450970272225</v>
       </c>
       <c r="F368">
-        <v>-9.3598448108632396E-2</v>
+        <v>0.15656687882674669</v>
       </c>
       <c r="G368">
-        <v>-5.999656716650803E-2</v>
+        <v>-3.4001492166127828E-2</v>
       </c>
       <c r="H368">
-        <v>-0.55844329827851835</v>
+        <v>-0.39337999416739572</v>
       </c>
       <c r="I368">
-        <v>-0.86657206412518217</v>
+        <v>-2.3525858258435246</v>
       </c>
       <c r="J368">
-        <v>9.8542892324531395E-2</v>
+        <v>0.15946014400984188</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -12185,31 +12185,31 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.31818181818181823</v>
+        <v>0.28450704225352114</v>
       </c>
       <c r="C369">
-        <v>2.2417153996101365E-5</v>
+        <v>4.1541916167664672E-4</v>
       </c>
       <c r="D369">
-        <v>0.89170305676855899</v>
+        <v>4.7478260869565213E-4</v>
       </c>
       <c r="E369">
-        <v>-0.16491524831719134</v>
+        <v>-0.1173089898362674</v>
       </c>
       <c r="F369">
-        <v>-0.11839725273284925</v>
+        <v>0.12776796302122406</v>
       </c>
       <c r="G369">
-        <v>-4.7622762806809493E-2</v>
+        <v>-6.3755284755036057E-2</v>
       </c>
       <c r="H369">
-        <v>-0.59769575993033697</v>
+        <v>-0.38944298629337998</v>
       </c>
       <c r="I369">
-        <v>-0.87546981667561552</v>
+        <v>-2.4946220716074849</v>
       </c>
       <c r="J369">
-        <v>0.1311054863866466</v>
+        <v>0.17577884719759743</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -12217,31 +12217,31 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.88636363636363646</v>
+        <v>0.23098591549295777</v>
       </c>
       <c r="C370">
-        <v>2.0370370370370369E-4</v>
+        <v>4.296407185628742E-4</v>
       </c>
       <c r="D370">
-        <v>8.4541484716157207E-4</v>
+        <v>4.6550724637681163E-4</v>
       </c>
       <c r="E370">
-        <v>-0.24958210459610097</v>
+        <v>0.37637530274805181</v>
       </c>
       <c r="F370">
-        <v>-0.17120612367945054</v>
+        <v>-5.9049877786113593E-6</v>
       </c>
       <c r="G370">
-        <v>-8.2856117465320581E-2</v>
+        <v>8.9858244217856251E-2</v>
       </c>
       <c r="H370">
-        <v>-0.59856654832875611</v>
+        <v>-0.37095363079615046</v>
       </c>
       <c r="I370">
-        <v>-0.92183784613024466</v>
+        <v>-2.3418299690584941</v>
       </c>
       <c r="J370">
-        <v>0.2041660965932412</v>
+        <v>0.16387451604732786</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -12249,31 +12249,31 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.61363636363636365</v>
+        <v>0.10140845070422536</v>
       </c>
       <c r="C371">
-        <v>3.947368421052632E-4</v>
+        <v>-3.652694610778443E-4</v>
       </c>
       <c r="D371">
-        <v>7.9912663755458524E-4</v>
+        <v>4.2840579710144927E-4</v>
       </c>
       <c r="E371">
-        <v>-0.25719403819189757</v>
+        <v>-0.1499587375574247</v>
       </c>
       <c r="F371">
-        <v>-0.24800115343277321</v>
+        <v>-0.19940224099126352</v>
       </c>
       <c r="G371">
-        <v>4.3815438388440715E-2</v>
+        <v>8.3790101964685407E-2</v>
       </c>
       <c r="H371">
-        <v>-0.59937035300421992</v>
+        <v>-0.37451151939340915</v>
       </c>
       <c r="I371">
-        <v>-0.96256807547748713</v>
+        <v>-0.66730514218358628</v>
       </c>
       <c r="J371">
-        <v>0.39707894376795733</v>
+        <v>0.10026413865470203</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -12281,31 +12281,31 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.26704545454545459</v>
+        <v>0.12394366197183099</v>
       </c>
       <c r="C372">
-        <v>4.775828460038986E-4</v>
+        <v>-2.9191616766467064E-4</v>
       </c>
       <c r="D372">
-        <v>7.6681222707423579E-4</v>
+        <v>5.3391304347826093E-4</v>
       </c>
       <c r="E372">
-        <v>-0.14024569754851329</v>
+        <v>-0.40016504977030126</v>
       </c>
       <c r="F372">
-        <v>-5.2795763755996539E-2</v>
+        <v>2.9537039277849036E-2</v>
       </c>
       <c r="G372">
-        <v>0.11237848549627849</v>
+        <v>0.23983088783884607</v>
       </c>
       <c r="H372">
-        <v>-0.61323598365597165</v>
+        <v>-0.37664041994750658</v>
       </c>
       <c r="I372">
-        <v>-0.98174426631893841</v>
+        <v>-0.80757330190069254</v>
       </c>
       <c r="J372">
-        <v>0.43884252291695169</v>
+        <v>9.1869595108007379E-2</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -12313,31 +12313,31 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.13636363636363638</v>
+        <v>0.2394366197183099</v>
       </c>
       <c r="C373">
-        <v>4.775828460038986E-4</v>
+        <v>-1.504491017964072E-4</v>
       </c>
       <c r="D373">
-        <v>7.3100436681222702E-4</v>
+        <v>0.58898550724637677</v>
       </c>
       <c r="E373">
-        <v>-0.16248022793387523</v>
+        <v>-0.46037864675316997</v>
       </c>
       <c r="F373">
-        <v>-5.4394841009777962E-2</v>
+        <v>0.11004089930059775</v>
       </c>
       <c r="G373">
-        <v>-3.1426030240142309E-2</v>
+        <v>0.19125590649092267</v>
       </c>
       <c r="H373">
-        <v>-0.60914997655569691</v>
+        <v>-0.38305628463108776</v>
       </c>
       <c r="I373">
-        <v>-1</v>
+        <v>-1.0107558567850301</v>
       </c>
       <c r="J373">
-        <v>0.44968531946914764</v>
+        <v>0.11571444078590296</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -12345,31 +12345,31 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.28409090909090912</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="C374">
-        <v>5.3411306042884998E-4</v>
+        <v>-8.158682634730539E-5</v>
       </c>
       <c r="D374">
-        <v>7.1528384279475981E-4</v>
+        <v>0.58028985507246378</v>
       </c>
       <c r="E374">
-        <v>-0.19993862551083036</v>
+        <v>-0.42329889868255877</v>
       </c>
       <c r="F374">
-        <v>-0.10159383437753952</v>
+        <v>0.13663754507393336</v>
       </c>
       <c r="G374">
-        <v>6.3803891584876801E-2</v>
+        <v>0.22647102710768466</v>
       </c>
       <c r="H374">
-        <v>-0.62060419318105697</v>
+        <v>-0.37556138815981338</v>
       </c>
       <c r="I374">
-        <v>-0.98082380915854872</v>
+        <v>-1.0970973920730809</v>
       </c>
       <c r="J374">
-        <v>0.55407716513886984</v>
+        <v>7.4212106958063462E-2</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
@@ -12377,31 +12377,31 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.39204545454545459</v>
+        <v>0.22816901408450707</v>
       </c>
       <c r="C375">
-        <v>6.2573099415204683E-4</v>
+        <v>8.0838323353293415E-5</v>
       </c>
       <c r="D375">
-        <v>6.7074235807860268E-4</v>
+        <v>0.61159420289855071</v>
       </c>
       <c r="E375">
-        <v>-0.12288619772565104</v>
+        <v>-0.361278893790204</v>
       </c>
       <c r="F375">
-        <v>-8.4803523212834561E-2</v>
+        <v>9.6754676798722197E-2</v>
       </c>
       <c r="G375">
-        <v>0.13904536021345984</v>
+        <v>0.14268092514299927</v>
       </c>
       <c r="H375">
-        <v>-0.65905285015741177</v>
+        <v>-0.37343248760571596</v>
       </c>
       <c r="I375">
-        <v>-0.98128403773874362</v>
+        <v>-1.3129512302932076</v>
       </c>
       <c r="J375">
-        <v>0.58079080585579423</v>
+        <v>0.11086586822013966</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -12409,31 +12409,31 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.28977272727272729</v>
+        <v>0.23380281690140847</v>
       </c>
       <c r="C376">
-        <v>6.4814814814814813E-4</v>
+        <v>1.9311377245508982E-4</v>
       </c>
       <c r="D376">
-        <v>6.4279475982532747E-4</v>
+        <v>5.3275362318840579E-4</v>
       </c>
       <c r="E376">
-        <v>-0.15090639641932249</v>
+        <v>-0.23396208156254283</v>
       </c>
       <c r="F376">
-        <v>-0.11200094371772354</v>
+        <v>8.1193581955906198E-6</v>
       </c>
       <c r="G376">
-        <v>3.6185185763103284E-2</v>
+        <v>8.8644615767222087E-2</v>
       </c>
       <c r="H376">
-        <v>-0.63862281465603854</v>
+        <v>-0.38804316127150773</v>
       </c>
       <c r="I376">
-        <v>-0.95554958962951597</v>
+        <v>-1.5899513776337115</v>
       </c>
       <c r="J376">
-        <v>0.62128882200027369</v>
+        <v>6.5817563411368823E-2</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -12441,31 +12441,31 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-1.1363636363636364E-2</v>
+        <v>0.26478873239436623</v>
       </c>
       <c r="C377">
-        <v>6.7738791423001949E-4</v>
+        <v>2.3802395209580838E-4</v>
       </c>
       <c r="D377">
-        <v>5.8951965065502188E-4</v>
+        <v>0.59014492753623193</v>
       </c>
       <c r="E377">
-        <v>-0.24379394138985774</v>
+        <v>-0.45545672282122207</v>
       </c>
       <c r="F377">
-        <v>-8.8801216347288117E-2</v>
+        <v>-0.10339778804965997</v>
       </c>
       <c r="G377">
-        <v>7.0482313105622044E-2</v>
+        <v>0.11536433722954489</v>
       </c>
       <c r="H377">
-        <v>-0.63942661933150247</v>
+        <v>-0.40014581510644504</v>
       </c>
       <c r="I377">
-        <v>-0.93821431310884407</v>
+        <v>-1.7554147635184911</v>
       </c>
       <c r="J377">
-        <v>0.67933369818032563</v>
+        <v>0.12675037087961791</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -12473,31 +12473,31 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-3.4090909090909095E-2</v>
+        <v>0.21971830985915494</v>
       </c>
       <c r="C378">
-        <v>7.6023391812865505E-4</v>
+        <v>3.2410179640718562E-4</v>
       </c>
       <c r="D378">
-        <v>5.5021834061135368E-4</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="E378">
-        <v>-0.24211986487632792</v>
+        <v>-7.9245394600668262E-2</v>
       </c>
       <c r="F378">
-        <v>3.520591396440087E-2</v>
+        <v>-5.0954720360107453E-2</v>
       </c>
       <c r="G378">
-        <v>0.21143133552826626</v>
+        <v>0.13600596866451131</v>
       </c>
       <c r="H378">
-        <v>-0.61980038850559316</v>
+        <v>-0.39798775153105864</v>
       </c>
       <c r="I378">
-        <v>-0.90358211244918307</v>
+        <v>-1.8220126712833358</v>
       </c>
       <c r="J378">
-        <v>0.72568066766999595</v>
+        <v>0.11220465318232804</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -12505,31 +12505,31 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8.5227272727272735E-2</v>
+        <v>0.23098591549295777</v>
       </c>
       <c r="C379">
-        <v>8.430799220272904E-4</v>
+        <v>2.9116766467065868E-4</v>
       </c>
       <c r="D379">
-        <v>4.244541484716157E-4</v>
+        <v>5.7217391304347821E-4</v>
       </c>
       <c r="E379">
-        <v>-0.23876921695133452</v>
+        <v>-5.2665392503944794E-2</v>
       </c>
       <c r="F379">
-        <v>-0.10800325058326998</v>
+        <v>1.9203310665279156E-2</v>
       </c>
       <c r="G379">
-        <v>4.8574593911401689E-2</v>
+        <v>-6.3755284755036057E-2</v>
       </c>
       <c r="H379">
-        <v>-0.64840243820751553</v>
+        <v>-0.42362204724409447</v>
       </c>
       <c r="I379">
-        <v>-0.84785610186392579</v>
+        <v>-1.8525121555915722</v>
       </c>
       <c r="J379">
-        <v>0.81796415378300724</v>
+        <v>0.11614864131418026</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -12537,31 +12537,31 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.63068181818181823</v>
+        <v>0.14647887323943662</v>
       </c>
       <c r="C380">
-        <v>-8.7719298245614029E-6</v>
+        <v>-0.83607784431137722</v>
       </c>
       <c r="D380">
-        <v>8.6986899563318775E-4</v>
+        <v>-2.4927536231884055E-5</v>
       </c>
       <c r="E380">
-        <v>-0.44906416378505953</v>
+        <v>-0.53470211742189033</v>
       </c>
       <c r="F380">
-        <v>-0.40080478150313265</v>
+        <v>1.5512693303647056E-2</v>
       </c>
       <c r="G380">
-        <v>-5.8092904957323638E-2</v>
+        <v>0.24347177319074856</v>
       </c>
       <c r="H380">
-        <v>-0.68028669033424882</v>
+        <v>-0.39125109361329835</v>
       </c>
       <c r="I380">
-        <v>-0.78323233872823506</v>
+        <v>0.48018270222484161</v>
       </c>
       <c r="J380">
-        <v>4.426050075249692E-2</v>
+        <v>0.40590512718457139</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -12569,31 +12569,31 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.35795454545454547</v>
+        <v>3.3802816901408454E-2</v>
       </c>
       <c r="C381">
-        <v>1.374269005847953E-4</v>
+        <v>-5.7185628742514969E-4</v>
       </c>
       <c r="D381">
-        <v>8.6026200873362448E-4</v>
+        <v>2.1391304347826088E-4</v>
       </c>
       <c r="E381">
-        <v>-0.40627416932373295</v>
+        <v>-1.0105024340808959</v>
       </c>
       <c r="F381">
-        <v>-0.45280100663223843</v>
+        <v>1.0333728612569879E-5</v>
       </c>
       <c r="G381">
-        <v>-3.9040679076879865E-2</v>
+        <v>0.46872917184779905</v>
       </c>
       <c r="H381">
-        <v>-0.66802866903342484</v>
+        <v>-0.39160104986876643</v>
       </c>
       <c r="I381">
-        <v>-0.86143284497967321</v>
+        <v>0.52703698246648001</v>
       </c>
       <c r="J381">
-        <v>0.16325762758243262</v>
+        <v>0.29594384339834279</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -12601,31 +12601,31 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.28977272727272729</v>
+        <v>0.3267605633802817</v>
       </c>
       <c r="C382">
-        <v>3.8693957115009748E-4</v>
+        <v>-6.3473053892215572E-4</v>
       </c>
       <c r="D382">
-        <v>8.6637554585152843E-4</v>
+        <v>4.0811594202898549E-4</v>
       </c>
       <c r="E382">
-        <v>-0.3883059144050417</v>
+        <v>-0.67908303293737515</v>
       </c>
       <c r="F382">
-        <v>-0.36320025165805964</v>
+        <v>8.3456353912054401E-2</v>
       </c>
       <c r="G382">
-        <v>-0.12952704916753788</v>
+        <v>0.31998010445162894</v>
       </c>
       <c r="H382">
-        <v>-0.68685109518387033</v>
+        <v>-0.37521143190434531</v>
       </c>
       <c r="I382">
-        <v>-0.90826110301449725</v>
+        <v>0.3615735965817003</v>
       </c>
       <c r="J382">
-        <v>0.30270898891777259</v>
+        <v>0.21290299236530738</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -12633,31 +12633,31 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.18750000000000003</v>
+        <v>0.41126760563380282</v>
       </c>
       <c r="C383">
-        <v>4.4444444444444447E-4</v>
+        <v>-4.3937125748502991E-4</v>
       </c>
       <c r="D383">
-        <v>7.8777292576419215E-4</v>
+        <v>4.8927536231884057E-4</v>
       </c>
       <c r="E383">
-        <v>-0.28414891546786819</v>
+        <v>-0.58293750957638124</v>
       </c>
       <c r="F383">
-        <v>-0.3047946103232233</v>
+        <v>9.1575712107645021E-2</v>
       </c>
       <c r="G383">
-        <v>9.0470766302058137E-2</v>
+        <v>8.1969659288734148E-2</v>
       </c>
       <c r="H383">
-        <v>-0.68517650210998726</v>
+        <v>-0.36844561096529599</v>
       </c>
       <c r="I383">
-        <v>-0.92885633197821582</v>
+        <v>-5.4515986444673642E-6</v>
       </c>
       <c r="J383">
-        <v>0.41462580380352987</v>
+        <v>6.491297897745775E-2</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -12665,31 +12665,31 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.125</v>
+        <v>0.20281690140845071</v>
       </c>
       <c r="C384">
-        <v>4.9220272904483434E-4</v>
+        <v>-3.7799401197604791E-4</v>
       </c>
       <c r="D384">
-        <v>7.3100436681222702E-4</v>
+        <v>5.2463768115942032E-4</v>
       </c>
       <c r="E384">
-        <v>-0.21760250288160712</v>
+        <v>-0.36669542941165401</v>
       </c>
       <c r="F384">
-        <v>-0.14639421186462895</v>
+        <v>-0.12481546913191839</v>
       </c>
       <c r="G384">
-        <v>7.80969619423596E-2</v>
+        <v>-0.10685899030092016</v>
       </c>
       <c r="H384">
-        <v>-0.72938575926049964</v>
+        <v>-0.39160104986876643</v>
       </c>
       <c r="I384">
-        <v>-0.90872133159469204</v>
+        <v>-0.29674377486371001</v>
       </c>
       <c r="J384">
-        <v>0.44342591325762759</v>
+        <v>4.6821290299236533E-2</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -12697,31 +12697,31 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>0.3436619718309859</v>
       </c>
       <c r="C385">
-        <v>5.487329434697855E-4</v>
+        <v>-2.3952095808383233E-4</v>
       </c>
       <c r="D385">
-        <v>6.8034934497816595E-4</v>
+        <v>4.9739130434782604E-4</v>
       </c>
       <c r="E385">
-        <v>-0.31856353756567818</v>
+        <v>-0.29237195874293365</v>
       </c>
       <c r="F385">
-        <v>-0.23599496683880777</v>
+        <v>-0.22821325718157837</v>
       </c>
       <c r="G385">
-        <v>-5.3333749434362664E-2</v>
+        <v>-8.3183287739368311E-2</v>
       </c>
       <c r="H385">
-        <v>-0.75142340411280062</v>
+        <v>-0.40262467191601048</v>
       </c>
       <c r="I385">
-        <v>-0.90028380762445348</v>
+        <v>-0.57728009429792249</v>
       </c>
       <c r="J385">
-        <v>0.55407716513886984</v>
+        <v>0.11614864131418026</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -12729,31 +12729,31 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-5.1136363636363633E-2</v>
+        <v>0.26478873239436623</v>
       </c>
       <c r="C386">
-        <v>6.7836257309941521E-4</v>
+        <v>-1.3547904191616765E-4</v>
       </c>
       <c r="D386">
-        <v>5.6069868995633186E-4</v>
+        <v>5.5304347826086952E-4</v>
       </c>
       <c r="E386">
-        <v>-0.33028706295625448</v>
+        <v>-0.3258415791015809</v>
       </c>
       <c r="F386">
-        <v>-0.18879597347104621</v>
+        <v>-5.0954720360107453E-2</v>
       </c>
       <c r="G386">
-        <v>0.16666406603523334</v>
+        <v>4.3720467545386721E-2</v>
       </c>
       <c r="H386">
-        <v>-0.72201754973541432</v>
+        <v>-0.39372995042286379</v>
       </c>
       <c r="I386">
-        <v>-0.8801488072409297</v>
+        <v>-0.72845145130396349</v>
       </c>
       <c r="J386">
-        <v>0.62378574360377614</v>
+        <v>9.7622752107681732E-2</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -12761,31 +12761,31 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.26704545454545459</v>
+        <v>0.27042253521126763</v>
       </c>
       <c r="C387">
-        <v>7.4269005847953215E-4</v>
+        <v>-6.362275449101797E-5</v>
       </c>
       <c r="D387">
-        <v>5.397379912663755E-4</v>
+        <v>0.6156521739130435</v>
       </c>
       <c r="E387">
-        <v>-0.19658797758583696</v>
+        <v>-0.39475120225585941</v>
       </c>
       <c r="F387">
-        <v>-0.17200566230634126</v>
+        <v>-0.20015246484838217</v>
       </c>
       <c r="G387">
-        <v>0.15143476836175823</v>
+        <v>-5.5856752051728423E-2</v>
       </c>
       <c r="H387">
-        <v>-0.73179717328689131</v>
+        <v>-0.41116943715368914</v>
       </c>
       <c r="I387">
-        <v>-0.81226509166219218</v>
+        <v>-1.0179755414763518</v>
       </c>
       <c r="J387">
-        <v>0.68894513613353403</v>
+        <v>5.3442848355465498E-2</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -12793,31 +12793,31 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>-0.23295454545454547</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="C388">
-        <v>8.0019493177387914E-4</v>
+        <v>5.239520958083833E-5</v>
       </c>
       <c r="D388">
-        <v>4.6200873362445418E-4</v>
+        <v>5.3681159420289858E-4</v>
       </c>
       <c r="E388">
-        <v>-0.19156325314731373</v>
+        <v>-0.26973003341317009</v>
       </c>
       <c r="F388">
-        <v>-5.4394841009777962E-2</v>
+        <v>-0.11004089930059775</v>
       </c>
       <c r="G388">
-        <v>-2.285955029881255E-2</v>
+        <v>1.0325789604575976E-2</v>
       </c>
       <c r="H388">
-        <v>-0.76207381606269675</v>
+        <v>-0.38553514144065326</v>
       </c>
       <c r="I388">
-        <v>-0.81368412978445959</v>
+        <v>-1.1799027552674231</v>
       </c>
       <c r="J388">
-        <v>0.75280476125324947</v>
+        <v>0.14574664399175019</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -12825,31 +12825,31 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.94318181818181823</v>
+        <v>3.3802816901408454E-2</v>
       </c>
       <c r="C389">
-        <v>-2.3976608187134503E-4</v>
+        <v>-7.3053892215568859E-4</v>
       </c>
       <c r="D389">
-        <v>0.87947598253275105</v>
+        <v>2.4927536231884055E-5</v>
       </c>
       <c r="E389">
-        <v>-3.9287157762375943E-2</v>
+        <v>-1.0007822391393757E-2</v>
       </c>
       <c r="F389">
-        <v>0.11999632998663066</v>
+        <v>-2.8060792333196194E-2</v>
       </c>
       <c r="G389">
-        <v>-6.8578650896437651E-2</v>
+        <v>-5.3429495150460082E-2</v>
       </c>
       <c r="H389">
-        <v>-0.61651818608078235</v>
+        <v>-0.36383785360163312</v>
       </c>
       <c r="I389">
-        <v>-0.64746490757076014</v>
+        <v>0.35789008398408723</v>
       </c>
       <c r="J389">
-        <v>-4.0498016144479412E-2</v>
+        <v>0.34363353475413394</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -12857,31 +12857,31 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.94318181818181823</v>
+        <v>0.18873239436619721</v>
       </c>
       <c r="C390">
-        <v>-1.9200779727095518E-4</v>
+        <v>-0.78517964071856283</v>
       </c>
       <c r="D390">
-        <v>8.6724890829694323E-4</v>
+        <v>1.8550724637681159E-5</v>
       </c>
       <c r="E390">
-        <v>-0.11588301922568348</v>
+        <v>-0.61214110411307254</v>
       </c>
       <c r="F390">
-        <v>2.7197420504888981E-2</v>
+        <v>-0.48005856586239443</v>
       </c>
       <c r="G390">
-        <v>-0.16380857272145677</v>
+        <v>0.30540661526983337</v>
       </c>
       <c r="H390">
-        <v>-0.5952843459039453</v>
+        <v>-0.37238261883931173</v>
       </c>
       <c r="I390">
-        <v>-0.66526041267162694</v>
+        <v>0.39752467953440401</v>
       </c>
       <c r="J390">
-        <v>-5.219592283486113E-2</v>
+        <v>0.30831855845424611</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -12889,31 +12889,31 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.94318181818181823</v>
+        <v>5.6338028169014088E-3</v>
       </c>
       <c r="C391">
-        <v>-1.4717348927875242E-4</v>
+        <v>-6.5718562874251499E-4</v>
       </c>
       <c r="D391">
-        <v>0.874235807860262</v>
+        <v>2.8289855072463767E-4</v>
       </c>
       <c r="E391">
-        <v>-0.15745300859741829</v>
+        <v>-0.77293022480638907</v>
       </c>
       <c r="F391">
-        <v>1.5204341101528298E-2</v>
+        <v>-0.10635028193896566</v>
       </c>
       <c r="G391">
-        <v>-0.23619454803626319</v>
+        <v>0.43958219348420791</v>
       </c>
       <c r="H391">
-        <v>-0.61491057672985461</v>
+        <v>-0.37343248760571596</v>
       </c>
       <c r="I391">
-        <v>-0.72612564240239319</v>
+        <v>0.19242669809930749</v>
       </c>
       <c r="J391">
-        <v>1.8778218634560132E-5</v>
+        <v>0.21818576545934798</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -12921,31 +12921,31 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>0.43943661971830988</v>
       </c>
       <c r="C392">
-        <v>-7.4074074074074073E-5</v>
+        <v>-4.2889221556886224E-4</v>
       </c>
       <c r="D392">
-        <v>0.87685589519650653</v>
+        <v>4.7072463768115945E-4</v>
       </c>
       <c r="E392">
-        <v>-0.19049793172961293</v>
+        <v>-0.75619407057356136</v>
       </c>
       <c r="F392">
-        <v>-5.2795763755996539E-2</v>
+        <v>5.9049877786113593E-6</v>
       </c>
       <c r="G392">
-        <v>-0.24856835239596173</v>
+        <v>0.3078338721711017</v>
       </c>
       <c r="H392">
-        <v>-0.62877620738160622</v>
+        <v>-0.37308253135024788</v>
       </c>
       <c r="I392">
-        <v>-0.77901357674311578</v>
+        <v>-9.5329306026226612E-5</v>
       </c>
       <c r="J392">
-        <v>2.797920372143932E-5</v>
+        <v>0.11220465318232804</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -12953,31 +12953,31 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.89204545454545459</v>
+        <v>0.25070422535211268</v>
       </c>
       <c r="C393">
-        <v>-3.898635477582846E-6</v>
+        <v>-4.7679640718562873E-4</v>
       </c>
       <c r="D393">
-        <v>8.7248908296943227E-4</v>
+        <v>4.7420289855072461E-4</v>
       </c>
       <c r="E393">
-        <v>-0.16461087076927683</v>
+        <v>-0.25102618485036654</v>
       </c>
       <c r="F393">
-        <v>-0.13600020971504967</v>
+        <v>-6.499116671910167E-2</v>
       </c>
       <c r="G393">
-        <v>-0.14190085352723641</v>
+        <v>5.4613280278537684E-6</v>
       </c>
       <c r="H393">
-        <v>-0.63694822158215558</v>
+        <v>-0.37273257509477981</v>
       </c>
       <c r="I393">
-        <v>-0.81088440592160771</v>
+        <v>-0.25534109326653898</v>
       </c>
       <c r="J393">
-        <v>2.8800109454097687E-5</v>
+        <v>0.1095270832579513</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -12985,31 +12985,31 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.82954545454545459</v>
+        <v>0.28732394366197184</v>
       </c>
       <c r="C394">
-        <v>5.5555555555555558E-5</v>
+        <v>-4.0119760479041919E-4</v>
       </c>
       <c r="D394">
-        <v>0.87510917030567681</v>
+        <v>4.8521739130434778E-4</v>
       </c>
       <c r="E394">
-        <v>-0.17329062068070794</v>
+        <v>-0.26513605853621819</v>
       </c>
       <c r="F394">
-        <v>-0.1032060188219257</v>
+        <v>5.9086178940490307E-2</v>
       </c>
       <c r="G394">
-        <v>-8.5711610779097169E-2</v>
+        <v>4.6147724446655061E-2</v>
       </c>
       <c r="H394">
-        <v>-0.59448054122848148</v>
+        <v>-0.36701662292213472</v>
       </c>
       <c r="I394">
-        <v>-0.84129784459614942</v>
+        <v>-0.35435391189037868</v>
       </c>
       <c r="J394">
-        <v>8.852100150499384E-2</v>
+        <v>8.658682201396678E-2</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -13017,31 +13017,31 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.76704545454545459</v>
+        <v>0.22253521126760564</v>
       </c>
       <c r="C395">
-        <v>1.3645224171539964E-4</v>
+        <v>-2.7395209580838325E-4</v>
       </c>
       <c r="D395">
-        <v>8.6899563318777295E-4</v>
+        <v>5.611594202898551E-4</v>
       </c>
       <c r="E395">
-        <v>-0.19841673777125779</v>
+        <v>-0.45742441715119797</v>
       </c>
       <c r="F395">
-        <v>-4.5599916113980128E-2</v>
+        <v>-0.11373151666222986</v>
       </c>
       <c r="G395">
-        <v>-9.2374428511242529E-2</v>
+        <v>-1.5787117632429744E-2</v>
       </c>
       <c r="H395">
-        <v>-0.64351262643177709</v>
+        <v>-0.36275882181393992</v>
       </c>
       <c r="I395">
-        <v>-0.87313032139295854</v>
+        <v>-0.69603654044496832</v>
       </c>
       <c r="J395">
-        <v>0.11147215761390067</v>
+        <v>7.1570720411043162E-2</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -13049,31 +13049,31 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.69318181818181823</v>
+        <v>0.25915492957746478</v>
       </c>
       <c r="C396">
-        <v>1.6764132553606236E-4</v>
+        <v>-1.7440119760479044E-4</v>
       </c>
       <c r="D396">
-        <v>8.3842794759825322E-4</v>
+        <v>5.7565217391304343E-4</v>
       </c>
       <c r="E396">
-        <v>-0.20435459485352453</v>
+        <v>-0.35242158119830436</v>
       </c>
       <c r="F396">
-        <v>-0.13120297795370539</v>
+        <v>-7.0896154497713026E-2</v>
       </c>
       <c r="G396">
-        <v>-5.8092904957323638E-2</v>
+        <v>-2.4282516786868939E-2</v>
       </c>
       <c r="H396">
-        <v>-0.59448054122848148</v>
+        <v>-0.38944298629337998</v>
       </c>
       <c r="I396">
-        <v>-0.91620004602285798</v>
+        <v>-0.9964638279062914</v>
       </c>
       <c r="J396">
-        <v>0.16616500205226434</v>
+        <v>7.5080508014618089E-2</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -13081,31 +13081,31 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.8125</v>
+        <v>0.55211267605633807</v>
       </c>
       <c r="C397">
-        <v>2.8557504873294345E-4</v>
+        <v>-7.0359281437125742E-5</v>
       </c>
       <c r="D397">
-        <v>8.3842794759825322E-4</v>
+        <v>5.6347826086956517E-4</v>
       </c>
       <c r="E397">
-        <v>-0.25125618110963083</v>
+        <v>-0.31747350198516705</v>
       </c>
       <c r="F397">
-        <v>-0.1096023278370514</v>
+        <v>0.27400111323540088</v>
       </c>
       <c r="G397">
-        <v>-3.0474199135550113E-2</v>
+        <v>-0.31511564287490673</v>
       </c>
       <c r="H397">
-        <v>-0.58952374572978761</v>
+        <v>-0.38731408573928261</v>
       </c>
       <c r="I397">
-        <v>-0.9494515609419345</v>
+        <v>-1.2842198320318257</v>
       </c>
       <c r="J397">
-        <v>0.21504309755096457</v>
+        <v>3.267358975286753E-5</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -13113,31 +13113,31 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.69318181818181823</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="C398">
-        <v>1.6764132553606236E-4</v>
+        <v>-3.1886227544910178E-4</v>
       </c>
       <c r="D398">
-        <v>8.3842794759825322E-4</v>
+        <v>5.6173913043478256E-4</v>
       </c>
       <c r="E398">
-        <v>-0.20435459485352453</v>
+        <v>-0.70205021921512656</v>
       </c>
       <c r="F398">
-        <v>-0.13120297795370539</v>
+        <v>4.8002226470801775E-2</v>
       </c>
       <c r="G398">
-        <v>-5.8092904957323638E-2</v>
+        <v>-5.4613280278537684E-6</v>
       </c>
       <c r="H398">
-        <v>-0.59448054122848148</v>
+        <v>-0.3930300379119277</v>
       </c>
       <c r="I398">
-        <v>-0.91620004602285798</v>
+        <v>1.2951230293207602E-4</v>
       </c>
       <c r="J398">
-        <v>0.16616500205226434</v>
+        <v>0.21818576545934798</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -13145,31 +13145,31 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.8125</v>
+        <v>-2.2535211267605635E-2</v>
       </c>
       <c r="C399">
-        <v>2.8557504873294345E-4</v>
+        <v>-1.3847305389221557E-4</v>
       </c>
       <c r="D399">
-        <v>8.3842794759825322E-4</v>
+        <v>5.7855072463768118E-4</v>
       </c>
       <c r="E399">
-        <v>-0.25125618110963083</v>
+        <v>-0.83379971989924972</v>
       </c>
       <c r="F399">
-        <v>-0.1096023278370514</v>
+        <v>-5.1668643062849397E-6</v>
       </c>
       <c r="G399">
-        <v>-3.0474199135550113E-2</v>
+        <v>0.17850285998507834</v>
       </c>
       <c r="H399">
-        <v>-0.58952374572978761</v>
+        <v>-0.37556138815981338</v>
       </c>
       <c r="I399">
-        <v>-0.9494515609419345</v>
+        <v>-0.27154854869603656</v>
       </c>
       <c r="J399">
-        <v>0.21504309755096457</v>
+        <v>0.16123312950030755</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -13177,31 +13177,31 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.6875</v>
+        <v>1.9718309859154931E-2</v>
       </c>
       <c r="C400">
-        <v>3.7329434697855752E-4</v>
+        <v>-1.2050898203592814E-4</v>
       </c>
       <c r="D400">
-        <v>7.9475982532751089E-4</v>
+        <v>0.59246376811594204</v>
       </c>
       <c r="E400">
-        <v>-0.25688966064398305</v>
+        <v>-0.41673454136862281</v>
       </c>
       <c r="F400">
-        <v>-6.4002411723071279E-2</v>
+        <v>-0.20531932915466711</v>
       </c>
       <c r="G400">
-        <v>8.2856117465320581E-2</v>
+        <v>0.20097488187018156</v>
       </c>
       <c r="H400">
-        <v>-0.59280594815459842</v>
+        <v>-0.39125109361329835</v>
       </c>
       <c r="I400">
-        <v>-0.93725550356677145</v>
+        <v>-0.41181670841314277</v>
       </c>
       <c r="J400">
-        <v>0.26888083185114242</v>
+        <v>0.10381010963563339</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -13209,31 +13209,31 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.53409090909090917</v>
+        <v>0.22535211267605634</v>
       </c>
       <c r="C401">
-        <v>4.8538011695906433E-4</v>
+        <v>6.5868263473053894E-5</v>
       </c>
       <c r="D401">
-        <v>7.3799126637554588E-4</v>
+        <v>0.62492753623188402</v>
       </c>
       <c r="E401">
-        <v>-0.2026805183399947</v>
+        <v>-0.78785997112973072</v>
       </c>
       <c r="F401">
-        <v>2.7197420504888981E-2</v>
+        <v>0.1425425328525447</v>
       </c>
       <c r="G401">
-        <v>-7.143414421021424E-2</v>
+        <v>0.14146729669236507</v>
       </c>
       <c r="H401">
-        <v>-0.65248844530779015</v>
+        <v>-0.3798483522892972</v>
       </c>
       <c r="I401">
-        <v>-0.93257651300145739</v>
+        <v>-0.74465890673346102</v>
       </c>
       <c r="J401">
-        <v>0.35658092762347793</v>
+        <v>0.10069833918297934</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -13241,31 +13241,31 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.75000000000000011</v>
+        <v>1.9718309859154931E-2</v>
       </c>
       <c r="C402">
-        <v>5.3313840155945426E-4</v>
+        <v>3.6377245508982037E-4</v>
       </c>
       <c r="D402">
-        <v>6.9956331877729259E-4</v>
+        <v>4.5565217391304349E-4</v>
       </c>
       <c r="E402">
-        <v>-0.18090504917443828</v>
+        <v>-0.79835971710361842</v>
       </c>
       <c r="F402">
-        <v>0.15520224395103155</v>
+        <v>7.5336995716463781E-2</v>
       </c>
       <c r="G402">
-        <v>-8.4759779674504973E-2</v>
+        <v>0.25986570504849538</v>
       </c>
       <c r="H402">
-        <v>-0.63125460513095322</v>
+        <v>-0.39550889472149314</v>
       </c>
       <c r="I402">
-        <v>-0.96862775178338578</v>
+        <v>-1.2607926919110064</v>
       </c>
       <c r="J402">
-        <v>0.39540292789711312</v>
+        <v>5.1669862864999819E-2</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -13273,31 +13273,31 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.73863636363636376</v>
+        <v>9.014084507042254E-2</v>
       </c>
       <c r="C403">
-        <v>5.7602339181286552E-4</v>
+        <v>5.2470059880239516E-4</v>
       </c>
       <c r="D403">
-        <v>6.6899563318777297E-4</v>
+        <v>4.9681159420289858E-4</v>
       </c>
       <c r="E403">
-        <v>-0.16872246256405651</v>
+        <v>-0.65283097989564765</v>
       </c>
       <c r="F403">
-        <v>3.359372952001468E-2</v>
+        <v>0.28359671837564432</v>
       </c>
       <c r="G403">
-        <v>3.2377861344734499E-2</v>
+        <v>0.27019149465307135</v>
       </c>
       <c r="H403">
-        <v>-0.63614441690669166</v>
+        <v>-0.37416156313794108</v>
       </c>
       <c r="I403">
-        <v>-0.97660504717342944</v>
+        <v>-1.6798290850154707</v>
       </c>
       <c r="J403">
-        <v>0.46555616363387603</v>
+        <v>6.361037739262583E-2</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -13305,31 +13305,31 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.82386363636363635</v>
+        <v>-7.6056338028169024E-2</v>
       </c>
       <c r="C404">
-        <v>6.2573099415204683E-4</v>
+        <v>5.1646706586826348E-4</v>
       </c>
       <c r="D404">
-        <v>6.3056768558951968E-4</v>
+        <v>3.0434782608695655E-4</v>
       </c>
       <c r="E404">
-        <v>-0.15501798821410215</v>
+        <v>-0.43248684843646257</v>
       </c>
       <c r="F404">
-        <v>-4.5599916113980128E-2</v>
+        <v>0.12038672829795988</v>
       </c>
       <c r="G404">
-        <v>8.0000624151543992E-2</v>
+        <v>0.14086048246704799</v>
       </c>
       <c r="H404">
-        <v>-0.6500770312813986</v>
+        <v>-0.34814814814814815</v>
       </c>
       <c r="I404">
-        <v>-0.97050701848584797</v>
+        <v>-1.8327685280683661</v>
       </c>
       <c r="J404">
-        <v>0.50229169517033789</v>
+        <v>9.0096609617541706E-2</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -13337,31 +13337,31 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.81818181818181812</v>
+        <v>0.10985915492957747</v>
       </c>
       <c r="C405">
-        <v>6.4522417153996107E-4</v>
+        <v>5.995508982035929E-4</v>
       </c>
       <c r="D405">
-        <v>6.5851528384279479E-4</v>
+        <v>2.3826086956521737E-4</v>
       </c>
       <c r="E405">
-        <v>-0.17252967681092166</v>
+        <v>-0.3394595292049386</v>
       </c>
       <c r="F405">
-        <v>-5.6793456890450102E-2</v>
+        <v>4.7264102998475353E-2</v>
       </c>
       <c r="G405">
-        <v>0.21999781546959601</v>
+        <v>0.31390201442427257</v>
       </c>
       <c r="H405">
-        <v>-0.63862281465603854</v>
+        <v>-0.38197725284339457</v>
       </c>
       <c r="I405">
-        <v>-0.96678683746260641</v>
+        <v>-1.8903786650950347</v>
       </c>
       <c r="J405">
-        <v>0.54237925844848811</v>
+        <v>9.7622752107681732E-2</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -13369,31 +13369,31 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.54545454545454553</v>
+        <v>-7.8873239436619724E-2</v>
       </c>
       <c r="C406">
-        <v>7.758284600389864E-4</v>
+        <v>7.2080838323353288E-4</v>
       </c>
       <c r="D406">
-        <v>4.5327510917030572E-4</v>
+        <v>2.3942028985507246E-4</v>
       </c>
       <c r="E406">
-        <v>-0.12273400895169378</v>
+        <v>-0.24725208261090456</v>
       </c>
       <c r="F406">
-        <v>-7.1198259365087682E-2</v>
+        <v>-5.318119116187895E-2</v>
       </c>
       <c r="G406">
-        <v>0.13999719131805202</v>
+        <v>0.18579457846306888</v>
       </c>
       <c r="H406">
-        <v>-0.63942661933150247</v>
+        <v>-0.37165354330708661</v>
       </c>
       <c r="I406">
-        <v>-0.92463756999309654</v>
+        <v>-1.991012229261824</v>
       </c>
       <c r="J406">
-        <v>0.59580653988233689</v>
+        <v>0.13912508593552123</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -13401,31 +13401,31 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.86931818181818188</v>
+        <v>-0.19436619718309861</v>
       </c>
       <c r="C407">
-        <v>-6.9200779727095514E-5</v>
+        <v>-7.3952095808383234E-4</v>
       </c>
       <c r="D407">
-        <v>0.88646288209606983</v>
+        <v>1.1130434782608696E-4</v>
       </c>
       <c r="E407">
-        <v>-0.27699105329600965</v>
+        <v>0.50992583512764478</v>
       </c>
       <c r="F407">
-        <v>-0.29839830130809764</v>
+        <v>-0.11743423440865419</v>
       </c>
       <c r="G407">
-        <v>-2.6666874717181332E-2</v>
+        <v>0.13357871176324299</v>
       </c>
       <c r="H407">
-        <v>-0.65248844530779015</v>
+        <v>-0.43572470107903177</v>
       </c>
       <c r="I407">
-        <v>-0.7584183477793971</v>
+        <v>0.44599970531899219</v>
       </c>
       <c r="J407">
-        <v>4.5936516623341084E-2</v>
+        <v>0.59583167492853784</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -13433,31 +13433,31 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.55113636363636365</v>
+        <v>-4.7887323943661977E-2</v>
       </c>
       <c r="C408">
-        <v>7.3099415204678364E-5</v>
+        <v>-0.78068862275449102</v>
       </c>
       <c r="D408">
-        <v>8.62882096069869E-4</v>
+        <v>1.1246376811594204E-4</v>
       </c>
       <c r="E408">
-        <v>-0.39409158271335121</v>
+        <v>0.10221526898542777</v>
       </c>
       <c r="F408">
-        <v>-0.42880174063491233</v>
+        <v>6.5729290191428091E-2</v>
       </c>
       <c r="G408">
-        <v>-3.0474199135550113E-2</v>
+        <v>0.19307634916687391</v>
       </c>
       <c r="H408">
-        <v>-0.67867908098332108</v>
+        <v>-0.42933799941673956</v>
       </c>
       <c r="I408">
-        <v>-0.80712587251668333</v>
+        <v>0.47296301753351999</v>
       </c>
       <c r="J408">
-        <v>0.10815433027773977</v>
+        <v>0.6886058544704563</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -13465,31 +13465,31 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.29545454545454547</v>
+        <v>3.0985915492957747E-2</v>
       </c>
       <c r="C409">
-        <v>2.7972709551656917E-4</v>
+        <v>-0.79416167664670656</v>
       </c>
       <c r="D409">
-        <v>0.87598253275109172</v>
+        <v>-4.6376811594202897E-6</v>
       </c>
       <c r="E409">
-        <v>-0.3677479554311433</v>
+        <v>-1.6397452749799064E-6</v>
       </c>
       <c r="F409">
-        <v>-0.27040134217631795</v>
+        <v>3.1013286222501876E-2</v>
       </c>
       <c r="G409">
-        <v>-4.9526425015993886E-2</v>
+        <v>0.10746580452623726</v>
       </c>
       <c r="H409">
-        <v>-0.67787527630785716</v>
+        <v>-0.41116943715368914</v>
       </c>
       <c r="I409">
-        <v>-0.87125105469049624</v>
+        <v>0.47487844408427876</v>
       </c>
       <c r="J409">
-        <v>0.2287932685729922</v>
+        <v>0.71994065926113548</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -13497,31 +13497,31 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.27272727272727276</v>
+        <v>8.1690140845070425E-2</v>
       </c>
       <c r="C410">
-        <v>3.3333333333333338E-4</v>
+        <v>-7.0733532934131736E-4</v>
       </c>
       <c r="D410">
-        <v>8.2532751091703052E-4</v>
+        <v>5.9710144927536229E-5</v>
       </c>
       <c r="E410">
-        <v>-0.29145647151575027</v>
+        <v>-0.23560182683752276</v>
       </c>
       <c r="F410">
-        <v>-0.23920622853697537</v>
+        <v>-3.0275162750175454E-2</v>
       </c>
       <c r="G410">
-        <v>1.0470142150514146E-5</v>
+        <v>7.8885849291221091E-6</v>
       </c>
       <c r="H410">
-        <v>-0.65657445240806489</v>
+        <v>-0.4225721784776903</v>
       </c>
       <c r="I410">
-        <v>-0.90542302676996245</v>
+        <v>0.42271990570207751</v>
       </c>
       <c r="J410">
-        <v>0.29894650430975511</v>
+        <v>0.66519520932083798</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -13529,31 +13529,31 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.40909090909090906</v>
+        <v>0.11549295774647889</v>
       </c>
       <c r="C411">
-        <v>4.327485380116959E-4</v>
+        <v>-0.77844311377245512</v>
       </c>
       <c r="D411">
-        <v>7.7117903930131002E-4</v>
+        <v>1.5014492753623188E-4</v>
       </c>
       <c r="E411">
-        <v>-0.31231880803756318</v>
+        <v>-0.6050875113236508</v>
       </c>
       <c r="F411">
-        <v>-7.439641387265053E-2</v>
+        <v>-2.5108298443890516E-2</v>
       </c>
       <c r="G411">
-        <v>3.1426030240142309E-2</v>
+        <v>0.16392937080328276</v>
       </c>
       <c r="H411">
-        <v>-0.74405519458771519</v>
+        <v>-0.41367745698454361</v>
       </c>
       <c r="I411">
-        <v>-0.90964178875508173</v>
+        <v>0.5862678650360984</v>
       </c>
       <c r="J411">
-        <v>0.38832261595293471</v>
+        <v>0.58258855881607985</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -13561,31 +13561,31 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.21022727272727273</v>
+        <v>-7.0422535211267609E-2</v>
       </c>
       <c r="C412">
-        <v>5.2534113060428858E-4</v>
+        <v>-5.6287425149700594E-4</v>
       </c>
       <c r="D412">
-        <v>6.9432314410480356E-4</v>
+        <v>3.1072463768115947E-4</v>
       </c>
       <c r="E412">
-        <v>-0.37444675638319636</v>
+        <v>-0.89745678195957623</v>
       </c>
       <c r="F412">
-        <v>-8.1605368705271714E-2</v>
+        <v>0.17724643643667867</v>
       </c>
       <c r="G412">
-        <v>0.21999781546959601</v>
+        <v>-1.5180303407112659E-2</v>
       </c>
       <c r="H412">
-        <v>-0.70888874003617119</v>
+        <v>-0.40761154855643045</v>
       </c>
       <c r="I412">
-        <v>-0.89886476950218608</v>
+        <v>0.61146309120377196</v>
       </c>
       <c r="J412">
-        <v>0.47099466411273772</v>
+        <v>0.4032637406375511</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -13593,31 +13593,31 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.14204545454545456</v>
+        <v>0.16056338028169015</v>
       </c>
       <c r="C413">
-        <v>6.9980506822612078E-4</v>
+        <v>-4.6931137724550901E-4</v>
       </c>
       <c r="D413">
-        <v>5.6157205240174677E-4</v>
+        <v>5.2405797101449274E-4</v>
       </c>
       <c r="E413">
-        <v>-0.35815507287596865</v>
+        <v>-1.047415519517001</v>
       </c>
       <c r="F413">
-        <v>-0.19119458935171835</v>
+        <v>0.10561215846663924</v>
       </c>
       <c r="G413">
-        <v>0.4580960257150436</v>
+        <v>0.26229296194976376</v>
       </c>
       <c r="H413">
-        <v>-0.74733739701252599</v>
+        <v>-0.38661417322834646</v>
       </c>
       <c r="I413">
-        <v>-0.87546981667561552</v>
+        <v>0.35067039929276556</v>
       </c>
       <c r="J413">
-        <v>0.57788343138596254</v>
+        <v>0.26544125628686183</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -13625,31 +13625,31 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>-5.0704225352112678E-2</v>
       </c>
       <c r="C414">
-        <v>7.7192982456140351E-4</v>
+        <v>-2.8742514970059882E-4</v>
       </c>
       <c r="D414">
-        <v>5.9126637554585159E-4</v>
+        <v>5.4144927536231883E-4</v>
       </c>
       <c r="E414">
-        <v>-0.26343876772001257</v>
+        <v>-0.52748186199796243</v>
       </c>
       <c r="F414">
-        <v>-0.27120088080320864</v>
+        <v>4.3573485636843254E-2</v>
       </c>
       <c r="G414">
-        <v>0.315243341083215</v>
+        <v>6.0681422531708529E-7</v>
       </c>
       <c r="H414">
-        <v>-0.78009243753767832</v>
+        <v>-0.35777194517351996</v>
       </c>
       <c r="I414">
-        <v>-0.83753931119122493</v>
+        <v>1.443936938264329E-5</v>
       </c>
       <c r="J414">
-        <v>0.66096593241209467</v>
+        <v>0.17404204508448817</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -13657,31 +13657,31 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.17613636363636365</v>
+        <v>0.19718309859154931</v>
       </c>
       <c r="C415">
-        <v>8.0116959064327475E-4</v>
+        <v>-2.7320359281437123E-4</v>
       </c>
       <c r="D415">
-        <v>4.4366812227074234E-4</v>
+        <v>5.6985507246376814E-4</v>
       </c>
       <c r="E415">
-        <v>-0.26206906875439728</v>
+        <v>-0.34438145313688645</v>
       </c>
       <c r="F415">
-        <v>-0.29999737856187902</v>
+        <v>0.14180440938021829</v>
       </c>
       <c r="G415">
-        <v>0.16380857272145677</v>
+        <v>6.9823427008206915E-2</v>
       </c>
       <c r="H415">
-        <v>-0.78089624221314224</v>
+        <v>-0.36631671041119862</v>
       </c>
       <c r="I415">
-        <v>-0.80290711053156405</v>
+        <v>-0.25902460586415205</v>
       </c>
       <c r="J415">
-        <v>0.71357230811328498</v>
+        <v>9.8491153164236345E-2</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -13689,31 +13689,31 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.72159090909090917</v>
+        <v>0.15211267605633805</v>
       </c>
       <c r="C416">
-        <v>-2.5925925925925926E-4</v>
+        <v>-1.7215568862275448E-5</v>
       </c>
       <c r="D416">
-        <v>8.6899563318777295E-4</v>
+        <v>0.64463768115942033</v>
       </c>
       <c r="E416">
-        <v>-1.3400096802039829E-2</v>
+        <v>-0.53060006612743238</v>
       </c>
       <c r="F416">
-        <v>9.9994757123758091E-2</v>
+        <v>0.22230826940296702</v>
       </c>
       <c r="G416">
-        <v>-3.1426030240142309E-2</v>
+        <v>6.6749564784879388E-6</v>
       </c>
       <c r="H416">
-        <v>-0.68517650210998726</v>
+        <v>-0.34531933508311463</v>
       </c>
       <c r="I416">
-        <v>-0.59269770652757536</v>
+        <v>-0.55223220863415357</v>
       </c>
       <c r="J416">
-        <v>-6.0952250649883702E-2</v>
+        <v>4.0633932771284874E-2</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -13721,31 +13721,31 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.72159090909090917</v>
+        <v>9.2957746478873254E-2</v>
       </c>
       <c r="C417">
-        <v>-2.1345029239766081E-4</v>
+        <v>4.7904191616766468E-5</v>
       </c>
       <c r="D417">
-        <v>0.88034934497816597</v>
+        <v>5.211594202898551E-4</v>
       </c>
       <c r="E417">
-        <v>-0.14846888113807263</v>
+        <v>-0.47711211287898947</v>
       </c>
       <c r="F417">
-        <v>-5.199622512910583E-2</v>
+        <v>1.9941434137605577E-2</v>
       </c>
       <c r="G417">
-        <v>-0.10000468113657997</v>
+        <v>0.21797562795324546</v>
       </c>
       <c r="H417">
-        <v>-0.68356889275905952</v>
+        <v>-0.36167979002624673</v>
       </c>
       <c r="I417">
-        <v>-0.61893073559868073</v>
+        <v>-0.80757330190069254</v>
       </c>
       <c r="J417">
-        <v>-3.006567245861267E-5</v>
+        <v>3.7558345695987261E-2</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -13753,31 +13753,31 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.72727272727272729</v>
+        <v>0.18873239436619721</v>
       </c>
       <c r="C418">
-        <v>-1.3060428849902535E-4</v>
+        <v>3.4356287425149704E-4</v>
       </c>
       <c r="D418">
-        <v>0.89432314410480351</v>
+        <v>5.5652173913043473E-4</v>
       </c>
       <c r="E418">
-        <v>-0.27303165027518722</v>
+        <v>-0.82543164278283587</v>
       </c>
       <c r="F418">
-        <v>-0.13679974834194039</v>
+        <v>-4.4287408339585201E-6</v>
       </c>
       <c r="G418">
-        <v>-0.22094964657418822</v>
+        <v>0.44930116886346683</v>
       </c>
       <c r="H418">
-        <v>-0.68028669033424882</v>
+        <v>-0.36132983377077865</v>
       </c>
       <c r="I418">
-        <v>-0.66667945079389435</v>
+        <v>-1.1799027552674231</v>
       </c>
       <c r="J418">
-        <v>2.1309344643590094E-5</v>
+        <v>8.658682201396678E-2</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -13785,31 +13785,31 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.63636363636363646</v>
+        <v>0.19718309859154931</v>
       </c>
       <c r="C419">
-        <v>-3.0214424951267055E-5</v>
+        <v>4.3113772455089818E-4</v>
       </c>
       <c r="D419">
-        <v>0.88733624454148474</v>
+        <v>4.8347826086956518E-4</v>
       </c>
       <c r="E419">
-        <v>-0.33546397616873491</v>
+        <v>-0.66513713377902151</v>
       </c>
       <c r="F419">
-        <v>-0.2311977350774635</v>
+        <v>9.5278429854069355E-2</v>
       </c>
       <c r="G419">
-        <v>-0.2647650849626289</v>
+        <v>0.29750808256652572</v>
       </c>
       <c r="H419">
-        <v>-0.68028669033424882</v>
+        <v>-0.38410615339749199</v>
       </c>
       <c r="I419">
-        <v>-0.72846513768505028</v>
+        <v>-1.5971710623250333</v>
       </c>
       <c r="J419">
-        <v>5.219592283486113E-2</v>
+        <v>8.3945435466946492E-6</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -13817,31 +13817,31 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.47159090909090912</v>
+        <v>0.15492957746478875</v>
       </c>
       <c r="C420">
-        <v>1.3255360623781677E-4</v>
+        <v>5.4041916167664667E-4</v>
       </c>
       <c r="D420">
-        <v>8.5938864628820957E-4</v>
+        <v>3.4260869565217388E-4</v>
       </c>
       <c r="E420">
-        <v>-0.34216527201872171</v>
+        <v>-0.47120634178205367</v>
       </c>
       <c r="F420">
-        <v>-0.25199884656722676</v>
+        <v>3.3977880496599791E-2</v>
       </c>
       <c r="G420">
-        <v>-0.1409490224226442</v>
+        <v>9.3499129569758768E-2</v>
       </c>
       <c r="H420">
-        <v>-0.69830531180923039</v>
+        <v>-0.37521143190434531</v>
       </c>
       <c r="I420">
-        <v>-0.80946536779934031</v>
+        <v>-1.8111094739944011</v>
       </c>
       <c r="J420">
-        <v>0.18579833082501027</v>
+        <v>4.9896877374534139E-2</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -13849,31 +13849,31 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.45454545454545459</v>
+        <v>6.4788732394366194E-2</v>
       </c>
       <c r="C421">
-        <v>2.6413255360623782E-4</v>
+        <v>6.4670658682634732E-4</v>
       </c>
       <c r="D421">
-        <v>8.2358078602620081E-4</v>
+        <v>3.2753623188405792E-4</v>
       </c>
       <c r="E421">
-        <v>-0.30973159888028978</v>
+        <v>-0.3456932493568704</v>
       </c>
       <c r="F421">
-        <v>-0.18319920308281123</v>
+        <v>2.9524938893056796E-6</v>
       </c>
       <c r="G421">
-        <v>-0.13714169800427545</v>
+        <v>-7.4071126585426514E-2</v>
       </c>
       <c r="H421">
-        <v>-0.68276508808359571</v>
+        <v>-0.39160104986876643</v>
       </c>
       <c r="I421">
-        <v>-0.85629362583416435</v>
+        <v>-2.1564756151466038</v>
       </c>
       <c r="J421">
-        <v>0.2417567382678889</v>
+        <v>5.1669862864999819E-2</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -13881,31 +13881,31 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.46022727272727276</v>
+        <v>7.6056338028169024E-2</v>
       </c>
       <c r="C422">
-        <v>3.391812865497076E-4</v>
+        <v>6.152694610778443E-4</v>
       </c>
       <c r="D422">
-        <v>8.1222707423580793E-4</v>
+        <v>2.2028985507246377E-4</v>
       </c>
       <c r="E422">
-        <v>-0.23602732412217017</v>
+        <v>-8.9745140574555987E-2</v>
       </c>
       <c r="F422">
-        <v>-0.14719375049151964</v>
+        <v>2.8798915805522615E-2</v>
       </c>
       <c r="G422">
-        <v>-0.14856367125938177</v>
+        <v>2.4282516786868939E-2</v>
       </c>
       <c r="H422">
-        <v>-0.69830531180923039</v>
+        <v>-0.38270632837561969</v>
       </c>
       <c r="I422">
-        <v>-0.8796885786607348</v>
+        <v>-2.1222926182407544</v>
       </c>
       <c r="J422">
-        <v>0.32316322342317688</v>
+        <v>8.9662409089264386E-2</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -13913,31 +13913,31 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.32386363636363641</v>
+        <v>0.15492957746478875</v>
       </c>
       <c r="C423">
-        <v>4.2495126705653023E-4</v>
+        <v>6.7065868263473051E-4</v>
       </c>
       <c r="D423">
-        <v>7.807860262008734E-4</v>
+        <v>2.5217391304347824E-4</v>
       </c>
       <c r="E423">
-        <v>-0.1920198194691855</v>
+        <v>-5.020577459147494E-2</v>
       </c>
       <c r="F423">
-        <v>-0.24880069205966393</v>
+        <v>1.4774569831320635E-2</v>
       </c>
       <c r="G423">
-        <v>-1.8100394775851576E-2</v>
+        <v>3.6428749067396168E-2</v>
       </c>
       <c r="H423">
-        <v>-0.70399892826043275</v>
+        <v>-0.3890930300379119</v>
       </c>
       <c r="I423">
-        <v>-0.89514458847894451</v>
+        <v>-2.1961102106969204</v>
       </c>
       <c r="J423">
-        <v>0.3402996305924203</v>
+        <v>9.3642580598473066E-2</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -13945,31 +13945,31 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.34090909090909094</v>
+        <v>0.18028169014084508</v>
       </c>
       <c r="C424">
-        <v>4.6686159844054582E-4</v>
+        <v>6.9311377245508989E-4</v>
       </c>
       <c r="D424">
-        <v>7.5109170305676857E-4</v>
+        <v>2.2956521739130435E-4</v>
       </c>
       <c r="E424">
-        <v>-0.20405021730561002</v>
+        <v>0.48958224128986128</v>
       </c>
       <c r="F424">
-        <v>-0.27999580569900645</v>
+        <v>-6.5729290191428091E-2</v>
       </c>
       <c r="G424">
-        <v>1.142197325510634E-5</v>
+        <v>-2.6112907237005718E-2</v>
       </c>
       <c r="H424">
-        <v>-0.70975952843459045</v>
+        <v>-0.37451151939340915</v>
       </c>
       <c r="I424">
-        <v>-0.90170284574672088</v>
+        <v>-2.1367319876233979</v>
       </c>
       <c r="J424">
-        <v>0.42003009987686413</v>
+        <v>0.10113253971125664</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -13977,31 +13977,31 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.34090909090909094</v>
+        <v>4.7887323943661977E-2</v>
       </c>
       <c r="C425">
-        <v>4.6686159844054582E-4</v>
+        <v>-6.1826347305389215E-4</v>
       </c>
       <c r="D425">
-        <v>7.5109170305676857E-4</v>
+        <v>3.4840579710144928E-4</v>
       </c>
       <c r="E425">
-        <v>-0.20405021730561002</v>
+        <v>-0.62526713063393624</v>
       </c>
       <c r="F425">
-        <v>-0.27999580569900645</v>
+        <v>3.9882868275211154E-2</v>
       </c>
       <c r="G425">
-        <v>1.142197325510634E-5</v>
+        <v>-2.7326535687639892E-2</v>
       </c>
       <c r="H425">
-        <v>-0.70975952843459045</v>
+        <v>-0.39798775153105864</v>
       </c>
       <c r="I425">
-        <v>-0.90170284574672088</v>
+        <v>0.65831737144541036</v>
       </c>
       <c r="J425">
-        <v>0.42003009987686413</v>
+        <v>0.44035170242790461</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -14009,31 +14009,31 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.125</v>
+        <v>-1.9718309859154931E-2</v>
       </c>
       <c r="C426">
-        <v>5.5360623781676411E-4</v>
+        <v>-4.6032934131736526E-4</v>
       </c>
       <c r="D426">
-        <v>7.0305676855895202E-4</v>
+        <v>4.6260869565217393E-4</v>
       </c>
       <c r="E426">
-        <v>-0.25719403819189757</v>
+        <v>-0.6779325231378811</v>
       </c>
       <c r="F426">
-        <v>-0.13999790284950323</v>
+        <v>6.4253043246775249E-2</v>
       </c>
       <c r="G426">
-        <v>5.3333749434362664E-2</v>
+        <v>2.3068888336234768E-2</v>
       </c>
       <c r="H426">
-        <v>-0.74814120168798981</v>
+        <v>-0.38127734033245847</v>
       </c>
       <c r="I426">
-        <v>-0.89702385518140682</v>
+        <v>0.50007367025195226</v>
       </c>
       <c r="J426">
-        <v>0.48936242988096867</v>
+        <v>0.34363353475413394</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -14041,31 +14041,31 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.14204545454545456</v>
+        <v>6.7605633802816908E-2</v>
       </c>
       <c r="C427">
-        <v>6.5302144249512674E-4</v>
+        <v>-3.0314371257485033E-4</v>
       </c>
       <c r="D427">
-        <v>6.331877729257642E-4</v>
+        <v>5.5304347826086952E-4</v>
       </c>
       <c r="E427">
-        <v>-0.19369639088064908</v>
+        <v>-0.90976293584294998</v>
       </c>
       <c r="F427">
-        <v>-0.13360159383437753</v>
+        <v>0.24815469131918394</v>
       </c>
       <c r="G427">
-        <v>4.6670931702217297E-2</v>
+        <v>7.0430241233523996E-2</v>
       </c>
       <c r="H427">
-        <v>-0.71136713778551808</v>
+        <v>-0.38982210557013708</v>
       </c>
       <c r="I427">
-        <v>-0.8782695405384674</v>
+        <v>0.23206129364962427</v>
       </c>
       <c r="J427">
-        <v>0.59163360240799012</v>
+        <v>0.17313746065057711</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -14073,31 +14073,31 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.11363636363636365</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="C428">
-        <v>6.734892787524366E-4</v>
+        <v>-1.0179640718562875E-4</v>
       </c>
       <c r="D428">
-        <v>6.0087336244541475E-4</v>
+        <v>0.58144927536231883</v>
       </c>
       <c r="E428">
-        <v>-0.15943395755679635</v>
+        <v>-0.39146902359889141</v>
       </c>
       <c r="F428">
-        <v>-7.9193645633994808E-2</v>
+        <v>0.13367295079983543</v>
       </c>
       <c r="G428">
-        <v>1.332563546429073E-5</v>
+        <v>3.4608306391444917E-2</v>
       </c>
       <c r="H428">
-        <v>-0.75222720878826443</v>
+        <v>-0.36917468649752117</v>
       </c>
       <c r="I428">
-        <v>-0.89092582649382523</v>
+        <v>-0.22660969500515693</v>
       </c>
       <c r="J428">
-        <v>0.61961280612942948</v>
+        <v>0.12544776929478599</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -14105,31 +14105,31 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-2.8409090909090912E-2</v>
+        <v>0.20563380281690141</v>
       </c>
       <c r="C429">
-        <v>7.1247563352826507E-4</v>
+        <v>-3.4431137724550896E-5</v>
       </c>
       <c r="D429">
-        <v>5.5021834061135368E-4</v>
+        <v>0.59536231884057966</v>
       </c>
       <c r="E429">
-        <v>-0.16963559520780006</v>
+        <v>-0.27957388127706589</v>
       </c>
       <c r="F429">
-        <v>-6.0004718588617716E-2</v>
+        <v>4.6525979526148932E-2</v>
       </c>
       <c r="G429">
-        <v>-6.2852060480284619E-2</v>
+        <v>1.1539418055210146E-2</v>
       </c>
       <c r="H429">
-        <v>-0.73427557103623819</v>
+        <v>-0.36987459900845726</v>
       </c>
       <c r="I429">
-        <v>-0.86987036894991177</v>
+        <v>-0.35258582584352438</v>
       </c>
       <c r="J429">
-        <v>0.64844711998905458</v>
+        <v>0.1210333972573</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -14137,31 +14137,31 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.11931818181818184</v>
+        <v>6.4788732394366194E-2</v>
       </c>
       <c r="C430">
-        <v>7.6510721247563356E-4</v>
+        <v>1.7964071856287426E-5</v>
       </c>
       <c r="D430">
-        <v>5.0655021834061136E-4</v>
+        <v>5.7855072463768118E-4</v>
       </c>
       <c r="E430">
-        <v>-0.13918037613081249</v>
+        <v>-0.12879527108215125</v>
       </c>
       <c r="F430">
-        <v>-8.4003984585943853E-2</v>
+        <v>3.6906173616320997E-6</v>
       </c>
       <c r="G430">
-        <v>-1.6196732566667187E-2</v>
+        <v>-4.2476995772195972E-6</v>
       </c>
       <c r="H430">
-        <v>-0.7285149708620805</v>
+        <v>-0.36027996500437448</v>
       </c>
       <c r="I430">
-        <v>-0.8815678453631971</v>
+        <v>-0.55031678208339474</v>
       </c>
       <c r="J430">
-        <v>0.68641401012450398</v>
+        <v>0.11086586822013966</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -14169,31 +14169,31 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>8.5227272727272735E-2</v>
+        <v>0.15492957746478875</v>
       </c>
       <c r="C431">
-        <v>7.9239766081871336E-4</v>
+        <v>7.6347305389221553E-5</v>
       </c>
       <c r="D431">
-        <v>4.6986899563318779E-4</v>
+        <v>5.7913043478260864E-4</v>
       </c>
       <c r="E431">
-        <v>-0.12867436093189427</v>
+        <v>-0.27826208505708194</v>
       </c>
       <c r="F431">
-        <v>-0.10239337300443023</v>
+        <v>2.5846421916216937E-2</v>
       </c>
       <c r="G431">
-        <v>-3.6185185763103284E-2</v>
+        <v>-2.4272569012683412E-6</v>
       </c>
       <c r="H431">
-        <v>-0.72690736151115276</v>
+        <v>-0.35599300087489066</v>
       </c>
       <c r="I431">
-        <v>-0.84831633044412058</v>
+        <v>-0.68351259761308381</v>
       </c>
       <c r="J431">
-        <v>0.69311807360788069</v>
+        <v>7.2004920939320483E-2</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -14201,31 +14201,31 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>5.681818181818182E-3</v>
+        <v>0.11830985915492959</v>
       </c>
       <c r="C432">
-        <v>8.0701754385964909E-4</v>
+        <v>1.504491017964072E-4</v>
       </c>
       <c r="D432">
-        <v>4.4803493449781663E-4</v>
+        <v>5.628985507246377E-4</v>
       </c>
       <c r="E432">
-        <v>-0.10994266724548299</v>
+        <v>-0.28646349953898964</v>
       </c>
       <c r="F432">
-        <v>-3.6804991218182294E-2</v>
+        <v>0.11077902277292417</v>
       </c>
       <c r="G432">
-        <v>-3.713701686769548E-2</v>
+        <v>6.0104451628948022E-2</v>
       </c>
       <c r="H432">
-        <v>-0.69174090695960877</v>
+        <v>-0.35885097696121321</v>
       </c>
       <c r="I432">
-        <v>-0.82304211091508783</v>
+        <v>-0.87048769706792395</v>
       </c>
       <c r="J432">
-        <v>0.75783280886578186</v>
+        <v>6.0064406411694471E-2</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -14233,31 +14233,31 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.11931818181818184</v>
+        <v>0.26478873239436623</v>
       </c>
       <c r="C433">
-        <v>8.518518518518519E-4</v>
+        <v>2.9041916167664672E-4</v>
       </c>
       <c r="D433">
-        <v>4.0873362445414848E-4</v>
+        <v>5.4666666666666665E-4</v>
       </c>
       <c r="E433">
-        <v>-6.2891387113353195E-2</v>
+        <v>-0.55291135429519178</v>
       </c>
       <c r="F433">
-        <v>5.7606102707945576E-2</v>
+        <v>0.13588732121681468</v>
       </c>
       <c r="G433">
-        <v>-3.3329692449326695E-2</v>
+        <v>0.25804526237254416</v>
       </c>
       <c r="H433">
-        <v>-0.73347176636077438</v>
+        <v>-0.35707203266258386</v>
       </c>
       <c r="I433">
-        <v>-0.83519981590856796</v>
+        <v>-1.1133048475025784</v>
       </c>
       <c r="J433">
-        <v>0.74822137091257357</v>
+        <v>4.461410428049354E-2</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
@@ -14265,31 +14265,31 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.52840909090909094</v>
+        <v>2.5352112676056339E-2</v>
       </c>
       <c r="C434">
-        <v>-9.9415204678362566E-5</v>
+        <v>-0.77320359281437123</v>
       </c>
       <c r="D434">
-        <v>0.89257641921397379</v>
+        <v>-1.681159420289855E-5</v>
       </c>
       <c r="E434">
-        <v>-0.10705108054029509</v>
+        <v>4.7579494044498925E-2</v>
       </c>
       <c r="F434">
-        <v>-1.7602956982200435E-2</v>
+        <v>-5.2430967304760288E-2</v>
       </c>
       <c r="G434">
-        <v>-0.13047888027213006</v>
+        <v>4.8574981347923402E-2</v>
       </c>
       <c r="H434">
-        <v>-0.66970326210730791</v>
+        <v>-0.39407990667833187</v>
       </c>
       <c r="I434">
-        <v>-0.72800490910485538</v>
+        <v>0.5844997789892441</v>
       </c>
       <c r="J434">
-        <v>5.5958407442878645E-2</v>
+        <v>0.72305242971378947</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -14297,31 +14297,31 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.54545454545454553</v>
+        <v>-1.1267605633802818E-2</v>
       </c>
       <c r="C435">
-        <v>-3.898635477582846E-6</v>
+        <v>-0.78293413173652693</v>
       </c>
       <c r="D435">
-        <v>0.90305676855895201</v>
+        <v>-9.2753623188405795E-6</v>
       </c>
       <c r="E435">
-        <v>-0.28003732367308853</v>
+        <v>-9.3683217341515926E-2</v>
       </c>
       <c r="F435">
-        <v>-0.1032060188219257</v>
+        <v>7.3812347232641993E-6</v>
       </c>
       <c r="G435">
-        <v>-0.12952704916753788</v>
+        <v>3.6428749067396168E-2</v>
       </c>
       <c r="H435">
-        <v>-0.68845870453479807</v>
+        <v>-0.38874307378244388</v>
       </c>
       <c r="I435">
-        <v>-0.75373935721408303</v>
+        <v>0.5862678650360984</v>
       </c>
       <c r="J435">
-        <v>5.4692844438363662E-2</v>
+        <v>0.77515649310706658</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
@@ -14329,31 +14329,31 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.50568181818181823</v>
+        <v>0.12394366197183099</v>
       </c>
       <c r="C436">
-        <v>1.6764132553606236E-4</v>
+        <v>-0.75149700598802394</v>
       </c>
       <c r="D436">
-        <v>0.88471615720524022</v>
+        <v>1.4434782608695651E-4</v>
       </c>
       <c r="E436">
-        <v>-0.31323194068130672</v>
+        <v>-0.68466085497931506</v>
       </c>
       <c r="F436">
-        <v>-0.21199570084148164</v>
+        <v>9.0099465162992179E-2</v>
       </c>
       <c r="G436">
-        <v>-0.2238051398879648</v>
+        <v>0.10200447649838348</v>
       </c>
       <c r="H436">
-        <v>-0.7179315426351397</v>
+        <v>-0.38197725284339457</v>
       </c>
       <c r="I436">
-        <v>-0.79822811996624987</v>
+        <v>0.77339030499484307</v>
       </c>
       <c r="J436">
-        <v>0.16325762758243262</v>
+        <v>0.61573253247458115</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -14361,31 +14361,31 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.45454545454545459</v>
+        <v>0.25633802816901408</v>
       </c>
       <c r="C437">
-        <v>2.2027290448343081E-4</v>
+        <v>-6.9086826347305389E-4</v>
       </c>
       <c r="D437">
-        <v>8.5764192139737986E-4</v>
+        <v>2.144927536231884E-4</v>
       </c>
       <c r="E437">
-        <v>-0.27683886452205242</v>
+        <v>-0.52617006577797854</v>
       </c>
       <c r="F437">
-        <v>-0.15120455081657797</v>
+        <v>9.2313835579971443E-2</v>
       </c>
       <c r="G437">
-        <v>-0.14953110615257384</v>
+        <v>1.8821188759015169E-2</v>
       </c>
       <c r="H437">
-        <v>-0.70728113068524345</v>
+        <v>-0.36809565470982791</v>
       </c>
       <c r="I437">
-        <v>-0.8651913783845977</v>
+        <v>0.78591424782672759</v>
       </c>
       <c r="J437">
-        <v>0.2217129566288138</v>
+        <v>0.49734052176430149</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
@@ -14393,31 +14393,31 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.44886363636363641</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="C438">
-        <v>3.2553606237816765E-4</v>
+        <v>-6.3772455089820357E-4</v>
       </c>
       <c r="D438">
-        <v>8.1746724890829697E-4</v>
+        <v>3.2405797101449276E-4</v>
       </c>
       <c r="E438">
-        <v>-0.22415160995763664</v>
+        <v>-0.63363520775035009</v>
       </c>
       <c r="F438">
-        <v>-8.7949248957978352E-6</v>
+        <v>0.22968950412623121</v>
       </c>
       <c r="G438">
-        <v>-0.13047888027213006</v>
+        <v>-4.4934095996020891E-2</v>
       </c>
       <c r="H438">
-        <v>-0.65824904548194785</v>
+        <v>-0.36844561096529599</v>
       </c>
       <c r="I438">
-        <v>-0.90592160773184016</v>
+        <v>0.72668336525710919</v>
       </c>
       <c r="J438">
-        <v>0.25971405116979068</v>
+        <v>0.39309621160039077</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
@@ -14425,31 +14425,31 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.44886363636363641</v>
+        <v>0.12957746478873239</v>
       </c>
       <c r="C439">
-        <v>3.9278752436647176E-4</v>
+        <v>-4.902694610778443E-4</v>
       </c>
       <c r="D439">
-        <v>7.8427947598253272E-4</v>
+        <v>5.0840579710144927E-4</v>
       </c>
       <c r="E439">
-        <v>-0.2052677274972681</v>
+        <v>-0.99622589776053805</v>
       </c>
       <c r="F439">
-        <v>-4.0802684352635857E-2</v>
+        <v>0.3434210207884611</v>
       </c>
       <c r="G439">
-        <v>-8.6663441883689366E-2</v>
+        <v>0.12628699328525242</v>
       </c>
       <c r="H439">
-        <v>-0.71873534731060351</v>
+        <v>-0.34354039078448528</v>
       </c>
       <c r="I439">
-        <v>-0.90358211244918307</v>
+        <v>0.51981729777515839</v>
       </c>
       <c r="J439">
-        <v>0.33944452045423451</v>
+        <v>0.22922169555306293</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
@@ -14457,31 +14457,31 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.35227272727272729</v>
+        <v>0.14929577464788732</v>
       </c>
       <c r="C440">
-        <v>4.814814814814815E-4</v>
+        <v>-2.4401197604790421E-4</v>
       </c>
       <c r="D440">
-        <v>7.5371179039301309E-4</v>
+        <v>5.4318840579710144E-4</v>
       </c>
       <c r="E440">
-        <v>-0.22019220693681421</v>
+        <v>-0.74749804440215151</v>
       </c>
       <c r="F440">
-        <v>-3.7604529845073009E-2</v>
+        <v>0.16912707824108808</v>
       </c>
       <c r="G440">
-        <v>-6.3803891584876801E-2</v>
+        <v>0.11718477990549614</v>
       </c>
       <c r="H440">
-        <v>-0.69341550003349184</v>
+        <v>-0.34496937882764656</v>
       </c>
       <c r="I440">
-        <v>-0.92555802715348623</v>
+        <v>2.8731398261382054E-5</v>
       </c>
       <c r="J440">
-        <v>0.41753317827336162</v>
+        <v>7.7287694033361068E-2</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -14489,31 +14489,31 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.39204545454545459</v>
+        <v>0.25352112676056338</v>
       </c>
       <c r="C441">
-        <v>5.5945419103313834E-4</v>
+        <v>-4.8652694610778443E-5</v>
       </c>
       <c r="D441">
-        <v>6.9868995633187779E-4</v>
+        <v>0.58666666666666667</v>
       </c>
       <c r="E441">
-        <v>-0.18440788587338891</v>
+        <v>-0.84577523662061938</v>
       </c>
       <c r="F441">
-        <v>-9.8395679869976674E-2</v>
+        <v>0.18463977154473513</v>
       </c>
       <c r="G441">
-        <v>-6.2852060480284619E-2</v>
+        <v>9.1071872668490428E-2</v>
       </c>
       <c r="H441">
-        <v>-0.63366601915734477</v>
+        <v>-0.32254301545640129</v>
       </c>
       <c r="I441">
-        <v>-0.91247986499961653</v>
+        <v>-0.37586562546043906</v>
       </c>
       <c r="J441">
-        <v>0.42882063209741417</v>
+        <v>4.461410428049354E-2</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -14521,31 +14521,31 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.51704545454545459</v>
+        <v>0.3211267605633803</v>
       </c>
       <c r="C442">
-        <v>5.8674463937621836E-4</v>
+        <v>1.474550898203593E-4</v>
       </c>
       <c r="D442">
-        <v>6.5764192139737988E-4</v>
+        <v>0.59536231884057966</v>
       </c>
       <c r="E442">
-        <v>-0.16324117180366152</v>
+        <v>-0.57309366171248544</v>
       </c>
       <c r="F442">
-        <v>-0.11040186646394212</v>
+        <v>0.15435250840976744</v>
       </c>
       <c r="G442">
-        <v>-0.11428214770546288</v>
+        <v>8.6824173091270829E-2</v>
       </c>
       <c r="H442">
-        <v>-0.61980038850559316</v>
+        <v>-0.33391659375911342</v>
       </c>
       <c r="I442">
-        <v>-0.93821431310884407</v>
+        <v>-0.91734197730956235</v>
       </c>
       <c r="J442">
-        <v>0.51231358598987553</v>
+        <v>1.3387849621883707E-6</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -14553,31 +14553,31 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.39204545454545459</v>
+        <v>0.28732394366197184</v>
       </c>
       <c r="C443">
-        <v>5.5945419103313834E-4</v>
+        <v>2.9491017964071859E-4</v>
       </c>
       <c r="D443">
-        <v>6.9868995633187779E-4</v>
+        <v>5.1768115942028988E-4</v>
       </c>
       <c r="E443">
-        <v>-0.18440788587338891</v>
+        <v>-8.9417191519560013E-2</v>
       </c>
       <c r="F443">
-        <v>-9.8395679869976674E-2</v>
+        <v>1.0333728612569879E-5</v>
       </c>
       <c r="G443">
-        <v>-6.2852060480284619E-2</v>
+        <v>5.949763740363094E-2</v>
       </c>
       <c r="H443">
-        <v>-0.63366601915734477</v>
+        <v>-0.36523767862350537</v>
       </c>
       <c r="I443">
-        <v>-0.91247986499961653</v>
+        <v>-1.0629143951672315</v>
       </c>
       <c r="J443">
-        <v>0.42882063209741417</v>
+        <v>1.6354886565111986E-5</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -14585,31 +14585,31 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.51704545454545459</v>
+        <v>0.10704225352112676</v>
       </c>
       <c r="C444">
-        <v>5.8674463937621836E-4</v>
+        <v>3.5254491017964069E-4</v>
       </c>
       <c r="D444">
-        <v>6.5764192139737988E-4</v>
+        <v>5.0840579710144927E-4</v>
       </c>
       <c r="E444">
-        <v>-0.16324117180366152</v>
+        <v>-0.10615334575238772</v>
       </c>
       <c r="F444">
-        <v>-0.11040186646394212</v>
+        <v>4.8740349943128189E-2</v>
       </c>
       <c r="G444">
-        <v>-0.11428214770546288</v>
+        <v>5.1609052474508831E-2</v>
       </c>
       <c r="H444">
-        <v>-0.61980038850559316</v>
+        <v>-0.35777194517351996</v>
       </c>
       <c r="I444">
-        <v>-0.93821431310884407</v>
+        <v>-1.2607926919110064</v>
       </c>
       <c r="J444">
-        <v>0.51231358598987553</v>
+        <v>1.8562072583854979E-5</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -14617,31 +14617,31 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.55681818181818188</v>
+        <v>0.18309859154929578</v>
       </c>
       <c r="C445">
-        <v>6.2768031189083817E-4</v>
+        <v>3.1062874251497005E-4</v>
       </c>
       <c r="D445">
-        <v>6.3755458515283843E-4</v>
+        <v>4.9275362318840579E-4</v>
       </c>
       <c r="E445">
-        <v>-0.15212390661098055</v>
+        <v>-0.23051592837807688</v>
       </c>
       <c r="F445">
-        <v>-0.14559467323773823</v>
+        <v>5.6133685051184629E-2</v>
       </c>
       <c r="G445">
-        <v>-5.0478256120586075E-2</v>
+        <v>4.3720467545386721E-2</v>
       </c>
       <c r="H445">
-        <v>-0.64599102418112397</v>
+        <v>-0.34887722368037327</v>
       </c>
       <c r="I445">
-        <v>-0.93725550356677145</v>
+        <v>-1.3219390010313836</v>
       </c>
       <c r="J445">
-        <v>0.53570939937063888</v>
+        <v>-3.8860947280819194E-2</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -14649,31 +14649,31 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.39772727272727276</v>
+        <v>0.24788732394366197</v>
       </c>
       <c r="C446">
-        <v>6.7446393762183232E-4</v>
+        <v>5.2919161676646704E-4</v>
       </c>
       <c r="D446">
-        <v>5.7030567685589523E-4</v>
+        <v>4.2028985507246375E-4</v>
       </c>
       <c r="E446">
-        <v>-0.14938201378181618</v>
+        <v>-0.51041775871013872</v>
       </c>
       <c r="F446">
-        <v>-0.15760085983170366</v>
+        <v>7.9765736550422309E-2</v>
       </c>
       <c r="G446">
-        <v>-2.9522368030957917E-2</v>
+        <v>9.7149962695846803E-2</v>
       </c>
       <c r="H446">
-        <v>-0.64920624288297946</v>
+        <v>-0.35243511227763197</v>
       </c>
       <c r="I446">
-        <v>-0.92367876045102404</v>
+        <v>-1.4801827022248417</v>
       </c>
       <c r="J446">
-        <v>0.62337529073744702</v>
+        <v>8.8287440749719579E-6</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
@@ -14681,31 +14681,31 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.25</v>
+        <v>0.27605633802816903</v>
       </c>
       <c r="C447">
-        <v>7.1539961013645224E-4</v>
+        <v>5.0973053892215572E-4</v>
       </c>
       <c r="D447">
-        <v>5.6419213973799129E-4</v>
+        <v>3.8898550724637685E-4</v>
       </c>
       <c r="E447">
-        <v>-0.14588167198079927</v>
+        <v>-0.23675233663701684</v>
       </c>
       <c r="F447">
-        <v>-8.0006291451490283E-2</v>
+        <v>8.1193581955906198E-6</v>
       </c>
       <c r="G447">
-        <v>1.5244901462074992E-5</v>
+        <v>6.8609798557572738E-2</v>
       </c>
       <c r="H447">
-        <v>-0.65248844530779015</v>
+        <v>-0.35634295713035868</v>
       </c>
       <c r="I447">
-        <v>-0.92463756999309654</v>
+        <v>-1.8220126712833358</v>
       </c>
       <c r="J447">
-        <v>0.64382952524285131</v>
+        <v>4.284111879002786E-2</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -14713,31 +14713,31 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.21590909090909091</v>
+        <v>0.14366197183098592</v>
       </c>
       <c r="C448">
-        <v>7.6315789473684211E-4</v>
+        <v>5.6736526946107781E-4</v>
       </c>
       <c r="D448">
-        <v>5.3013100436681223E-4</v>
+        <v>3.3913043478260867E-4</v>
       </c>
       <c r="E448">
-        <v>-0.17511688596819505</v>
+        <v>-0.11714501530876942</v>
       </c>
       <c r="F448">
-        <v>-7.9953862689071218E-7</v>
+        <v>-4.6525979526148932E-2</v>
       </c>
       <c r="G448">
-        <v>-0.10286017445035654</v>
+        <v>1.2146232280527232E-2</v>
       </c>
       <c r="H448">
-        <v>-0.61243217898050772</v>
+        <v>-0.35351414406532516</v>
       </c>
       <c r="I448">
-        <v>-0.91899976988570986</v>
+        <v>-1.8956829232355974</v>
       </c>
       <c r="J448">
-        <v>0.66554932275277057</v>
+        <v>5.6988819336396858E-2</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -14745,31 +14745,31 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.10227272727272727</v>
+        <v>0.17183098591549295</v>
       </c>
       <c r="C449">
-        <v>8.1968810916179338E-4</v>
+        <v>5.7335329341317361E-4</v>
       </c>
       <c r="D449">
-        <v>4.4628820960698691E-4</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="E449">
-        <v>-0.19384857965460633</v>
+        <v>-0.1683346370652323</v>
       </c>
       <c r="F449">
-        <v>-4.6399454740870844E-2</v>
+        <v>-7.7551366133443045E-2</v>
       </c>
       <c r="G449">
-        <v>-0.1752305459765631</v>
+        <v>-1.8214374533698084E-2</v>
       </c>
       <c r="H449">
-        <v>-0.63614441690669166</v>
+        <v>-0.36488772236803735</v>
       </c>
       <c r="I449">
-        <v>-0.90684206489222985</v>
+        <v>-1.9874760571681156</v>
       </c>
       <c r="J449">
-        <v>0.73320563688603091</v>
+        <v>8.2172449976480808E-2</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
@@ -14777,31 +14777,31 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.67045454545454541</v>
+        <v>0.14366197183098592</v>
       </c>
       <c r="C450">
-        <v>8.5867446393762185E-4</v>
+        <v>6.2350299401197598E-4</v>
       </c>
       <c r="D450">
-        <v>3.5720524017467245E-4</v>
+        <v>2.7594202898550724E-4</v>
       </c>
       <c r="E450">
-        <v>-0.14359634547350669</v>
+        <v>-0.24807195524839454</v>
       </c>
       <c r="F450">
-        <v>-3.7604529845073009E-2</v>
+        <v>-7.3860748771810938E-2</v>
       </c>
       <c r="G450">
-        <v>-0.10476383665954093</v>
+        <v>7.4071126585426514E-2</v>
       </c>
       <c r="H450">
-        <v>-0.61403978833143547</v>
+        <v>-0.37343248760571596</v>
       </c>
       <c r="I450">
-        <v>-0.91010201733527651</v>
+        <v>-2.1222926182407544</v>
       </c>
       <c r="J450">
-        <v>0.79833082501026131</v>
+        <v>6.9797734920577489E-2</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -14809,31 +14809,60 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.69886363636363635</v>
+        <v>0.16901408450704225</v>
       </c>
       <c r="C451">
-        <v>8.6647173489278753E-4</v>
+        <v>6.3697604790419161E-4</v>
       </c>
       <c r="D451">
-        <v>3.4759825327510918E-4</v>
+        <v>1.1942028985507246E-4</v>
       </c>
       <c r="E451">
-        <v>-4.5531887290490944E-2</v>
+        <v>-0.60639930754363469</v>
       </c>
       <c r="F451">
-        <v>-3.9976931344535613E-6</v>
+        <v>3.0275162750175454E-2</v>
       </c>
       <c r="G451">
-        <v>-6.1900229375692416E-2</v>
+        <v>8.9251429992539169E-2</v>
       </c>
       <c r="H451">
-        <v>-0.60754236720476928</v>
+        <v>-0.37200349956255468</v>
       </c>
       <c r="I451">
-        <v>-0.90308353148730536</v>
+        <v>-2.4406954471784292</v>
       </c>
       <c r="J451">
-        <v>0.77661102750034205</v>
+        <v>0.14223685638817526</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B452">
+        <v>8.4507042253521136E-3</v>
+      </c>
+      <c r="C452">
+        <v>-0.75823353293413176</v>
+      </c>
+      <c r="D452">
+        <v>1.2173913043478261E-5</v>
+      </c>
+      <c r="E452">
+        <v>-4.3477442750040993E-2</v>
+      </c>
+      <c r="F452">
+        <v>-0.13588732121681468</v>
+      </c>
+      <c r="G452">
+        <v>0.24043770206416315</v>
+      </c>
+      <c r="H452">
+        <v>-0.40227471566054246</v>
+      </c>
+      <c r="I452">
+        <v>0.39929276558125831</v>
+      </c>
+      <c r="J452">
+        <v>0.67268516843362158</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/IzquierdaA2.xlsx
+++ b/Datos/IzquierdaA2.xlsx
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K452"/>
+  <dimension ref="A1:K451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="J424" sqref="J424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14836,35 +14836,6 @@
         <v>0.14223685638817526</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B452">
-        <v>8.4507042253521136E-3</v>
-      </c>
-      <c r="C452">
-        <v>-0.75823353293413176</v>
-      </c>
-      <c r="D452">
-        <v>1.2173913043478261E-5</v>
-      </c>
-      <c r="E452">
-        <v>-4.3477442750040993E-2</v>
-      </c>
-      <c r="F452">
-        <v>-0.13588732121681468</v>
-      </c>
-      <c r="G452">
-        <v>0.24043770206416315</v>
-      </c>
-      <c r="H452">
-        <v>-0.40227471566054246</v>
-      </c>
-      <c r="I452">
-        <v>0.39929276558125831</v>
-      </c>
-      <c r="J452">
-        <v>0.67268516843362158</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos/IzquierdaA2.xlsx
+++ b/Datos/IzquierdaA2.xlsx
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="J424" sqref="J424"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9081,31 +9081,31 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.11830985915492959</v>
+        <v>2.0208673263176803E-7</v>
       </c>
       <c r="C272">
-        <v>-1.8038922155688621E-4</v>
+        <v>1.8961224296314038E-7</v>
       </c>
       <c r="D272">
-        <v>0.58028985507246378</v>
+        <v>2.5647550758698462E-3</v>
       </c>
       <c r="E272">
-        <v>-0.22936810668559093</v>
+        <v>-0.18486445219526068</v>
       </c>
       <c r="F272">
-        <v>-0.19571162362963143</v>
+        <v>8.3753723635166082E-3</v>
       </c>
       <c r="G272">
-        <v>6.6749564784879388E-6</v>
+        <v>-3.5028366989506461E-3</v>
       </c>
       <c r="H272">
-        <v>-0.45459317585301839</v>
+        <v>-3.0729657849697369E-2</v>
       </c>
       <c r="I272">
-        <v>-0.93708560483276848</v>
+        <v>-4.4341820976103868E-2</v>
       </c>
       <c r="J272">
-        <v>0.16608170206607084</v>
+        <v>9.7151325539272197E-3</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -9113,31 +9113,31 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.14647887323943662</v>
+        <v>2.0208673263176803E-7</v>
       </c>
       <c r="C273">
-        <v>-7.6347305389221553E-5</v>
+        <v>3.2683162931804462E-7</v>
       </c>
       <c r="D273">
-        <v>0.63188405797101455</v>
+        <v>2.5023826275267077E-3</v>
       </c>
       <c r="E273">
-        <v>-0.12436527073269733</v>
+        <v>-0.21425185495661372</v>
       </c>
       <c r="F273">
-        <v>-0.18242540112775588</v>
+        <v>-1.9949203878069349E-2</v>
       </c>
       <c r="G273">
-        <v>-9.1121611539418064E-6</v>
+        <v>-3.1216162946773849E-2</v>
       </c>
       <c r="H273">
-        <v>-0.45389326334208224</v>
+        <v>-2.9906341531567942E-2</v>
       </c>
       <c r="I273">
-        <v>-1.070134079858553</v>
+        <v>-4.6018392387567428E-2</v>
       </c>
       <c r="J273">
-        <v>0.16166733002858485</v>
+        <v>1.3766846798297481E-2</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -9145,31 +9145,31 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.22253521126760564</v>
+        <v>1.7963265122823825E-7</v>
       </c>
       <c r="C274">
-        <v>-6.1377245508982032E-5</v>
+        <v>5.0895917848000834E-7</v>
       </c>
       <c r="D274">
-        <v>0.57971014492753625</v>
+        <v>2.4724438523220013E-6</v>
       </c>
       <c r="E274">
-        <v>-0.17670271418164615</v>
+        <v>-0.23344011496489678</v>
       </c>
       <c r="F274">
-        <v>-0.21712930471188985</v>
+        <v>5.6334795343522493E-3</v>
       </c>
       <c r="G274">
-        <v>2.0034817209649339E-2</v>
+        <v>-2.4973928316592568E-2</v>
       </c>
       <c r="H274">
-        <v>-0.44464858559346748</v>
+        <v>-3.1156285396364433E-2</v>
       </c>
       <c r="I274">
-        <v>-1.0970973920730809</v>
+        <v>-4.8485846444021978E-2</v>
       </c>
       <c r="J274">
-        <v>0.20273546332814704</v>
+        <v>1.6780683502237922E-2</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -9177,31 +9177,31 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.38309859154929582</v>
+        <v>2.4200509957137655E-7</v>
       </c>
       <c r="C275">
-        <v>-2.6946107784431136E-5</v>
+        <v>8.4826529746668074E-7</v>
       </c>
       <c r="D275">
-        <v>0.60985507246376813</v>
+        <v>2.3177601804310187E-6</v>
       </c>
       <c r="E275">
-        <v>-0.27875400863957595</v>
+        <v>-0.31292756313339221</v>
       </c>
       <c r="F275">
-        <v>-2.2893928026911255E-2</v>
+        <v>8.2231835895593512E-3</v>
       </c>
       <c r="G275">
-        <v>1.0325789604575976E-2</v>
+        <v>-1.3095719254125313E-2</v>
       </c>
       <c r="H275">
-        <v>-0.42790901137357829</v>
+        <v>-3.0028591530320496E-2</v>
       </c>
       <c r="I275">
-        <v>-1.287756004125534</v>
+        <v>-5.1529621923167124E-2</v>
       </c>
       <c r="J275">
-        <v>0.16517711763215978</v>
+        <v>1.9826953879316798E-2</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -9209,31 +9209,31 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-0.29295774647887324</v>
+        <v>1.7713775329451271E-7</v>
       </c>
       <c r="C276">
-        <v>9.9550898203592823E-5</v>
+        <v>1.2050357019894316E-6</v>
       </c>
       <c r="D276">
-        <v>0.59536231884057966</v>
+        <v>2.1031989581306229E-6</v>
       </c>
       <c r="E276">
-        <v>-0.59081366311030115</v>
+        <v>-0.28582299198139804</v>
       </c>
       <c r="F276">
-        <v>0.24002323273880111</v>
+        <v>-7.6144284937303217E-3</v>
       </c>
       <c r="G276">
-        <v>6.8002984332255656E-2</v>
+        <v>-1.0658203972875469E-2</v>
       </c>
       <c r="H276">
-        <v>-0.42540099154272382</v>
+        <v>-3.1034035397611882E-2</v>
       </c>
       <c r="I276">
-        <v>-1.4981582437011935</v>
+        <v>-5.3480632107340491E-2</v>
       </c>
       <c r="J276">
-        <v>0.17624923110323118</v>
+        <v>2.4577239545130209E-2</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -9241,31 +9241,31 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.21971830985915494</v>
+        <v>2.2454081403529781E-7</v>
       </c>
       <c r="C277">
-        <v>2.7769461077844311E-4</v>
+        <v>1.2948520276035508E-6</v>
       </c>
       <c r="D277">
-        <v>5.5826086956521734E-4</v>
+        <v>2.0632805911910142E-6</v>
       </c>
       <c r="E277">
-        <v>-0.45578467187621807</v>
+        <v>-0.17877191144110294</v>
       </c>
       <c r="F277">
-        <v>5.4657438106531786E-2</v>
+        <v>-1.9949203878069349E-2</v>
       </c>
       <c r="G277">
-        <v>6.0681422531708529E-7</v>
+        <v>4.5681581166514482E-3</v>
       </c>
       <c r="H277">
-        <v>-0.41189851268591426</v>
+        <v>-2.9601963983653428E-2</v>
       </c>
       <c r="I277">
-        <v>-1.8093413879475468</v>
+        <v>-5.5336836170032287E-2</v>
       </c>
       <c r="J277">
-        <v>0.21333719289358469</v>
+        <v>2.7441382373047118E-2</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -9273,31 +9273,31 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-9.2957746478873254E-2</v>
+        <v>1.6466326362588508E-7</v>
       </c>
       <c r="C278">
-        <v>3.9820359281437129E-4</v>
+        <v>1.4395561077596315E-6</v>
       </c>
       <c r="D278">
-        <v>4.6898550724637684E-4</v>
+        <v>1.9435254903721889E-6</v>
       </c>
       <c r="E278">
-        <v>-0.49302839447432723</v>
+        <v>-0.1420744577339341</v>
       </c>
       <c r="F278">
-        <v>4.5049732581496089E-2</v>
+        <v>-1.9784540614443466E-6</v>
       </c>
       <c r="G278">
-        <v>1.8204426759512558E-6</v>
+        <v>-4.2637805687369325E-3</v>
       </c>
       <c r="H278">
-        <v>-0.41650627004957713</v>
+        <v>-2.9906341531567942E-2</v>
       </c>
       <c r="I278">
-        <v>-2.0162074554294978</v>
+        <v>-5.5094831070460905E-2</v>
       </c>
       <c r="J278">
-        <v>0.2455765821181749</v>
+        <v>2.932752521094362E-2</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -9305,31 +9305,31 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>2.2535211267605635E-2</v>
+        <v>1.8711734502941484E-7</v>
       </c>
       <c r="C279">
-        <v>4.7979041916167668E-4</v>
+        <v>1.5667959023796337E-6</v>
       </c>
       <c r="D279">
-        <v>3.7971014492753623E-4</v>
+        <v>1.8761632461615995E-6</v>
       </c>
       <c r="E279">
-        <v>-0.31386337427320304</v>
+        <v>-0.10781202441008138</v>
       </c>
       <c r="F279">
-        <v>4.8740349943128189E-2</v>
+        <v>2.1306428354016038E-6</v>
       </c>
       <c r="G279">
-        <v>1.7000746083063914E-2</v>
+        <v>-3.6550254729079035E-3</v>
       </c>
       <c r="H279">
-        <v>-0.4179352580927384</v>
+        <v>-2.9631902758858134E-2</v>
       </c>
       <c r="I279">
-        <v>-2.0755856785030207</v>
+        <v>-5.4149264753578931E-2</v>
       </c>
       <c r="J279">
-        <v>0.26059268372109851</v>
+        <v>2.9724213982405979E-2</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -9337,31 +9337,31 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-7.6056338028169024E-2</v>
+        <v>2.1206632436667019E-7</v>
       </c>
       <c r="C280">
-        <v>4.7230538922155691E-4</v>
+        <v>1.5842601879157124E-6</v>
       </c>
       <c r="D280">
-        <v>3.4492753623188406E-4</v>
+        <v>1.8437295730231677E-6</v>
       </c>
       <c r="E280">
-        <v>4.6759621407008969E-2</v>
+        <v>-7.0503320709149789E-2</v>
       </c>
       <c r="F280">
-        <v>-4.7264102998475353E-2</v>
+        <v>-6.0900458562240219E-3</v>
       </c>
       <c r="G280">
-        <v>-2.7326535687639892E-2</v>
+        <v>-1.6902933500990473E-2</v>
       </c>
       <c r="H280">
-        <v>-0.40726159230096237</v>
+        <v>-3.0362907853439716E-2</v>
       </c>
       <c r="I280">
-        <v>-2.124208044791513</v>
+        <v>-5.5823341267108764E-2</v>
       </c>
       <c r="J280">
-        <v>0.27825017187104245</v>
+        <v>3.2433673138431908E-2</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -9369,31 +9369,31 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-4.507042253521127E-2</v>
+        <v>2.5697448717372972E-7</v>
       </c>
       <c r="C281">
-        <v>-6.5793413173652695E-4</v>
+        <v>5.987755040941275E-8</v>
       </c>
       <c r="D281">
-        <v>3.089855072463768E-4</v>
+        <v>2.6021785448757293E-3</v>
       </c>
       <c r="E281">
-        <v>-0.57095930474800338</v>
+        <v>-5.786416777689625E-2</v>
       </c>
       <c r="F281">
-        <v>-0.14697127368650323</v>
+        <v>2.9389897659286759E-2</v>
       </c>
       <c r="G281">
-        <v>-8.6824173091270829E-2</v>
+        <v>-1.3856663123911601E-2</v>
       </c>
       <c r="H281">
-        <v>-0.41971420239136775</v>
+        <v>-2.7593571147004375E-2</v>
       </c>
       <c r="I281">
-        <v>0.33637837041402679</v>
+        <v>-4.6597208708191749E-2</v>
       </c>
       <c r="J281">
-        <v>0.36440279335673192</v>
+        <v>5.6958519826953878E-3</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -9401,31 +9401,31 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6.1971830985915494E-2</v>
+        <v>2.5198469130627868E-7</v>
       </c>
       <c r="C282">
-        <v>-5.9580838323353299E-4</v>
+        <v>1.2723979462000208E-7</v>
       </c>
       <c r="D282">
-        <v>3.089855072463768E-4</v>
+        <v>2.5323214027314143E-3</v>
       </c>
       <c r="E282">
-        <v>-0.50205236970073308</v>
+        <v>-0.1381150547131117</v>
       </c>
       <c r="F282">
-        <v>-2.5846421916216937E-2</v>
+        <v>-4.565663218717722E-7</v>
       </c>
       <c r="G282">
-        <v>-0.17850285998507834</v>
+        <v>-1.9949203878069349E-2</v>
       </c>
       <c r="H282">
-        <v>-0.42613006707494894</v>
+        <v>-2.7987765020533011E-2</v>
       </c>
       <c r="I282">
-        <v>9.3561219979372331E-5</v>
+        <v>-4.7570218902344703E-2</v>
       </c>
       <c r="J282">
-        <v>0.29771682888880846</v>
+        <v>5.4214132099855792E-3</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -9433,31 +9433,31 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-2.8169014084507044E-3</v>
+        <v>2.4200509957137655E-7</v>
       </c>
       <c r="C283">
-        <v>-4.902694610778443E-4</v>
+        <v>2.7194387477608294E-7</v>
       </c>
       <c r="D283">
-        <v>4.573913043478261E-4</v>
+        <v>2.527331606863963E-3</v>
       </c>
       <c r="E283">
-        <v>-0.56292186479359374</v>
+        <v>-0.24151110978049889</v>
       </c>
       <c r="F283">
-        <v>-0.15435250840976744</v>
+        <v>-5.4812907603949924E-3</v>
       </c>
       <c r="G283">
-        <v>-9.2285501119124591E-2</v>
+        <v>-2.5887060960336113E-2</v>
       </c>
       <c r="H283">
-        <v>-0.44712744240303298</v>
+        <v>-2.7745759920961635E-2</v>
       </c>
       <c r="I283">
-        <v>-0.19419478414616179</v>
+        <v>-5.0189861732756511E-2</v>
       </c>
       <c r="J283">
-        <v>0.25574411115533524</v>
+        <v>9.0440050097550517E-3</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -9465,31 +9465,31 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.12957746478873239</v>
+        <v>2.2204591610157226E-7</v>
       </c>
       <c r="C284">
-        <v>-4.296407185628742E-4</v>
+        <v>5.2143366814863601E-7</v>
       </c>
       <c r="D284">
-        <v>4.4405797101449275E-4</v>
+        <v>2.4200509957137652E-6</v>
       </c>
       <c r="E284">
-        <v>-0.41673454136862281</v>
+        <v>-0.23541856902634115</v>
       </c>
       <c r="F284">
-        <v>-0.14401877979719754</v>
+        <v>-2.6191438508250627E-2</v>
       </c>
       <c r="G284">
-        <v>3.0340711265854264E-6</v>
+        <v>-1.507417331556966E-2</v>
       </c>
       <c r="H284">
-        <v>-0.44712744240303298</v>
+        <v>-2.6922443602832209E-2</v>
       </c>
       <c r="I284">
-        <v>-0.3615735965817003</v>
+        <v>-5.4698142298998546E-2</v>
       </c>
       <c r="J284">
-        <v>0.2521981401744039</v>
+        <v>1.2731464155801385E-2</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -9497,31 +9497,31 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-0.20845070422535211</v>
+        <v>2.3452040577019994E-7</v>
       </c>
       <c r="C285">
-        <v>-2.3278443113772455E-4</v>
+        <v>7.6343876772001251E-7</v>
       </c>
       <c r="D285">
-        <v>0.68057971014492757</v>
+        <v>2.3701530370392545E-6</v>
       </c>
       <c r="E285">
-        <v>-0.34487337671938045</v>
+        <v>-0.24013891591694983</v>
       </c>
       <c r="F285">
-        <v>-0.11225526971757702</v>
+        <v>-2.4060795672849022E-2</v>
       </c>
       <c r="G285">
-        <v>0.123252922158667</v>
+        <v>-1.1269453966638225E-2</v>
       </c>
       <c r="H285">
-        <v>-0.44179060950714494</v>
+        <v>-2.8017703795737717E-2</v>
       </c>
       <c r="I285">
-        <v>-0.51613378517754527</v>
+        <v>-5.4698142298998546E-2</v>
       </c>
       <c r="J285">
-        <v>0.18858776278177805</v>
+        <v>1.5805178410151242E-2</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -9529,31 +9529,31 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.1267605633802818E-2</v>
+        <v>2.0208673263176803E-7</v>
       </c>
       <c r="C286">
-        <v>-2.0883233532934133E-4</v>
+        <v>9.8548468382158485E-7</v>
       </c>
       <c r="D286">
-        <v>4.7072463768115945E-4</v>
+        <v>2.2853265072925869E-6</v>
       </c>
       <c r="E286">
-        <v>-0.12469321978769331</v>
+        <v>-0.21912688551911341</v>
       </c>
       <c r="F286">
-        <v>8.271823043972798E-2</v>
+        <v>-1.1269453966638225E-2</v>
       </c>
       <c r="G286">
-        <v>0.18882864958965431</v>
+        <v>5.4812907603949924E-3</v>
       </c>
       <c r="H286">
-        <v>-0.42362204724409447</v>
+        <v>-2.6982321153241621E-2</v>
       </c>
       <c r="I286">
-        <v>-0.49108589951377635</v>
+        <v>-5.6891157582743289E-2</v>
       </c>
       <c r="J286">
-        <v>0.20494264934689005</v>
+        <v>2.223203548742821E-2</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -9561,31 +9561,31 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.16056338028169015</v>
+        <v>2.1955101816784674E-7</v>
       </c>
       <c r="C287">
-        <v>-3.0089820359281439E-4</v>
+        <v>1.1476530495137444E-6</v>
       </c>
       <c r="D287">
-        <v>5.6637681159420292E-4</v>
+        <v>2.18303569200984E-6</v>
       </c>
       <c r="E287">
-        <v>2.0015644782787514E-2</v>
+        <v>-0.20054738060665939</v>
       </c>
       <c r="F287">
-        <v>0.23485636843251614</v>
+        <v>7.6094386978628702E-7</v>
       </c>
       <c r="G287">
-        <v>7.5284755036060677E-2</v>
+        <v>3.5028366989506461E-3</v>
       </c>
       <c r="H287">
-        <v>-0.42755905511811021</v>
+        <v>-2.7775698696166341E-2</v>
       </c>
       <c r="I287">
-        <v>-0.44968321791660526</v>
+        <v>-5.8717422870230379E-2</v>
       </c>
       <c r="J287">
-        <v>0.18417339074429206</v>
+        <v>2.652575483136985E-2</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -9593,31 +9593,31 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7.3239436619718309E-2</v>
+        <v>2.3452040577019994E-7</v>
       </c>
       <c r="C288">
-        <v>-3.9595808383233535E-4</v>
+        <v>1.5193928416388485E-6</v>
       </c>
       <c r="D288">
-        <v>0.64231884057971012</v>
+        <v>2.0108877345827784E-6</v>
       </c>
       <c r="E288">
-        <v>-5.6439494743406746E-2</v>
+        <v>-0.15745300859741829</v>
       </c>
       <c r="F288">
-        <v>0.37739890128506087</v>
+        <v>-4.8725356645659629E-3</v>
       </c>
       <c r="G288">
-        <v>2.8540164138274062E-2</v>
+        <v>1.4008851897868858E-2</v>
       </c>
       <c r="H288">
-        <v>-0.43003791192767571</v>
+        <v>-2.8748708890319299E-2</v>
       </c>
       <c r="I288">
-        <v>-0.43701193458081627</v>
+        <v>-5.7499912678572317E-2</v>
       </c>
       <c r="J288">
-        <v>0.18507797517820312</v>
+        <v>3.130847417032169E-2</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9625,31 +9625,31 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-4.507042253521127E-2</v>
+        <v>1.2723979462000208E-7</v>
       </c>
       <c r="C289">
-        <v>-2.0134730538922158E-4</v>
+        <v>1.5593112085784571E-6</v>
       </c>
       <c r="D289">
-        <v>0.59072463768115946</v>
+        <v>1.9535050821070913E-6</v>
       </c>
       <c r="E289">
-        <v>-7.1205266539250398E-2</v>
+        <v>-9.4411927608041554E-2</v>
       </c>
       <c r="F289">
-        <v>-0.13367295079983543</v>
+        <v>1.7968254918691275E-2</v>
       </c>
       <c r="G289">
-        <v>3.4001492166127828E-2</v>
+        <v>7.6144284937303217E-3</v>
       </c>
       <c r="H289">
-        <v>-0.42933799941673956</v>
+        <v>-2.8050137468876149E-2</v>
       </c>
       <c r="I289">
-        <v>-0.41550022101075584</v>
+        <v>-5.7165596355453097E-2</v>
       </c>
       <c r="J289">
-        <v>0.14444404240691827</v>
+        <v>2.9207770110124796E-2</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -9657,31 +9657,31 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-8.4507042253521136E-3</v>
+        <v>1.9959183469804251E-7</v>
       </c>
       <c r="C290">
-        <v>-3.9670658682634733E-5</v>
+        <v>2.4948979337255315E-9</v>
       </c>
       <c r="D290">
-        <v>0.58260869565217388</v>
+        <v>2.5323214027314143E-3</v>
       </c>
       <c r="E290">
-        <v>2.295643384971869E-6</v>
+        <v>-1.9185765110349334E-2</v>
       </c>
       <c r="F290">
-        <v>7.3812347232641991E-7</v>
+        <v>-4.8725356645659629E-3</v>
       </c>
       <c r="G290">
-        <v>-0.23071872668490426</v>
+        <v>1.2943530480168056E-2</v>
       </c>
       <c r="H290">
-        <v>-0.43610382035578887</v>
+        <v>-3.0028591530320496E-2</v>
       </c>
       <c r="I290">
-        <v>-0.90113452188006482</v>
+        <v>-4.2211178140702264E-2</v>
       </c>
       <c r="J290">
-        <v>0.1629699316134168</v>
+        <v>6.2746683033197111E-3</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -9689,31 +9689,31 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.23098591549295777</v>
+        <v>1.6965305949333615E-7</v>
       </c>
       <c r="C291">
-        <v>-5.9880239520958085E-6</v>
+        <v>-2.4948979337255315E-9</v>
       </c>
       <c r="D291">
-        <v>0.58840579710144925</v>
+        <v>2.597188749008278E-3</v>
       </c>
       <c r="E291">
-        <v>-1.1647567666373662E-2</v>
+        <v>-0.10826859073195316</v>
       </c>
       <c r="F291">
-        <v>-6.6431112509377806E-6</v>
+        <v>1.7359499822862248E-2</v>
       </c>
       <c r="G291">
-        <v>-0.13843322556577967</v>
+        <v>9.8972601030891828E-3</v>
       </c>
       <c r="H291">
-        <v>-0.44820647419072618</v>
+        <v>-3.0395341526578148E-2</v>
       </c>
       <c r="I291">
-        <v>-0.86871961102106965</v>
+        <v>-4.2697683237778741E-2</v>
       </c>
       <c r="J291">
-        <v>0.15989434453811918</v>
+        <v>7.9786835920542497E-3</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -9721,31 +9721,31 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-2.5352112676056339E-2</v>
+        <v>1.5967346775843402E-7</v>
       </c>
       <c r="C292">
-        <v>-2.3203592814371256E-5</v>
+        <v>2.3202550783647442E-7</v>
       </c>
       <c r="D292">
-        <v>0.5895652173913043</v>
+        <v>2.5248367089302378E-3</v>
       </c>
       <c r="E292">
-        <v>-5.5778220419398453E-3</v>
+        <v>-0.26145781876063451</v>
       </c>
       <c r="F292">
-        <v>-3.6906173616320997E-6</v>
+        <v>2.5897040552071014E-3</v>
       </c>
       <c r="G292">
-        <v>-4.6147724446655061E-2</v>
+        <v>1.004944887704644E-2</v>
       </c>
       <c r="H292">
-        <v>-0.45888013998250221</v>
+        <v>-2.9724213982405979E-2</v>
       </c>
       <c r="I292">
-        <v>-0.96950051569176365</v>
+        <v>-4.425200465048975E-2</v>
       </c>
       <c r="J292">
-        <v>0.15236820204797916</v>
+        <v>8.4676835870644528E-3</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9753,31 +9753,31 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>9.8591549295774655E-2</v>
+        <v>9.480612148157019E-8</v>
       </c>
       <c r="C293">
-        <v>-2.6946107784431136E-5</v>
+        <v>5.6384693302197013E-7</v>
       </c>
       <c r="D293">
-        <v>0.58898550724637677</v>
+        <v>2.5098673213278843E-3</v>
       </c>
       <c r="E293">
-        <v>-2.2477950802265535E-2</v>
+        <v>-0.21333872231287018</v>
       </c>
       <c r="F293">
-        <v>-7.3812347232641991E-7</v>
+        <v>-3.1672729268645616E-2</v>
       </c>
       <c r="G293">
-        <v>-3.2787863715493658E-2</v>
+        <v>9.1363162333028963E-3</v>
       </c>
       <c r="H293">
-        <v>-0.4666958296879557</v>
+        <v>-3.1034035397611882E-2</v>
       </c>
       <c r="I293">
-        <v>-1.0234271401208193</v>
+        <v>-4.5836264838405458E-2</v>
       </c>
       <c r="J293">
-        <v>0.13029634186054925</v>
+        <v>1.3247908028082572E-2</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -9785,31 +9785,31 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-3.3802816901408454E-2</v>
+        <v>1.197551008188255E-7</v>
       </c>
       <c r="C294">
-        <v>1.5494011976047904E-4</v>
+        <v>8.1084182846079772E-7</v>
       </c>
       <c r="D294">
-        <v>0.59188405797101451</v>
+        <v>2.4549795667859229E-6</v>
       </c>
       <c r="E294">
-        <v>3.6587824488117225E-2</v>
+        <v>-0.22673881911491001</v>
       </c>
       <c r="F294">
-        <v>-7.3812347232641991E-7</v>
+        <v>-2.437515281249844E-6</v>
       </c>
       <c r="G294">
-        <v>5.4643123601094253E-2</v>
+        <v>7.4622397197730639E-3</v>
       </c>
       <c r="H294">
-        <v>-0.45497229512977544</v>
+        <v>-3.3227050681356625E-2</v>
       </c>
       <c r="I294">
-        <v>-0.92441432149697955</v>
+        <v>-4.7450463801525879E-2</v>
       </c>
       <c r="J294">
-        <v>0.17357166117885445</v>
+        <v>1.6294178405161445E-2</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -9817,31 +9817,31 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>5.6338028169014088E-3</v>
+        <v>1.7963265122823825E-7</v>
       </c>
       <c r="C295">
-        <v>3.7425149700598802E-6</v>
+        <v>9.3808162308079975E-7</v>
       </c>
       <c r="D295">
-        <v>0.58608695652173914</v>
+        <v>2.2878214052263123E-6</v>
       </c>
       <c r="E295">
-        <v>-5.3815902303438898E-2</v>
+        <v>-0.20633554381290262</v>
       </c>
       <c r="F295">
-        <v>-1.6250816775973474E-2</v>
+        <v>4.4159693426941904E-3</v>
       </c>
       <c r="G295">
-        <v>0.12810743596120369</v>
+        <v>-1.3696989656153169E-6</v>
       </c>
       <c r="H295">
-        <v>-0.44001166520851559</v>
+        <v>-3.2525984361979753E-2</v>
       </c>
       <c r="I295">
-        <v>-0.86326801237660233</v>
+        <v>-4.8301223996926289E-2</v>
       </c>
       <c r="J295">
-        <v>0.10333972572999964</v>
+        <v>1.8090504917443826E-2</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -9849,31 +9849,31 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-5.6338028169014088E-3</v>
+        <v>1.7214795742706167E-7</v>
       </c>
       <c r="C296">
-        <v>-2.3952095808383234E-5</v>
+        <v>1.1301887639776658E-6</v>
       </c>
       <c r="D296">
-        <v>0.58260869565217388</v>
+        <v>2.1256530395341528E-6</v>
       </c>
       <c r="E296">
-        <v>-3.5276028268133301E-2</v>
+        <v>-0.21516748249829099</v>
       </c>
       <c r="F296">
-        <v>-6.6431112509377806E-6</v>
+        <v>1.2486964158296284E-2</v>
       </c>
       <c r="G296">
-        <v>0.15482715742352648</v>
+        <v>-2.8628953789500471E-2</v>
       </c>
       <c r="H296">
-        <v>-0.42470107903178772</v>
+        <v>-3.4080305774690754E-2</v>
       </c>
       <c r="I296">
-        <v>-0.91734197730956235</v>
+        <v>-5.1013178050885941E-2</v>
       </c>
       <c r="J296">
-        <v>0.15634837355718784</v>
+        <v>2.1044464070974857E-2</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -9881,31 +9881,31 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.10140845070422536</v>
+        <v>1.8961224296314038E-7</v>
       </c>
       <c r="C297">
-        <v>-7.4850299401197606E-7</v>
+        <v>1.3272857007419826E-6</v>
       </c>
       <c r="D297">
-        <v>0.60173913043478255</v>
+        <v>1.9684744697094442E-6</v>
       </c>
       <c r="E297">
-        <v>-4.5611799714523033E-2</v>
+        <v>-0.21775469165556438</v>
       </c>
       <c r="F297">
-        <v>1.4762469446528398E-6</v>
+        <v>-2.5897040552071014E-3</v>
       </c>
       <c r="G297">
-        <v>0.19125590649092267</v>
+        <v>-1.157383151455274E-2</v>
       </c>
       <c r="H297">
-        <v>-0.4335958005249344</v>
+        <v>-3.2860300685098973E-2</v>
       </c>
       <c r="I297">
-        <v>-0.89936643583321052</v>
+        <v>-5.2809504563168318E-2</v>
       </c>
       <c r="J297">
-        <v>0.14972681550095887</v>
+        <v>2.436517322076354E-2</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -9913,31 +9913,31 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.10422535211267606</v>
+        <v>1.7464285536078721E-7</v>
       </c>
       <c r="C298">
-        <v>-8.2335329341317368E-6</v>
+        <v>1.4520305974282592E-6</v>
       </c>
       <c r="D298">
-        <v>0.60115942028985503</v>
+        <v>1.9659795717757187E-6</v>
       </c>
       <c r="E298">
-        <v>-6.7761801461792587E-2</v>
+        <v>-0.22354285486180761</v>
       </c>
       <c r="F298">
-        <v>3.3977880496599791E-2</v>
+        <v>-2.1623280391599178E-2</v>
       </c>
       <c r="G298">
-        <v>0.32301417557821438</v>
+        <v>3.2281484364474651E-2</v>
       </c>
       <c r="H298">
-        <v>-0.42682997958588509</v>
+        <v>-3.3104800682604074E-2</v>
       </c>
       <c r="I298">
-        <v>-0.81656107263886846</v>
+        <v>-5.2809504563168318E-2</v>
       </c>
       <c r="J298">
-        <v>0.13471071389803524</v>
+        <v>2.7014754826380053E-2</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -9945,31 +9945,31 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.11267605633802817</v>
+        <v>1.8961224296314038E-7</v>
       </c>
       <c r="C299">
-        <v>-5.9505988023952103E-4</v>
+        <v>1.3272857007419826E-6</v>
       </c>
       <c r="D299">
-        <v>3.9014492753623189E-4</v>
+        <v>1.9684744697094442E-6</v>
       </c>
       <c r="E299">
-        <v>-9.2207446594034015E-2</v>
+        <v>-0.21775469165556438</v>
       </c>
       <c r="F299">
-        <v>0.13293482732750903</v>
+        <v>-2.5897040552071014E-3</v>
       </c>
       <c r="G299">
-        <v>-5.4613280278537684E-6</v>
+        <v>-1.157383151455274E-2</v>
       </c>
       <c r="H299">
-        <v>-0.39620880723242929</v>
+        <v>-3.2860300685098973E-2</v>
       </c>
       <c r="I299">
-        <v>0.54678060998968614</v>
+        <v>-5.2809504563168318E-2</v>
       </c>
       <c r="J299">
-        <v>0.33744617722618231</v>
+        <v>2.436517322076354E-2</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -9977,31 +9977,31 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>8.4507042253521125E-2</v>
+        <v>1.7464285536078721E-7</v>
       </c>
       <c r="C300">
-        <v>-5.6287425149700594E-4</v>
+        <v>1.4520305974282592E-6</v>
       </c>
       <c r="D300">
-        <v>3.7971014492753623E-4</v>
+        <v>1.9659795717757187E-6</v>
       </c>
       <c r="E300">
-        <v>-0.1711248921397063</v>
+        <v>-0.22354285486180761</v>
       </c>
       <c r="F300">
-        <v>-2.4370174971564094E-2</v>
+        <v>-2.1623280391599178E-2</v>
       </c>
       <c r="G300">
-        <v>-0.11354389455359364</v>
+        <v>3.2281484364474651E-2</v>
       </c>
       <c r="H300">
-        <v>-0.40262467191601048</v>
+        <v>-3.3104800682604074E-2</v>
       </c>
       <c r="I300">
-        <v>0.47296301753351999</v>
+        <v>-5.2809504563168318E-2</v>
       </c>
       <c r="J300">
-        <v>0.34627492130115423</v>
+        <v>2.7014754826380053E-2</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -10009,31 +10009,31 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>3.3802816901408454E-2</v>
+        <v>1.671581615596106E-7</v>
       </c>
       <c r="C301">
-        <v>-5.0598802395209581E-4</v>
+        <v>1.5767754941145357E-6</v>
       </c>
       <c r="D301">
-        <v>4.4637681159420293E-4</v>
+        <v>1.7638928391439506E-6</v>
       </c>
       <c r="E301">
-        <v>-0.20000053762140163</v>
+        <v>-0.19323982455877731</v>
       </c>
       <c r="F301">
-        <v>-1.6988940248299896E-2</v>
+        <v>-2.3297356905129012E-2</v>
       </c>
       <c r="G301">
-        <v>-7.4071126585426514E-2</v>
+        <v>2.7561137473865942E-2</v>
       </c>
       <c r="H301">
-        <v>-0.42470107903178772</v>
+        <v>-3.2221606814065239E-2</v>
       </c>
       <c r="I301">
-        <v>0.42448799174893176</v>
+        <v>-5.0798616828585545E-2</v>
       </c>
       <c r="J301">
-        <v>0.30213120092629447</v>
+        <v>3.0150841529073047E-2</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -10041,31 +10041,31 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8.4507042253521125E-2</v>
+        <v>-2.2454081403529781E-8</v>
       </c>
       <c r="C302">
-        <v>-4.4910179640718562E-4</v>
+        <v>1.9061020213663058E-6</v>
       </c>
       <c r="D302">
-        <v>4.8637681159420287E-4</v>
+        <v>1.6915407990659103E-6</v>
       </c>
       <c r="E302">
-        <v>-0.17128886666720428</v>
+        <v>-0.19780798267542876</v>
       </c>
       <c r="F302">
-        <v>1.8465187192952735E-2</v>
+        <v>2.1166714069727408E-2</v>
       </c>
       <c r="G302">
-        <v>-5.4036309375777171E-2</v>
+        <v>6.4869841174797535E-2</v>
       </c>
       <c r="H302">
-        <v>-0.42648002333041701</v>
+        <v>-3.3439117005723294E-2</v>
       </c>
       <c r="I302">
-        <v>0.39575659348754971</v>
+        <v>-5.1377433149209867E-2</v>
       </c>
       <c r="J302">
-        <v>0.2672142417773275</v>
+        <v>3.2830361909894266E-2</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -10073,31 +10073,31 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.4084507042253521E-2</v>
+        <v>3.2433673138431908E-8</v>
       </c>
       <c r="C303">
-        <v>-4.3188622754491014E-4</v>
+        <v>2.0258571221851314E-6</v>
       </c>
       <c r="D303">
-        <v>5.1768115942028988E-4</v>
+        <v>1.5019285561027699E-6</v>
       </c>
       <c r="E303">
-        <v>-0.17342053552467818</v>
+        <v>-0.20968369683996227</v>
       </c>
       <c r="F303">
-        <v>-6.3514919774448828E-2</v>
+        <v>-1.521887739572574E-6</v>
       </c>
       <c r="G303">
-        <v>-4.6147724446655061E-2</v>
+        <v>4.1268106721754017E-2</v>
       </c>
       <c r="H303">
-        <v>-0.43432487605715953</v>
+        <v>-3.4718999645724495E-2</v>
       </c>
       <c r="I303">
-        <v>0.26624429055547372</v>
+        <v>-4.9002290316303161E-2</v>
       </c>
       <c r="J303">
-        <v>0.26193146868328687</v>
+        <v>3.7004326153017082E-2</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -10105,31 +10105,31 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.9718309859154931E-2</v>
+        <v>-4.2413264873334037E-8</v>
       </c>
       <c r="C304">
-        <v>-3.7200598802395211E-4</v>
+        <v>1.9609897759082677E-6</v>
       </c>
       <c r="D304">
-        <v>4.9739130434782604E-4</v>
+        <v>1.352234680079238E-6</v>
       </c>
       <c r="E304">
-        <v>-0.15127053377740862</v>
+        <v>-0.23587513534821292</v>
       </c>
       <c r="F304">
-        <v>-6.499116671910167E-2</v>
+        <v>-2.3449545679086269E-2</v>
       </c>
       <c r="G304">
-        <v>-6.9216612782889833E-2</v>
+        <v>2.4060795672849022E-2</v>
       </c>
       <c r="H304">
-        <v>-0.42895888013998251</v>
+        <v>-3.4748938420929201E-2</v>
       </c>
       <c r="I304">
-        <v>0.19242669809930749</v>
+        <v>-4.8605601544840803E-2</v>
       </c>
       <c r="J304">
-        <v>0.21909034989325904</v>
+        <v>4.07491679515391E-2</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -10137,31 +10137,31 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>-3.6619718309859155E-2</v>
+        <v>4.4908162807059563E-8</v>
       </c>
       <c r="C305">
-        <v>-3.4955089820359284E-4</v>
+        <v>2.2329336506843507E-6</v>
       </c>
       <c r="D305">
-        <v>5.3797101449275361E-4</v>
+        <v>1.0902703970380572E-6</v>
       </c>
       <c r="E305">
-        <v>-0.12436527073269733</v>
+        <v>-0.28947801745430596</v>
       </c>
       <c r="F305">
-        <v>-1.1083952469688537E-5</v>
+        <v>-1.2334775384339027E-2</v>
       </c>
       <c r="G305">
-        <v>-4.1283262869932849E-2</v>
+        <v>6.3944234041385366E-3</v>
       </c>
       <c r="H305">
-        <v>-0.44356955380577429</v>
+        <v>-3.5237938415939404E-2</v>
       </c>
       <c r="I305">
-        <v>9.5329306026226612E-5</v>
+        <v>-4.8271285221721583E-2</v>
       </c>
       <c r="J305">
-        <v>0.26457285523030721</v>
+        <v>4.6260397487138803E-2</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -10169,31 +10169,31 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-1.6901408450704227E-2</v>
+        <v>1.4969387602353188E-8</v>
       </c>
       <c r="C306">
-        <v>-3.0763473053892215E-4</v>
+        <v>2.3377193639008231E-6</v>
       </c>
       <c r="D306">
-        <v>5.4666666666666665E-4</v>
+        <v>6.1873468756393171E-7</v>
       </c>
       <c r="E306">
-        <v>-0.12272283735070925</v>
+        <v>-0.30744627237299721</v>
       </c>
       <c r="F306">
-        <v>8.8574816679170402E-6</v>
+        <v>-4.9184417865465124E-2</v>
       </c>
       <c r="G306">
-        <v>-2.6719721462322807E-2</v>
+        <v>1.2791341706210799E-2</v>
       </c>
       <c r="H306">
-        <v>-0.44321959755030621</v>
+        <v>-3.4536872096562532E-2</v>
       </c>
       <c r="I306">
-        <v>1.2523942831884487E-5</v>
+        <v>-4.6657086258601162E-2</v>
       </c>
       <c r="J306">
-        <v>0.21026160581828707</v>
+        <v>4.9793172961294152E-2</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -10201,31 +10201,31 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>-6.4867346276863815E-8</v>
       </c>
       <c r="C307">
-        <v>-2.9565868263473056E-4</v>
+        <v>2.3926071184427843E-6</v>
       </c>
       <c r="D307">
-        <v>5.628985507246377E-4</v>
+        <v>4.5407142393804671E-7</v>
       </c>
       <c r="E307">
-        <v>-3.396154394114121E-2</v>
+        <v>-0.11238018252673283</v>
       </c>
       <c r="F307">
-        <v>5.6133685051184629E-2</v>
+        <v>-2.4973928316592568E-2</v>
       </c>
       <c r="G307">
-        <v>-1.3359860731161403E-2</v>
+        <v>5.9378570822667641E-3</v>
       </c>
       <c r="H307">
-        <v>-0.43502478856809568</v>
+        <v>-3.4931065970091164E-2</v>
       </c>
       <c r="I307">
-        <v>-1.7975541476351848E-5</v>
+        <v>-4.3643249554660722E-2</v>
       </c>
       <c r="J307">
-        <v>0.15591417302891053</v>
+        <v>5.2018621918177327E-2</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -10233,31 +10233,31 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.26760563380281693</v>
+        <v>1.671581615596106E-7</v>
       </c>
       <c r="C308">
-        <v>-7.3802395209580842E-4</v>
+        <v>-2.7942856857725952E-7</v>
       </c>
       <c r="D308">
-        <v>1.4202898550724638E-4</v>
+        <v>2.554775484134944E-3</v>
       </c>
       <c r="E308">
-        <v>-0.3365052996029666</v>
+        <v>-6.7307356456047379E-2</v>
       </c>
       <c r="F308">
-        <v>-0.52584642191621689</v>
+        <v>2.8940816031216162E-3</v>
       </c>
       <c r="G308">
-        <v>-0.14754538671972145</v>
+        <v>-4.4159693426941904E-3</v>
       </c>
       <c r="H308">
-        <v>-0.39763779527559057</v>
+        <v>-3.2892734358237405E-2</v>
       </c>
       <c r="I308">
-        <v>0.69603654044496832</v>
+        <v>-3.3683617003228396E-2</v>
       </c>
       <c r="J308">
-        <v>0.38911604009118211</v>
+        <v>6.8210509508056022E-3</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -10265,31 +10265,31 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.21126760563380281</v>
+        <v>1.5967346775843402E-7</v>
       </c>
       <c r="C309">
-        <v>-6.5868263473053891E-4</v>
+        <v>-9.2311223547844658E-8</v>
       </c>
       <c r="D309">
-        <v>2.4463768115942029E-4</v>
+        <v>2.5298265047976887E-3</v>
       </c>
       <c r="E309">
-        <v>-0.38129722667999966</v>
+        <v>-0.17999191653069474</v>
       </c>
       <c r="F309">
-        <v>-0.51772706372062627</v>
+        <v>-7.7666172676875787E-3</v>
       </c>
       <c r="G309">
-        <v>-0.1797164884357125</v>
+        <v>-2.6952382378036915E-2</v>
       </c>
       <c r="H309">
-        <v>-0.40904053659959172</v>
+        <v>-3.3409178230518588E-2</v>
       </c>
       <c r="I309">
-        <v>0.5844997789892441</v>
+        <v>-3.6151071059682946E-2</v>
       </c>
       <c r="J309">
-        <v>0.41343126967471144</v>
+        <v>5.573601983942837E-3</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -10297,31 +10297,31 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>-7.6056338028169024E-2</v>
+        <v>1.3222959048745315E-7</v>
       </c>
       <c r="C310">
-        <v>-6.1901197604790411E-4</v>
+        <v>7.9836733879217009E-8</v>
       </c>
       <c r="D310">
-        <v>3.4840579710144928E-4</v>
+        <v>2.597188749008278E-3</v>
       </c>
       <c r="E310">
-        <v>-0.3333870954734966</v>
+        <v>-0.22628225279303824</v>
       </c>
       <c r="F310">
-        <v>-0.21048619346095207</v>
+        <v>-2.1927657939513696E-2</v>
       </c>
       <c r="G310">
-        <v>-0.20582939567271824</v>
+        <v>-2.3297356905129012E-2</v>
       </c>
       <c r="H310">
-        <v>-0.4179352580927384</v>
+        <v>-3.2403734363227202E-2</v>
       </c>
       <c r="I310">
-        <v>0.4297922498894946</v>
+        <v>-3.7520770025298265E-2</v>
       </c>
       <c r="J310">
-        <v>0.3732315374317039</v>
+        <v>1.0932642745585279E-2</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -10329,31 +10329,31 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>-0.10422535211267606</v>
+        <v>1.122704070176489E-7</v>
       </c>
       <c r="C311">
-        <v>-5.9131736526946111E-4</v>
+        <v>3.118622417156914E-7</v>
       </c>
       <c r="D311">
-        <v>3.8666666666666667E-4</v>
+        <v>2.53481630066514E-3</v>
       </c>
       <c r="E311">
-        <v>-0.32633350268407485</v>
+        <v>-0.22491255382742292</v>
       </c>
       <c r="F311">
-        <v>-5.3919314634205365E-2</v>
+        <v>-2.2384224261385467E-2</v>
       </c>
       <c r="G311">
-        <v>-2.7933349912956977E-2</v>
+        <v>-1.6902933500990473E-2</v>
       </c>
       <c r="H311">
-        <v>-0.43181685622630506</v>
+        <v>-3.2922673133442111E-2</v>
       </c>
       <c r="I311">
-        <v>0.26801237660232796</v>
+        <v>-4.0262662854462623E-2</v>
       </c>
       <c r="J311">
-        <v>0.3149401165104751</v>
+        <v>1.1084831519542536E-2</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -10361,31 +10361,31 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.10704225352112676</v>
+        <v>6.985714214431488E-8</v>
       </c>
       <c r="C312">
-        <v>-4.4910179640718562E-4</v>
+        <v>5.314132598835382E-7</v>
       </c>
       <c r="D312">
-        <v>4.3536231884057971E-4</v>
+        <v>2.3876173225753333E-6</v>
       </c>
       <c r="E312">
-        <v>-0.28843388197597369</v>
+        <v>-0.20024300305874487</v>
       </c>
       <c r="F312">
-        <v>-0.11964860482563346</v>
+        <v>-2.7418928291643588E-3</v>
       </c>
       <c r="G312">
-        <v>-8.5610544640636652E-2</v>
+        <v>7.6094386978628702E-7</v>
       </c>
       <c r="H312">
-        <v>-0.43893263342082239</v>
+        <v>-3.3164678233013486E-2</v>
       </c>
       <c r="I312">
-        <v>0.21762192426698099</v>
+        <v>-4.2849872011735998E-2</v>
       </c>
       <c r="J312">
-        <v>0.33614357564135039</v>
+        <v>1.5044234540364954E-2</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -10393,31 +10393,31 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-6.1971830985915494E-2</v>
+        <v>1.5468367189098293E-7</v>
       </c>
       <c r="C313">
-        <v>-4.7904191616766467E-4</v>
+        <v>7.5345917598511043E-7</v>
       </c>
       <c r="D313">
-        <v>4.7999999999999996E-4</v>
+        <v>2.4100714039788632E-6</v>
       </c>
       <c r="E313">
-        <v>-0.3453653003018744</v>
+        <v>-0.16232554426198426</v>
       </c>
       <c r="F313">
-        <v>0.11077902277292417</v>
+        <v>1.507417331556966E-2</v>
       </c>
       <c r="G313">
-        <v>9.410594379507585E-2</v>
+        <v>1.2639152932253541E-2</v>
       </c>
       <c r="H313">
-        <v>-0.42435112277631964</v>
+        <v>-3.2525984361979753E-2</v>
       </c>
       <c r="I313">
-        <v>0.14748784440842788</v>
+        <v>-4.2637805687369329E-2</v>
       </c>
       <c r="J313">
-        <v>0.33480479067916197</v>
+        <v>1.4161040671826115E-2</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -10425,31 +10425,31 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.14366197183098592</v>
+        <v>1.6965305949333615E-7</v>
       </c>
       <c r="C314">
-        <v>-3.3607784431137727E-4</v>
+        <v>8.657295830027593E-7</v>
       </c>
       <c r="D314">
-        <v>4.9391304347826083E-4</v>
+        <v>2.3127703845635677E-6</v>
       </c>
       <c r="E314">
-        <v>-0.30369157735431129</v>
+        <v>-0.14420510056933572</v>
       </c>
       <c r="F314">
-        <v>-5.0216596887781031E-2</v>
+        <v>1.9784540614443466E-6</v>
       </c>
       <c r="G314">
-        <v>-2.3068888336234768E-2</v>
+        <v>-1.3095719254125313E-2</v>
       </c>
       <c r="H314">
-        <v>-0.45389326334208224</v>
+        <v>-3.3074861907399368E-2</v>
       </c>
       <c r="I314">
-        <v>2.8731398261382054E-5</v>
+        <v>-4.3733065880274841E-2</v>
       </c>
       <c r="J314">
-        <v>0.24821796866519522</v>
+        <v>1.7816066144734018E-2</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -10457,31 +10457,31 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6.4788732394366194E-2</v>
+        <v>1.8711734502941484E-7</v>
       </c>
       <c r="C315">
-        <v>-3.1362275449101795E-4</v>
+        <v>9.8298978588785936E-7</v>
       </c>
       <c r="D315">
-        <v>5.5710144927536231E-4</v>
+        <v>2.2229540589494483E-6</v>
       </c>
       <c r="E315">
-        <v>-0.26448016042622624</v>
+        <v>-0.13278595272667396</v>
       </c>
       <c r="F315">
-        <v>0.11225526971757702</v>
+        <v>-5.0247244385232199E-3</v>
       </c>
       <c r="G315">
-        <v>0.1542203431982094</v>
+        <v>-3.3506479249933883E-3</v>
       </c>
       <c r="H315">
-        <v>-0.43715368912219305</v>
+        <v>-3.4718999645724495E-2</v>
       </c>
       <c r="I315">
-        <v>-5.7610137026668636E-5</v>
+        <v>-4.5042887295480741E-2</v>
       </c>
       <c r="J315">
-        <v>0.2252777074212107</v>
+        <v>1.7633938595572055E-2</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -10489,31 +10489,31 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>2.8169014084507043E-2</v>
+        <v>1.8212754916196377E-7</v>
       </c>
       <c r="C316">
-        <v>-1.3323353293413174E-4</v>
+        <v>1.1351785598451167E-6</v>
       </c>
       <c r="D316">
-        <v>5.76231884057971E-4</v>
+        <v>2.1930152837447419E-6</v>
       </c>
       <c r="E316">
-        <v>-0.13814719536355302</v>
+        <v>-0.12654122319855896</v>
       </c>
       <c r="F316">
-        <v>2.3632051499237677E-2</v>
+        <v>-1.4008851897868858E-2</v>
       </c>
       <c r="G316">
-        <v>6.0721213628450635E-2</v>
+        <v>-9.7450713291319258E-3</v>
       </c>
       <c r="H316">
-        <v>-0.44426946631671044</v>
+        <v>-3.4871188419681752E-2</v>
       </c>
       <c r="I316">
-        <v>-3.4182996905849421E-5</v>
+        <v>-4.6749397482149006E-2</v>
       </c>
       <c r="J316">
-        <v>0.21333719289358469</v>
+        <v>2.1288964068479958E-2</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -10521,31 +10521,31 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.16619718309859155</v>
+        <v>1.8212754916196377E-7</v>
       </c>
       <c r="C317">
-        <v>-2.2604790419161676E-4</v>
+        <v>1.1351785598451167E-6</v>
       </c>
       <c r="D317">
-        <v>0.65565217391304342</v>
+        <v>2.1930152837447419E-6</v>
       </c>
       <c r="E317">
-        <v>-0.179162332094116</v>
+        <v>-0.12654122319855896</v>
       </c>
       <c r="F317">
-        <v>4.3573485636843254E-2</v>
+        <v>-1.4008851897868858E-2</v>
       </c>
       <c r="G317">
-        <v>0.10685899030092016</v>
+        <v>-9.7450713291319258E-3</v>
       </c>
       <c r="H317">
-        <v>-0.43003791192767571</v>
+        <v>-3.4871188419681752E-2</v>
       </c>
       <c r="I317">
-        <v>-1.0431707676440253E-4</v>
+        <v>-4.6749397482149006E-2</v>
       </c>
       <c r="J317">
-        <v>0.14929261497268154</v>
+        <v>2.1288964068479958E-2</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -10553,31 +10553,31 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>3.6619718309859155E-2</v>
+        <v>1.4969387602353186E-7</v>
       </c>
       <c r="C318">
-        <v>-6.736526946107784E-6</v>
+        <v>1.1950561102545294E-6</v>
       </c>
       <c r="D318">
-        <v>0.57971014492753625</v>
+        <v>2.1281479374678783E-6</v>
       </c>
       <c r="E318">
-        <v>-0.35077914781631625</v>
+        <v>-0.10583107545070332</v>
       </c>
       <c r="F318">
-        <v>0.13293482732750903</v>
+        <v>-1.7816066144734018E-2</v>
       </c>
       <c r="G318">
-        <v>0.21736881372792838</v>
+        <v>4.565663218717722E-7</v>
       </c>
       <c r="H318">
-        <v>-0.42968795567220763</v>
+        <v>-3.280042313468956E-2</v>
       </c>
       <c r="I318">
-        <v>-0.20863415352880507</v>
+        <v>-4.5926081164019583E-2</v>
       </c>
       <c r="J318">
-        <v>9.9829938126424725E-2</v>
+        <v>2.2079846713470953E-2</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -10585,31 +10585,31 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.35492957746478876</v>
+        <v>9.9795917349021255E-8</v>
       </c>
       <c r="C319">
-        <v>-2.2455089820359281E-5</v>
+        <v>1.2948520276035508E-6</v>
       </c>
       <c r="D319">
-        <v>5.2579710144927535E-4</v>
+        <v>2.1181683457329759E-6</v>
       </c>
       <c r="E319">
-        <v>-0.32321529855460485</v>
+        <v>-0.10842077950591042</v>
       </c>
       <c r="F319">
-        <v>0.1912828827956729</v>
+        <v>-1.3095719254125313E-2</v>
       </c>
       <c r="G319">
-        <v>0.25197712011937329</v>
+        <v>5.1769132124804777E-3</v>
       </c>
       <c r="H319">
-        <v>-0.41472732575094778</v>
+        <v>-3.5267877191144111E-2</v>
       </c>
       <c r="I319">
-        <v>-0.31840282893767496</v>
+        <v>-4.6839213807763125E-2</v>
       </c>
       <c r="J319">
-        <v>6.0968990845605531E-2</v>
+        <v>2.5248367089302375E-2</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -10617,31 +10617,31 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.12957746478873239</v>
+        <v>8.7321427680393606E-8</v>
       </c>
       <c r="C320">
-        <v>1.4371257485029941E-4</v>
+        <v>1.4320714139584548E-6</v>
       </c>
       <c r="D320">
-        <v>0.60927536231884061</v>
+        <v>2.0358367139200334E-6</v>
       </c>
       <c r="E320">
-        <v>-0.17834245945662605</v>
+        <v>-0.11907898347878589</v>
       </c>
       <c r="F320">
-        <v>7.311052491469229E-2</v>
+        <v>-1.9797015104112092E-2</v>
       </c>
       <c r="G320">
-        <v>6.0681422531708529E-7</v>
+        <v>-1.6740765135298316E-6</v>
       </c>
       <c r="H320">
-        <v>-0.40974044911052787</v>
+        <v>-3.5267877191144111E-2</v>
       </c>
       <c r="I320">
-        <v>-0.49462207160748489</v>
+        <v>-4.8485846444021978E-2</v>
       </c>
       <c r="J320">
-        <v>7.6419292976806455E-2</v>
+        <v>2.58271834099267E-2</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -10649,31 +10649,31 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.6535211267605634</v>
+        <v>7.4846938011765931E-8</v>
       </c>
       <c r="C321">
-        <v>6.2874251497005995E-5</v>
+        <v>1.5019285561027699E-6</v>
       </c>
       <c r="D321">
-        <v>5.7739130434782604E-4</v>
+        <v>1.9934234490466996E-6</v>
       </c>
       <c r="E321">
-        <v>-0.42083659266308071</v>
+        <v>-8.8167198079926554E-2</v>
       </c>
       <c r="F321">
-        <v>7.3812347232641991E-7</v>
+        <v>-1.004944887704644E-2</v>
       </c>
       <c r="G321">
-        <v>-3.6408853519025116E-6</v>
+        <v>-1.521887739572574E-6</v>
       </c>
       <c r="H321">
-        <v>-0.39693788276465442</v>
+        <v>-3.5237938415939404E-2</v>
       </c>
       <c r="I321">
-        <v>-0.74289082068660672</v>
+        <v>-4.9216851538603557E-2</v>
       </c>
       <c r="J321">
-        <v>1.5450302131200927E-5</v>
+        <v>2.9572025208448722E-2</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -10681,31 +10681,31 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.21408450704225351</v>
+        <v>9.2311223547844658E-8</v>
       </c>
       <c r="C322">
-        <v>3.6377245508982037E-4</v>
+        <v>1.5717856982470847E-6</v>
       </c>
       <c r="D322">
-        <v>5.6521739130434778E-4</v>
+        <v>1.9011122254988548E-6</v>
       </c>
       <c r="E322">
-        <v>-0.38539927797445761</v>
+        <v>-7.507147882580123E-2</v>
       </c>
       <c r="F322">
-        <v>-7.5336995716463781E-2</v>
+        <v>9.131326437435444E-7</v>
       </c>
       <c r="G322">
-        <v>-4.2476995772195972E-6</v>
+        <v>-5.7856683083095072E-3</v>
       </c>
       <c r="H322">
-        <v>-0.40192475940507438</v>
+        <v>-3.4963499643229597E-2</v>
       </c>
       <c r="I322">
-        <v>-0.96051274495358774</v>
+        <v>-4.9581106636927483E-2</v>
       </c>
       <c r="J322">
-        <v>6.2271592430437457E-2</v>
+        <v>3.033296907823501E-2</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -10713,31 +10713,31 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.25633802816901408</v>
+        <v>8.9816325614119126E-8</v>
       </c>
       <c r="C323">
-        <v>3.7649700598802393E-4</v>
+        <v>1.6117040651866932E-6</v>
       </c>
       <c r="D323">
-        <v>4.3188405797101449E-4</v>
+        <v>1.8761632461615995E-6</v>
       </c>
       <c r="E323">
-        <v>-0.41804902569561492</v>
+        <v>-6.0149494284188837E-2</v>
       </c>
       <c r="F323">
-        <v>1.2560199414341377E-2</v>
+        <v>1.0201637651003697E-2</v>
       </c>
       <c r="G323">
-        <v>6.6789355881621493E-2</v>
+        <v>1.8262652874870888E-6</v>
       </c>
       <c r="H323">
-        <v>-0.39798775153105864</v>
+        <v>-3.4017933326347616E-2</v>
       </c>
       <c r="I323">
-        <v>-1.2734639752467953</v>
+        <v>-4.9094601539851006E-2</v>
       </c>
       <c r="J323">
-        <v>5.6084234902485798E-2</v>
+        <v>2.7319132374294567E-2</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -10745,31 +10745,31 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.16338028169014085</v>
+        <v>6.7362244210589348E-8</v>
       </c>
       <c r="C324">
-        <v>4.7979041916167668E-4</v>
+        <v>1.6616020238612039E-6</v>
       </c>
       <c r="D324">
-        <v>4.3188405797101449E-4</v>
+        <v>1.8212754916196378E-6</v>
       </c>
       <c r="E324">
-        <v>-7.547129236120631E-2</v>
+        <v>-4.6140642386319979E-2</v>
       </c>
       <c r="F324">
-        <v>-0.13072045691052975</v>
+        <v>8.2231835895593512E-3</v>
       </c>
       <c r="G324">
-        <v>-7.2817707038050231E-6</v>
+        <v>1.6294178405161445E-2</v>
       </c>
       <c r="H324">
-        <v>-0.40370370370370373</v>
+        <v>-3.4778877196133907E-2</v>
       </c>
       <c r="I324">
-        <v>-1.4028289376749667</v>
+        <v>-4.8820162767141198E-2</v>
       </c>
       <c r="J324">
-        <v>7.0231935448854796E-2</v>
+        <v>3.0515096627396973E-2</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -10777,31 +10777,31 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-2.8169014084507044E-3</v>
+        <v>1.0478571321647232E-7</v>
       </c>
       <c r="C325">
-        <v>4.3787425149700594E-4</v>
+        <v>1.7189846763368909E-6</v>
       </c>
       <c r="D325">
-        <v>4.0231884057971009E-4</v>
+        <v>1.7539132474090484E-6</v>
       </c>
       <c r="E325">
-        <v>-0.1235427099881992</v>
+        <v>-3.6550254729079035E-3</v>
       </c>
       <c r="F325">
-        <v>4.0620991747537569E-2</v>
+        <v>2.1306428354016038E-6</v>
       </c>
       <c r="G325">
-        <v>1.7000746083063914E-2</v>
+        <v>2.3145168131171755E-2</v>
       </c>
       <c r="H325">
-        <v>-0.40370370370370373</v>
+        <v>-3.7246331252588458E-2</v>
       </c>
       <c r="I325">
-        <v>-1.4946220716074849</v>
+        <v>-4.7540280127139997E-2</v>
       </c>
       <c r="J325">
-        <v>0.10069833918297934</v>
+        <v>2.7319132374294567E-2</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -10809,31 +10809,31 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.11549295774647889</v>
+        <v>1.197551008188255E-7</v>
       </c>
       <c r="C326">
-        <v>1.781437125748503E-4</v>
+        <v>-9.9795917349021262E-9</v>
       </c>
       <c r="D326">
-        <v>0.58144927536231883</v>
+        <v>2.554775484134944E-3</v>
       </c>
       <c r="E326">
-        <v>-1.0007822391393757E-2</v>
+        <v>-3.9594030208224178E-3</v>
       </c>
       <c r="F326">
-        <v>-8.271823043972798E-2</v>
+        <v>8.0709948156020943E-3</v>
       </c>
       <c r="G326">
-        <v>-2.0034817209649339E-2</v>
+        <v>-2.437515281249844E-6</v>
       </c>
       <c r="H326">
-        <v>-0.42006415864683583</v>
+        <v>-3.2373795588022496E-2</v>
       </c>
       <c r="I326">
-        <v>-0.88315898040371299</v>
+        <v>-3.8738280216956321E-2</v>
       </c>
       <c r="J326">
-        <v>8.2172449976480808E-2</v>
+        <v>4.3860305674894842E-3</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -10841,31 +10841,31 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-5.3521126760563378E-2</v>
+        <v>1.6965305949333615E-7</v>
       </c>
       <c r="C327">
-        <v>1.6017964071856288E-4</v>
+        <v>9.9795917349021255E-8</v>
       </c>
       <c r="D327">
-        <v>5.5652173913043473E-4</v>
+        <v>2.5747346676047484E-3</v>
       </c>
       <c r="E327">
-        <v>-0.11074732062933962</v>
+        <v>-0.1091817233756967</v>
       </c>
       <c r="F327">
-        <v>-5.7609931995837464E-2</v>
+        <v>2.1306428354016038E-6</v>
       </c>
       <c r="G327">
-        <v>1.6393931857746829E-2</v>
+        <v>-1.521887739572574E-6</v>
       </c>
       <c r="H327">
-        <v>-0.43076698745990083</v>
+        <v>-3.3683617003228396E-2</v>
       </c>
       <c r="I327">
-        <v>-0.84897598349786352</v>
+        <v>-4.0352479180076742E-2</v>
       </c>
       <c r="J327">
-        <v>6.889315048666643E-2</v>
+        <v>7.6743060441397341E-3</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -10873,31 +10873,31 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>-7.3239436619718309E-2</v>
+        <v>1.671581615596106E-7</v>
       </c>
       <c r="C328">
-        <v>1.6167664670658683E-4</v>
+        <v>2.7443877270980843E-7</v>
       </c>
       <c r="D328">
-        <v>5.6463768115942031E-4</v>
+        <v>2.5048775254604334E-3</v>
       </c>
       <c r="E328">
-        <v>-9.8933090328459788E-2</v>
+        <v>-0.19917768164104407</v>
       </c>
       <c r="F328">
-        <v>-5.687180852351105E-2</v>
+        <v>-2.1318902843684664E-2</v>
       </c>
       <c r="G328">
-        <v>2.7326535687639892E-2</v>
+        <v>3.6550254729079035E-3</v>
       </c>
       <c r="H328">
-        <v>-0.41402741324001169</v>
+        <v>-3.3591305779680551E-2</v>
       </c>
       <c r="I328">
-        <v>-0.97480477383232655</v>
+        <v>-4.1420295495711273E-2</v>
       </c>
       <c r="J328">
-        <v>9.6283967145493365E-2</v>
+        <v>1.0750515196423314E-2</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -10905,31 +10905,31 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.14929577464788732</v>
+        <v>1.0229081528274679E-7</v>
       </c>
       <c r="C329">
-        <v>2.4401197604790421E-4</v>
+        <v>5.2392856608236151E-7</v>
       </c>
       <c r="D329">
-        <v>5.7391304347826082E-4</v>
+        <v>2.4724438523220013E-6</v>
       </c>
       <c r="E329">
-        <v>-9.9752962965949751E-2</v>
+        <v>-0.19278325823690554</v>
       </c>
       <c r="F329">
-        <v>-0.11225526971757702</v>
+        <v>-1.1421642740595482E-2</v>
       </c>
       <c r="G329">
-        <v>0.11839840835613032</v>
+        <v>-1.5989800857246932E-2</v>
       </c>
       <c r="H329">
-        <v>-0.42006415864683583</v>
+        <v>-3.5602193514263331E-2</v>
       </c>
       <c r="I329">
-        <v>-1</v>
+        <v>-4.1754611818830493E-2</v>
       </c>
       <c r="J329">
-        <v>7.9494880052104061E-2</v>
+        <v>1.2090275386833925E-2</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -10937,31 +10937,31 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>-5.6338028169014086E-2</v>
+        <v>9.480612148157019E-8</v>
       </c>
       <c r="C330">
-        <v>2.5973053892215566E-4</v>
+        <v>7.3349999251530617E-7</v>
       </c>
       <c r="D330">
-        <v>5.2753623188405796E-4</v>
+        <v>2.367658139105529E-6</v>
       </c>
       <c r="E330">
-        <v>-6.1853342257848602E-2</v>
+        <v>-0.17176873294113537</v>
       </c>
       <c r="F330">
-        <v>-5.318119116187895E-2</v>
+        <v>-2.5897040552071014E-3</v>
       </c>
       <c r="G330">
-        <v>0.14510818204426759</v>
+        <v>-1.4769795767655145E-2</v>
       </c>
       <c r="H330">
-        <v>-0.41615631379410906</v>
+        <v>-3.5085749641982147E-2</v>
       </c>
       <c r="I330">
-        <v>-1.0126712833357889</v>
+        <v>-4.492063729672819E-2</v>
       </c>
       <c r="J330">
-        <v>5.3008647827188192E-2</v>
+        <v>1.6112050855999482E-2</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -10969,31 +10969,31 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>-1.6901408450704227E-2</v>
+        <v>1.5468367189098293E-7</v>
       </c>
       <c r="C331">
-        <v>4.0494011976047905E-4</v>
+        <v>8.4826529746668074E-7</v>
       </c>
       <c r="D331">
-        <v>5.2811594202898553E-4</v>
+        <v>2.3452040577019991E-6</v>
       </c>
       <c r="E331">
-        <v>-0.23658836210951886</v>
+        <v>-0.13826724348706895</v>
       </c>
       <c r="F331">
-        <v>-5.9049877786113593E-6</v>
+        <v>2.1306428354016038E-6</v>
       </c>
       <c r="G331">
-        <v>6.3148470529718975E-2</v>
+        <v>-2.2840790583257237E-2</v>
       </c>
       <c r="H331">
-        <v>-0.41863517060367456</v>
+        <v>-3.2892734358237405E-2</v>
       </c>
       <c r="I331">
-        <v>-1.0935612199793723</v>
+        <v>-4.5135198519028585E-2</v>
       </c>
       <c r="J331">
-        <v>9.7622752107681732E-2</v>
+        <v>1.6810622277442629E-2</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -11001,31 +11001,31 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-8.1690140845070425E-2</v>
+        <v>1.7713775329451271E-7</v>
       </c>
       <c r="C332">
-        <v>3.9296407185628745E-4</v>
+        <v>9.5804080655060401E-7</v>
       </c>
       <c r="D332">
-        <v>4.9855072463768119E-4</v>
+        <v>2.2853265072925869E-6</v>
       </c>
       <c r="E332">
-        <v>-0.49663583407928302</v>
+        <v>-0.14070226387038506</v>
       </c>
       <c r="F332">
-        <v>0.13145858038285618</v>
+        <v>-6.8534846239440344E-3</v>
       </c>
       <c r="G332">
-        <v>0.17607560308380998</v>
+        <v>-1.3247908028082572E-2</v>
       </c>
       <c r="H332">
-        <v>-0.40904053659959172</v>
+        <v>-3.3713555778433102E-2</v>
       </c>
       <c r="I332">
-        <v>-1.3381464564608812</v>
+        <v>-4.6322769935481942E-2</v>
       </c>
       <c r="J332">
-        <v>8.4379635995223801E-2</v>
+        <v>1.6294178405161445E-2</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -11033,31 +11033,31 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.11267605633802817</v>
+        <v>1.671581615596106E-7</v>
       </c>
       <c r="C333">
-        <v>3.5703592814371256E-4</v>
+        <v>1.0877754991043317E-6</v>
       </c>
       <c r="D333">
-        <v>3.8724637681159424E-4</v>
+        <v>2.1980050796121929E-6</v>
       </c>
       <c r="E333">
-        <v>-0.44315056893784827</v>
+        <v>-0.11862241715691411</v>
       </c>
       <c r="F333">
-        <v>6.2038672829795985E-2</v>
+        <v>-7.6094386978628702E-7</v>
       </c>
       <c r="G333">
-        <v>-1.6393931857746829E-2</v>
+        <v>-1.1878209062467254E-2</v>
       </c>
       <c r="H333">
-        <v>-0.41863517060367456</v>
+        <v>-3.301248945905623E-2</v>
       </c>
       <c r="I333">
-        <v>-1.5305731545601886</v>
+        <v>-4.824134644651687E-2</v>
       </c>
       <c r="J333">
-        <v>8.1267865542569748E-2</v>
+        <v>1.8182816140991671E-2</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -11065,31 +11065,31 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-2.8169014084507043E-2</v>
+        <v>1.5717856982470847E-7</v>
       </c>
       <c r="C334">
-        <v>5.7784431137724549E-4</v>
+        <v>1.2150152937243338E-6</v>
       </c>
       <c r="D334">
-        <v>3.3797101449275358E-4</v>
+        <v>2.1630765085400356E-6</v>
       </c>
       <c r="E334">
-        <v>-0.24265810773395266</v>
+        <v>-0.11161923865694655</v>
       </c>
       <c r="F334">
-        <v>-2.9537039277849036E-2</v>
+        <v>-7.7666172676875787E-3</v>
       </c>
       <c r="G334">
-        <v>-2.4889331012186024E-2</v>
+        <v>-3.4414622097809981E-2</v>
       </c>
       <c r="H334">
-        <v>-0.44286964129483813</v>
+        <v>-3.4080305774690754E-2</v>
       </c>
       <c r="I334">
-        <v>-1.7392073080889936</v>
+        <v>-4.9276729089012969E-2</v>
       </c>
       <c r="J334">
-        <v>0.13206932735101495</v>
+        <v>2.2142219161814091E-2</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -11097,31 +11097,31 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7.0422535211267609E-2</v>
+        <v>1.6965305949333615E-7</v>
       </c>
       <c r="C335">
-        <v>-6.5868263473053891E-4</v>
+        <v>1.272397946200021E-6</v>
       </c>
       <c r="D335">
-        <v>2.7304347826086954E-4</v>
+        <v>2.1481071209376822E-6</v>
       </c>
       <c r="E335">
-        <v>-0.19278028219747373</v>
+        <v>-9.8523519402821225E-2</v>
       </c>
       <c r="F335">
-        <v>2.5846421916216937E-2</v>
+        <v>-1.1117265192680968E-2</v>
       </c>
       <c r="G335">
-        <v>0.10443173339965182</v>
+        <v>-1.5228856987460643E-2</v>
       </c>
       <c r="H335">
-        <v>-0.37556138815981338</v>
+        <v>-3.2009540489698569E-2</v>
       </c>
       <c r="I335">
-        <v>0.43347576248710773</v>
+        <v>-4.9977795408389841E-2</v>
       </c>
       <c r="J335">
-        <v>0.38206028150667581</v>
+        <v>2.4060795672849022E-2</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -11129,31 +11129,31 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>9.2957746478873254E-2</v>
+        <v>2.0208673263176803E-7</v>
       </c>
       <c r="C336">
-        <v>-6.5643712574850303E-4</v>
+        <v>1.3272857007419826E-6</v>
       </c>
       <c r="D336">
-        <v>3.3565217391304345E-4</v>
+        <v>2.090724468461995E-6</v>
       </c>
       <c r="E336">
-        <v>-0.3440535040818905</v>
+        <v>-8.9082825621603814E-2</v>
       </c>
       <c r="F336">
-        <v>0.2850850657050894</v>
+        <v>3.3506479249933883E-3</v>
       </c>
       <c r="G336">
-        <v>0.11110668987813976</v>
+        <v>7.9188060416448356E-3</v>
       </c>
       <c r="H336">
-        <v>-0.38092738407699039</v>
+        <v>-3.3501489454066433E-2</v>
       </c>
       <c r="I336">
-        <v>0.55930455282157066</v>
+        <v>-5.0646428054628288E-2</v>
       </c>
       <c r="J336">
-        <v>0.36306400839454356</v>
+        <v>2.5460433413669048E-2</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -11161,31 +11161,31 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7.8873239436619724E-2</v>
+        <v>1.9959183469804251E-7</v>
       </c>
       <c r="C337">
-        <v>-5.5988023952095809E-4</v>
+        <v>1.4495356994945337E-6</v>
       </c>
       <c r="D337">
-        <v>4.0173913043478257E-4</v>
+        <v>2.0183724283839549E-6</v>
       </c>
       <c r="E337">
-        <v>-0.31698157840267305</v>
+        <v>-7.6748050237264789E-2</v>
       </c>
       <c r="F337">
-        <v>0.28729943612206871</v>
+        <v>5.9378570822667641E-3</v>
       </c>
       <c r="G337">
-        <v>-0.39587167371300669</v>
+        <v>-3.8072142468651609E-3</v>
       </c>
       <c r="H337">
-        <v>-0.39550889472149314</v>
+        <v>-3.313473945780878E-2</v>
       </c>
       <c r="I337">
-        <v>0.26256077795786059</v>
+        <v>-5.0252234181099649E-2</v>
       </c>
       <c r="J337">
-        <v>0.26413865470202991</v>
+        <v>2.8202326242833406E-2</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -11193,31 +11193,31 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7.6056338028169024E-2</v>
+        <v>1.6965305949333615E-7</v>
       </c>
       <c r="C338">
-        <v>-4.7380239520958083E-4</v>
+        <v>1.4719897808980633E-6</v>
       </c>
       <c r="D338">
-        <v>4.4347826086956523E-4</v>
+        <v>1.9809489593780721E-6</v>
       </c>
       <c r="E338">
-        <v>-0.20869656379281146</v>
+        <v>-5.2382877016501253E-2</v>
       </c>
       <c r="F338">
-        <v>1.7727063720626317E-2</v>
+        <v>1.7663877370776761E-2</v>
       </c>
       <c r="G338">
-        <v>-0.34668987813976621</v>
+        <v>3.0462703770788736E-3</v>
       </c>
       <c r="H338">
-        <v>-0.40049577136191311</v>
+        <v>-3.417012210030488E-2</v>
       </c>
       <c r="I338">
-        <v>-6.8365993811698842E-5</v>
+        <v>-5.0950805602542802E-2</v>
       </c>
       <c r="J338">
-        <v>0.23761623909975757</v>
+        <v>2.4120673223258435E-2</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -11225,31 +11225,31 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-2.8169014084507044E-3</v>
+        <v>1.6216836569215954E-7</v>
       </c>
       <c r="C339">
-        <v>-4.2140718562874247E-4</v>
+        <v>1.5119081478376718E-6</v>
       </c>
       <c r="D339">
-        <v>4.8057971014492753E-4</v>
+        <v>1.9385356945047379E-6</v>
       </c>
       <c r="E339">
-        <v>-0.39803069280581921</v>
+        <v>-7.9639636942452685E-2</v>
       </c>
       <c r="F339">
-        <v>-0.11299339318990344</v>
+        <v>2.223203548742821E-2</v>
       </c>
       <c r="G339">
-        <v>-4.4327281770703802E-2</v>
+        <v>-7.6094386978628702E-7</v>
       </c>
       <c r="H339">
-        <v>-0.39337999416739572</v>
+        <v>-3.4047872101552329E-2</v>
       </c>
       <c r="I339">
-        <v>-0.22660969500515693</v>
+        <v>-5.2170810692134584E-2</v>
       </c>
       <c r="J339">
-        <v>0.17798603321634041</v>
+        <v>2.5734872186378856E-2</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -11257,31 +11257,31 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-3.0985915492957747E-2</v>
+        <v>2.2204591610157226E-7</v>
       </c>
       <c r="C340">
-        <v>-3.869760479041916E-4</v>
+        <v>1.6341581465902231E-6</v>
       </c>
       <c r="D340">
-        <v>5.2405797101449274E-4</v>
+        <v>1.8088010019510101E-6</v>
       </c>
       <c r="E340">
-        <v>-0.318129400095159</v>
+        <v>-7.4158346182057688E-2</v>
       </c>
       <c r="F340">
-        <v>0.16838895476876165</v>
+        <v>1.4161040671826115E-2</v>
       </c>
       <c r="G340">
-        <v>-1.3966674956478489E-2</v>
+        <v>-3.0437754791451482E-7</v>
       </c>
       <c r="H340">
-        <v>-0.39515893846602507</v>
+        <v>-3.3286928231766037E-2</v>
       </c>
       <c r="I340">
-        <v>-0.33092677176955942</v>
+        <v>-5.1986188245038895E-2</v>
       </c>
       <c r="J340">
-        <v>0.17624923110323118</v>
+        <v>2.716694360033731E-2</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -11289,31 +11289,31 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.11267605633802817</v>
+        <v>1.921071408968659E-7</v>
       </c>
       <c r="C341">
-        <v>-2.679640718562874E-4</v>
+        <v>1.6715816155961061E-6</v>
       </c>
       <c r="D341">
-        <v>5.6985507246376814E-4</v>
+        <v>1.798821410216108E-6</v>
       </c>
       <c r="E341">
-        <v>-0.34487337671938045</v>
+        <v>-6.3500142209182223E-2</v>
       </c>
       <c r="F341">
-        <v>0.2333801214878633</v>
+        <v>9.2885050072601533E-3</v>
       </c>
       <c r="G341">
-        <v>4.6147724446655061E-2</v>
+        <v>-6.7012958499867766E-3</v>
       </c>
       <c r="H341">
-        <v>-0.39763779527559057</v>
+        <v>-3.2373795588022496E-2</v>
       </c>
       <c r="I341">
-        <v>-0.54132901134521882</v>
+        <v>-5.0524178055875738E-2</v>
       </c>
       <c r="J341">
-        <v>0.12588196982306329</v>
+        <v>2.7256759925951429E-2</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -11321,31 +11321,31 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4.7887323943661977E-2</v>
+        <v>2.2703571196902335E-7</v>
       </c>
       <c r="C342">
-        <v>-1.9386227544910181E-4</v>
+        <v>1.699025492867087E-6</v>
       </c>
       <c r="D342">
-        <v>5.5999999999999995E-4</v>
+        <v>1.7464285536078718E-6</v>
       </c>
       <c r="E342">
-        <v>-0.43035249147198051</v>
+        <v>-9.9284463272607523E-2</v>
       </c>
       <c r="F342">
-        <v>0.24076135621112751</v>
+        <v>-4.1115917947796756E-3</v>
       </c>
       <c r="G342">
-        <v>-0.29265356876398907</v>
+        <v>-1.7816066144734018E-2</v>
       </c>
       <c r="H342">
-        <v>-0.40262467191601048</v>
+        <v>-3.2555923137184459E-2</v>
       </c>
       <c r="I342">
-        <v>-0.82009724473257695</v>
+        <v>-5.253506579045851E-2</v>
       </c>
       <c r="J342">
-        <v>0.11926041176683431</v>
+        <v>3.0699719074492662E-2</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -11353,31 +11353,31 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.19718309859154931</v>
+        <v>2.8192346651098507E-7</v>
       </c>
       <c r="C343">
-        <v>1.5718562874251499E-5</v>
+        <v>1.7838520226137548E-6</v>
       </c>
       <c r="D343">
-        <v>0.58028985507246378</v>
+        <v>1.6790663093972826E-6</v>
       </c>
       <c r="E343">
-        <v>-0.48958224128986128</v>
+        <v>-9.2430978648663481E-2</v>
       </c>
       <c r="F343">
-        <v>0.21196244040560488</v>
+        <v>-1.705512227494773E-2</v>
       </c>
       <c r="G343">
-        <v>-8.8644615767222087E-2</v>
+        <v>-2.223203548742821E-2</v>
       </c>
       <c r="H343">
-        <v>-0.38410615339749199</v>
+        <v>-3.0699719074492662E-2</v>
       </c>
       <c r="I343">
-        <v>-1.1726830705761013</v>
+        <v>-5.3937198429212262E-2</v>
       </c>
       <c r="J343">
-        <v>0.1263161703513406</v>
+        <v>3.3561367004475845E-2</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -11385,31 +11385,31 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8.1690140845070425E-2</v>
+        <v>1.9709693676431696E-7</v>
       </c>
       <c r="C344">
-        <v>-7.2979041916167663E-4</v>
+        <v>-1.7464285536078721E-7</v>
       </c>
       <c r="D344">
-        <v>-1.2985507246376812E-4</v>
+        <v>2.5847142593396506E-3</v>
       </c>
       <c r="E344">
-        <v>-0.3228873494996089</v>
+        <v>-2.6648004830122401E-2</v>
       </c>
       <c r="F344">
-        <v>-7.5336995716463781E-2</v>
+        <v>1.1878209062467254E-2</v>
       </c>
       <c r="G344">
-        <v>0.13600596866451131</v>
+        <v>-4.7203468906087051E-3</v>
       </c>
       <c r="H344">
-        <v>-0.37451151939340915</v>
+        <v>-2.5248367089302375E-2</v>
       </c>
       <c r="I344">
-        <v>0.43892736113157504</v>
+        <v>-4.6779336257353712E-2</v>
       </c>
       <c r="J344">
-        <v>0.53222129753591196</v>
+        <v>3.9294642456177116E-3</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -11417,31 +11417,31 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.6901408450704227E-2</v>
+        <v>2.1206632436667019E-7</v>
       </c>
       <c r="C345">
-        <v>-0.78667664670658688</v>
+        <v>-1.3222959048745315E-7</v>
       </c>
       <c r="D345">
-        <v>6.1449275362318844E-5</v>
+        <v>2.6420969118153377E-3</v>
       </c>
       <c r="E345">
-        <v>-0.6759648288079052</v>
+        <v>-7.4767101277886716E-2</v>
       </c>
       <c r="F345">
-        <v>5.3919314634205365E-2</v>
+        <v>-1.8272632466605793E-2</v>
       </c>
       <c r="G345">
-        <v>5.1002238249191742E-2</v>
+        <v>-6.2422346301812797E-3</v>
       </c>
       <c r="H345">
-        <v>-0.38626421697287838</v>
+        <v>-2.716694360033731E-2</v>
       </c>
       <c r="I345">
-        <v>0.49285398556063059</v>
+        <v>-4.67194587069443E-2</v>
       </c>
       <c r="J345">
-        <v>0.46994970510547457</v>
+        <v>9.0140662345503438E-3</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -11449,31 +11449,31 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.24225352112676055</v>
+        <v>2.5697448717372972E-7</v>
       </c>
       <c r="C346">
-        <v>-6.3398203592814366E-4</v>
+        <v>1.671581615596106E-7</v>
       </c>
       <c r="D346">
-        <v>1.9304347826086958E-4</v>
+        <v>2.6420969118153377E-3</v>
       </c>
       <c r="E346">
-        <v>-0.6480730304911978</v>
+        <v>-0.23770389553363372</v>
       </c>
       <c r="F346">
-        <v>9.6754676798722197E-2</v>
+        <v>-4.4159693426941904E-3</v>
       </c>
       <c r="G346">
-        <v>0.40801790599353394</v>
+        <v>-2.603924973429337E-2</v>
       </c>
       <c r="H346">
-        <v>-0.39941673957421991</v>
+        <v>-2.6495816056165144E-2</v>
       </c>
       <c r="I346">
-        <v>0.50184175629880656</v>
+        <v>-4.9276729089012969E-2</v>
       </c>
       <c r="J346">
-        <v>0.33393638962260735</v>
+        <v>9.8074437774750643E-3</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -11481,31 +11481,31 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.24788732394366197</v>
+        <v>2.1206632436667019E-7</v>
       </c>
       <c r="C347">
-        <v>-6.3323353293413169E-4</v>
+        <v>4.5157652600432116E-7</v>
       </c>
       <c r="D347">
-        <v>3.147826086956522E-4</v>
+        <v>2.5098673213278843E-3</v>
       </c>
       <c r="E347">
-        <v>-0.49614391049678908</v>
+        <v>-0.35282347599159719</v>
       </c>
       <c r="F347">
-        <v>0.2466784443745311</v>
+        <v>-1.8120443692648532E-2</v>
       </c>
       <c r="G347">
-        <v>1.5180303407112659E-2</v>
+        <v>-5.0247244385232199E-3</v>
       </c>
       <c r="H347">
-        <v>-0.3641878098571012</v>
+        <v>-2.7256759925951429E-2</v>
       </c>
       <c r="I347">
-        <v>0.46397524679534402</v>
+        <v>-5.3388320883792646E-2</v>
       </c>
       <c r="J347">
-        <v>0.24423779715598654</v>
+        <v>1.3400096802039829E-2</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -11513,31 +11513,31 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2394366197183099</v>
+        <v>1.2973469255372763E-7</v>
       </c>
       <c r="C348">
-        <v>-6.2050898203592814E-4</v>
+        <v>8.4327550159922965E-7</v>
       </c>
       <c r="D348">
-        <v>3.7043478260869567E-4</v>
+        <v>2.4025867101776867E-6</v>
       </c>
       <c r="E348">
-        <v>-0.29368375496291754</v>
+        <v>-0.39805098573417363</v>
       </c>
       <c r="F348">
-        <v>0.22673701023692552</v>
+        <v>-2.7713326247823203E-2</v>
       </c>
       <c r="G348">
-        <v>-2.7933349912956977E-2</v>
+        <v>-5.9378570822667641E-3</v>
       </c>
       <c r="H348">
-        <v>-0.37664041994750658</v>
+        <v>-2.7408948699908686E-2</v>
       </c>
       <c r="I348">
-        <v>0.23559746574333285</v>
+        <v>-5.500251984691306E-2</v>
       </c>
       <c r="J348">
-        <v>0.19036074827224372</v>
+        <v>1.842482124056305E-2</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -11545,31 +11545,31 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.19999999999999998</v>
+        <v>1.9709693676431696E-7</v>
       </c>
       <c r="C349">
-        <v>-4.9176646706586833E-4</v>
+        <v>1.1775918247184507E-6</v>
       </c>
       <c r="D349">
-        <v>3.7159420289855071E-4</v>
+        <v>2.1056938560643484E-6</v>
       </c>
       <c r="E349">
-        <v>-0.21115618170528133</v>
+        <v>-0.31353631822922123</v>
       </c>
       <c r="F349">
-        <v>-9.8969047215701461E-2</v>
+        <v>2.437515281249844E-6</v>
       </c>
       <c r="G349">
-        <v>-0.14146729669236507</v>
+        <v>1.521887739572574E-6</v>
       </c>
       <c r="H349">
-        <v>-0.37308253135024788</v>
+        <v>-2.8017703795737717E-2</v>
       </c>
       <c r="I349">
-        <v>4.6706939737733901E-5</v>
+        <v>-5.6951035133152701E-2</v>
       </c>
       <c r="J349">
-        <v>0.19169953323443209</v>
+        <v>2.436517322076354E-2</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -11577,31 +11577,31 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1.4470408015608082E-7</v>
       </c>
       <c r="C350">
-        <v>-5.5239520958083827E-4</v>
+        <v>1.3746887614827678E-6</v>
       </c>
       <c r="D350">
-        <v>4.7826086956521735E-4</v>
+        <v>1.8861428378965017E-6</v>
       </c>
       <c r="E350">
-        <v>-0.50779416627017093</v>
+        <v>-0.26800692583666402</v>
       </c>
       <c r="F350">
-        <v>0.11004089930059775</v>
+        <v>1.7816066144734018E-2</v>
       </c>
       <c r="G350">
-        <v>9.1121611539418064E-6</v>
+        <v>-4.1115917947796756E-3</v>
       </c>
       <c r="H350">
-        <v>-0.37378244386118403</v>
+        <v>-2.8811081338662434E-2</v>
       </c>
       <c r="I350">
-        <v>-0.21762192426698099</v>
+        <v>-5.6798846359195444E-2</v>
       </c>
       <c r="J350">
-        <v>0.15236820204797916</v>
+        <v>2.8933331337414988E-2</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -11609,31 +11609,31 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.17183098591549295</v>
+        <v>2.3202550783647442E-7</v>
       </c>
       <c r="C351">
-        <v>-3.9970059880239521E-4</v>
+        <v>1.5892499837831634E-6</v>
       </c>
       <c r="D351">
-        <v>5.1942028985507249E-4</v>
+        <v>1.7015203908008125E-6</v>
       </c>
       <c r="E351">
-        <v>-0.23314220892505289</v>
+        <v>-0.22064877325868598</v>
       </c>
       <c r="F351">
-        <v>4.4287408339585201E-6</v>
+        <v>-2.4973928316592568E-2</v>
       </c>
       <c r="G351">
-        <v>1.8821188759015169E-2</v>
+        <v>2.3449545679086269E-2</v>
       </c>
       <c r="H351">
-        <v>-0.35030621172353454</v>
+        <v>-2.7987765020533011E-2</v>
       </c>
       <c r="I351">
-        <v>-0.3867688227493738</v>
+        <v>-5.7317785129410354E-2</v>
       </c>
       <c r="J351">
-        <v>0.1020371241451677</v>
+        <v>3.3379239455313882E-2</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -11641,31 +11641,31 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.19999999999999998</v>
+        <v>2.0957142643294464E-7</v>
       </c>
       <c r="C352">
-        <v>-3.5853293413173654E-4</v>
+        <v>1.7489234515415973E-6</v>
       </c>
       <c r="D352">
-        <v>5.1768115942028988E-4</v>
+        <v>1.6067142693192423E-6</v>
       </c>
       <c r="E352">
-        <v>-0.1931082312524697</v>
+        <v>-0.16354554935157603</v>
       </c>
       <c r="F352">
-        <v>-0.277691730597033</v>
+        <v>-1.3552285575997086E-2</v>
       </c>
       <c r="G352">
-        <v>-0.18640139268838599</v>
+        <v>3.9134968988418686E-2</v>
       </c>
       <c r="H352">
-        <v>-0.37734033245844267</v>
+        <v>-2.8414392567200075E-2</v>
       </c>
       <c r="I352">
-        <v>-0.55576838072786205</v>
+        <v>-5.734772390461506E-2</v>
       </c>
       <c r="J352">
-        <v>0.11661902521981402</v>
+        <v>3.7795208798008073E-2</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -11673,31 +11673,31 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6.1971830985915494E-2</v>
+        <v>3.7922448592628076E-7</v>
       </c>
       <c r="C353">
-        <v>-2.9041916167664672E-4</v>
+        <v>-2.0208673263176803E-7</v>
       </c>
       <c r="D353">
-        <v>5.3739130434782615E-4</v>
+        <v>2.4774336481894528E-6</v>
       </c>
       <c r="E353">
-        <v>-0.1911405369224938</v>
+        <v>-0.16704838605052666</v>
       </c>
       <c r="F353">
-        <v>-0.35450497325814961</v>
+        <v>-2.7561137473865942E-2</v>
       </c>
       <c r="G353">
-        <v>4.918179557324049E-2</v>
+        <v>-2.7418928291643588E-3</v>
       </c>
       <c r="H353">
-        <v>-0.37273257509477981</v>
+        <v>-2.0343397751597981E-2</v>
       </c>
       <c r="I353">
-        <v>-0.67629291292176219</v>
+        <v>-5.3173759661492251E-2</v>
       </c>
       <c r="J353">
-        <v>0.11926041176683431</v>
+        <v>3.1360867026929929E-3</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -11705,31 +11705,31 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7.3239436619718309E-2</v>
+        <v>3.3681122105294675E-7</v>
       </c>
       <c r="C354">
-        <v>-2.5823353293413174E-4</v>
+        <v>1.4470408015608082E-7</v>
       </c>
       <c r="D354">
-        <v>5.7275362318840578E-4</v>
+        <v>2.5098673213278843E-3</v>
       </c>
       <c r="E354">
-        <v>-0.24807195524839454</v>
+        <v>-0.18699509503066231</v>
       </c>
       <c r="F354">
-        <v>-0.13959003896323904</v>
+        <v>-2.984646398115853E-2</v>
       </c>
       <c r="G354">
-        <v>5.8890823178313852E-2</v>
+        <v>-2.2992979357214498E-2</v>
       </c>
       <c r="H354">
-        <v>-0.37664041994750658</v>
+        <v>-2.0617836524307792E-2</v>
       </c>
       <c r="I354">
-        <v>-0.77692647708855167</v>
+        <v>-5.6282402486914261E-2</v>
       </c>
       <c r="J354">
-        <v>0.14046387089770959</v>
+        <v>2.8317091547784782E-3</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -11737,31 +11737,31 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.10704225352112676</v>
+        <v>2.5946938510745526E-7</v>
       </c>
       <c r="C355">
-        <v>-1.4446107784431137E-4</v>
+        <v>2.1456122230039568E-7</v>
       </c>
       <c r="D355">
-        <v>0.5808695652173913</v>
+        <v>2.5373111985988652E-3</v>
       </c>
       <c r="E355">
-        <v>-0.25529221067232244</v>
+        <v>-0.13796286593915444</v>
       </c>
       <c r="F355">
-        <v>-6.5729290191428091E-2</v>
+        <v>-1.842482124056305E-2</v>
       </c>
       <c r="G355">
-        <v>1.2136284506341706E-6</v>
+        <v>-4.5681581166514482E-3</v>
       </c>
       <c r="H355">
-        <v>-0.40084572761738119</v>
+        <v>-2.1593341616394472E-2</v>
       </c>
       <c r="I355">
-        <v>-0.97480477383232655</v>
+        <v>-5.682878513440015E-2</v>
       </c>
       <c r="J355">
-        <v>0.14621702789738394</v>
+        <v>7.6144284937303217E-3</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -11769,31 +11769,31 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>5.0704225352112678E-2</v>
+        <v>3.2433673138431908E-7</v>
       </c>
       <c r="C356">
-        <v>-6.2874251497005995E-5</v>
+        <v>3.1685203758314249E-7</v>
       </c>
       <c r="D356">
-        <v>5.6927536231884057E-4</v>
+        <v>2.4300305874486675E-6</v>
       </c>
       <c r="E356">
-        <v>-0.3424110706999024</v>
+        <v>-0.180144105304652</v>
       </c>
       <c r="F356">
-        <v>4.2097238692190411E-2</v>
+        <v>6.5491070760295197E-3</v>
       </c>
       <c r="G356">
-        <v>5.5856752051728423E-2</v>
+        <v>-1.507417331556966E-2</v>
       </c>
       <c r="H356">
-        <v>-0.41151939340915716</v>
+        <v>-2.1378780394094077E-2</v>
       </c>
       <c r="I356">
-        <v>-1.1457197583615737</v>
+        <v>-5.850535654586371E-2</v>
       </c>
       <c r="J356">
-        <v>9.1001194051452766E-2</v>
+        <v>8.0410560403973881E-3</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -11801,31 +11801,31 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-5.6338028169014088E-3</v>
+        <v>2.9190305824588719E-7</v>
       </c>
       <c r="C357">
-        <v>-2.5449101796407187E-5</v>
+        <v>4.565663218717722E-7</v>
       </c>
       <c r="D357">
-        <v>0.62782608695652176</v>
+        <v>2.4524846688521974E-6</v>
       </c>
       <c r="E357">
-        <v>-0.2907295253609456</v>
+        <v>-0.23846483940342</v>
       </c>
       <c r="F357">
-        <v>4.6525979526148932E-2</v>
+        <v>-2.7713326247823203E-2</v>
       </c>
       <c r="G357">
-        <v>-2.0034817209649339E-2</v>
+        <v>-2.1306428354016038E-6</v>
       </c>
       <c r="H357">
-        <v>-0.39585885097696122</v>
+        <v>-2.1775469165556439E-2</v>
       </c>
       <c r="I357">
-        <v>-1.2500368351259761</v>
+        <v>-5.9478366740016664E-2</v>
       </c>
       <c r="J357">
-        <v>0.11661902521981402</v>
+        <v>1.4161040671826115E-2</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -11833,31 +11833,31 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>5.9154929577464793E-2</v>
+        <v>3.0437754791451482E-7</v>
       </c>
       <c r="C358">
-        <v>3.5928143712574853E-5</v>
+        <v>6.4617856483491266E-7</v>
       </c>
       <c r="D358">
-        <v>0.60463768115942029</v>
+        <v>2.3377193639008231E-6</v>
       </c>
       <c r="E358">
-        <v>-9.0728987739543937E-2</v>
+        <v>-0.26176219630854902</v>
       </c>
       <c r="F358">
-        <v>-0.17281769560272017</v>
+        <v>-6.2280137119590441E-2</v>
       </c>
       <c r="G358">
-        <v>8.4953991544391943E-6</v>
+        <v>1.6141989631204189E-2</v>
       </c>
       <c r="H358">
-        <v>-0.39480898221055699</v>
+        <v>-2.3025413030352927E-2</v>
       </c>
       <c r="I358">
-        <v>-1.3615735965817004</v>
+        <v>-6.1611504473351994E-2</v>
       </c>
       <c r="J358">
-        <v>0.12410898433259761</v>
+        <v>2.1987535489923108E-2</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -11865,31 +11865,31 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.4084507042253521E-2</v>
+        <v>2.170561202341212E-7</v>
       </c>
       <c r="C359">
-        <v>6.6616766467065869E-5</v>
+        <v>1.0902703970380572E-6</v>
       </c>
       <c r="D359">
-        <v>0.59768115942028988</v>
+        <v>2.3427091597682736E-6</v>
       </c>
       <c r="E359">
-        <v>-1.0007822391393757E-2</v>
+        <v>-0.23191822722532421</v>
       </c>
       <c r="F359">
-        <v>-4.2835362164516833E-2</v>
+        <v>-2.7256759925951429E-2</v>
       </c>
       <c r="G359">
-        <v>-2.4272569012683412E-6</v>
+        <v>8.6797499114311238E-3</v>
       </c>
       <c r="H359">
-        <v>-0.4047535724701079</v>
+        <v>-2.3145168131171755E-2</v>
       </c>
       <c r="I359">
-        <v>-1.3435980551053484</v>
+        <v>-6.4625341177292434E-2</v>
       </c>
       <c r="J359">
-        <v>0.10381010963563339</v>
+        <v>2.8718770115114589E-2</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -11897,31 +11897,31 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1.6216836569215954E-7</v>
       </c>
       <c r="C360">
-        <v>8.4580838323353302E-5</v>
+        <v>1.2773877420674722E-6</v>
       </c>
       <c r="D360">
-        <v>0.57971014492753625</v>
+        <v>2.1056938560643484E-6</v>
       </c>
       <c r="E360">
-        <v>-6.4151673749828636E-2</v>
+        <v>-0.16658932483072117</v>
       </c>
       <c r="F360">
-        <v>-7.6075119188790202E-2</v>
+        <v>2.4060795672849022E-2</v>
       </c>
       <c r="G360">
-        <v>4.1283262869932849E-2</v>
+        <v>3.8069647570717881E-2</v>
       </c>
       <c r="H360">
-        <v>-0.41971420239136775</v>
+        <v>-2.369404567659137E-2</v>
       </c>
       <c r="I360">
-        <v>-1.3795491380580522</v>
+        <v>-6.1489254474599443E-2</v>
       </c>
       <c r="J360">
-        <v>0.12986214133227195</v>
+        <v>3.0455219076987561E-2</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -11929,31 +11929,31 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-1.1267605633802818E-2</v>
+        <v>1.3222959048745315E-7</v>
       </c>
       <c r="C361">
-        <v>1.1152694610778443E-4</v>
+        <v>1.2374693751278634E-6</v>
       </c>
       <c r="D361">
-        <v>0.58782608695652172</v>
+        <v>2.0383316118537588E-6</v>
       </c>
       <c r="E361">
-        <v>-0.18720246015553388</v>
+        <v>-0.15060201887140798</v>
       </c>
       <c r="F361">
-        <v>8.8574816679170402E-6</v>
+        <v>3.0607407850944818E-2</v>
       </c>
       <c r="G361">
-        <v>-1.0325789604575976E-2</v>
+        <v>2.7256759925951429E-2</v>
       </c>
       <c r="H361">
-        <v>-0.42006415864683583</v>
+        <v>-2.3938545674096472E-2</v>
       </c>
       <c r="I361">
-        <v>-1.4459997053189921</v>
+        <v>-6.1793632022513957E-2</v>
       </c>
       <c r="J361">
-        <v>0.13955928646379853</v>
+        <v>3.1490601719483653E-2</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -11961,31 +11961,31 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-8.4507042253521125E-2</v>
+        <v>3.2184183345059353E-7</v>
       </c>
       <c r="C362">
-        <v>1.841317365269461E-4</v>
+        <v>-3.4429591485412333E-7</v>
       </c>
       <c r="D362">
-        <v>5.6173913043478256E-4</v>
+        <v>2.4948979337255312E-3</v>
       </c>
       <c r="E362">
-        <v>-0.1542247633793806</v>
+        <v>-3.1984591510361309E-3</v>
       </c>
       <c r="F362">
-        <v>-1.1083952469688537E-5</v>
+        <v>1.4008851897868858E-2</v>
       </c>
       <c r="G362">
-        <v>5.3429495150460082E-2</v>
+        <v>-1.3400096802039829E-2</v>
       </c>
       <c r="H362">
-        <v>-0.39871682706328376</v>
+        <v>-2.1745530390351729E-2</v>
       </c>
       <c r="I362">
-        <v>-1.573743922204214</v>
+        <v>-4.90646627646463E-2</v>
       </c>
       <c r="J362">
-        <v>0.12765495531352897</v>
+        <v>-3.0138367039404417E-3</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -11993,31 +11993,31 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>1.4084507042253521E-2</v>
+        <v>3.5677040452275096E-7</v>
       </c>
       <c r="C363">
-        <v>1.841317365269461E-4</v>
+        <v>-3.3182142518549566E-7</v>
       </c>
       <c r="D363">
-        <v>0.5872463768115942</v>
+        <v>2.5323214027314143E-3</v>
       </c>
       <c r="E363">
-        <v>-0.23478195420003278</v>
+        <v>-8.9841274593456377E-3</v>
       </c>
       <c r="F363">
-        <v>0.12333922218726555</v>
+        <v>1.7968254918691275E-2</v>
       </c>
       <c r="G363">
-        <v>-6.1934842079084805E-2</v>
+        <v>-1.4465418219740631E-2</v>
       </c>
       <c r="H363">
-        <v>-0.4093904928550598</v>
+        <v>-2.1441152842437215E-2</v>
       </c>
       <c r="I363">
-        <v>-1.6780609989686164</v>
+        <v>-4.842347399567884E-2</v>
       </c>
       <c r="J363">
-        <v>0.16828888808481385</v>
+        <v>1.521887739572574E-6</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -12025,31 +12025,31 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8.4507042253521136E-3</v>
+        <v>3.4429591485412333E-7</v>
       </c>
       <c r="C364">
-        <v>2.7994011976047905E-4</v>
+        <v>-3.1685203758314249E-7</v>
       </c>
       <c r="D364">
-        <v>5.1362318840579709E-4</v>
+        <v>2.4599693626533739E-6</v>
       </c>
       <c r="E364">
-        <v>-0.10090347276544384</v>
+        <v>-4.3398749557155614E-2</v>
       </c>
       <c r="F364">
-        <v>5.1692843832433874E-2</v>
+        <v>-1.3704474349954343E-2</v>
       </c>
       <c r="G364">
-        <v>2.0034817209649339E-2</v>
+        <v>-1.7968254918691275E-2</v>
       </c>
       <c r="H364">
-        <v>-0.38731408573928261</v>
+        <v>-2.2476535484933311E-2</v>
       </c>
       <c r="I364">
-        <v>-1.7770738175924561</v>
+        <v>-5.089092805213339E-2</v>
       </c>
       <c r="J364">
-        <v>0.16828888808481385</v>
+        <v>-1.3696989656153169E-6</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -12057,31 +12057,31 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>5.9154929577464793E-2</v>
+        <v>3.3182142518549566E-7</v>
       </c>
       <c r="C365">
-        <v>2.7769461077844311E-4</v>
+        <v>-2.2703571196902335E-7</v>
       </c>
       <c r="D365">
-        <v>5.6927536231884057E-4</v>
+        <v>2.5098673213278843E-3</v>
       </c>
       <c r="E365">
-        <v>-0.23248631081506094</v>
+        <v>-5.5276958619622868E-2</v>
       </c>
       <c r="F365">
-        <v>0.21860555165654269</v>
+        <v>7.0056733979012922E-3</v>
       </c>
       <c r="G365">
-        <v>-0.11839840835613032</v>
+        <v>-1.705512227494773E-2</v>
       </c>
       <c r="H365">
-        <v>-0.40297462817147855</v>
+        <v>-2.1166714069727408E-2</v>
       </c>
       <c r="I365">
-        <v>-1.8417562988065419</v>
+        <v>-5.253506579045851E-2</v>
       </c>
       <c r="J365">
-        <v>0.17447624561276551</v>
+        <v>-8.5325509333413173E-7</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -12089,31 +12089,31 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>3.3802816901408454E-2</v>
+        <v>3.4679081278784888E-7</v>
       </c>
       <c r="C366">
-        <v>3.9221556886227544E-4</v>
+        <v>-2.9689285411333823E-7</v>
       </c>
       <c r="D366">
-        <v>4.7884057971014492E-4</v>
+        <v>2.5173520151290612E-3</v>
       </c>
       <c r="E366">
-        <v>-0.19376681746946983</v>
+        <v>-9.2278789874706224E-2</v>
       </c>
       <c r="F366">
-        <v>0.18242540112775588</v>
+        <v>2.437515281249844E-6</v>
       </c>
       <c r="G366">
-        <v>-2.4272569012683412E-6</v>
+        <v>-1.1726020288509997E-2</v>
       </c>
       <c r="H366">
-        <v>-0.40370370370370373</v>
+        <v>-2.1683157942008591E-2</v>
       </c>
       <c r="I366">
-        <v>-2.0593782230735229</v>
+        <v>-5.2352938241296547E-2</v>
       </c>
       <c r="J366">
-        <v>0.18771936172522344</v>
+        <v>1.309821415205904E-6</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -12121,31 +12121,31 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.24507042253521127</v>
+        <v>3.4429591485412333E-7</v>
       </c>
       <c r="C367">
-        <v>3.6676646706586827E-4</v>
+        <v>-1.0977550908392337E-7</v>
       </c>
       <c r="D367">
-        <v>5.2927536231884057E-4</v>
+        <v>2.4973928316592568E-3</v>
       </c>
       <c r="E367">
-        <v>-0.24396990395393661</v>
+        <v>-0.15303703925472409</v>
       </c>
       <c r="F367">
-        <v>0.11891048135330703</v>
+        <v>-2.8324576241585957E-2</v>
       </c>
       <c r="G367">
-        <v>-0.16028848545138025</v>
+        <v>-1.507417331556966E-2</v>
       </c>
       <c r="H367">
-        <v>-0.39337999416739572</v>
+        <v>-2.1104341621384269E-2</v>
       </c>
       <c r="I367">
-        <v>-2.2770001473405039</v>
+        <v>-5.4363825975879326E-2</v>
       </c>
       <c r="J367">
-        <v>0.20360386438470165</v>
+        <v>1.9784540614443466E-6</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -12153,31 +12153,31 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.11549295774647889</v>
+        <v>2.5447958924000417E-7</v>
       </c>
       <c r="C368">
-        <v>4.6706586826347307E-4</v>
+        <v>3.492857107215744E-8</v>
       </c>
       <c r="D368">
-        <v>4.2086956521739127E-4</v>
+        <v>2.4973928316592568E-3</v>
       </c>
       <c r="E368">
-        <v>-0.16915450970272225</v>
+        <v>-0.14039788632247055</v>
       </c>
       <c r="F368">
-        <v>0.15656687882674669</v>
+        <v>-1.7816066144734018E-2</v>
       </c>
       <c r="G368">
-        <v>-3.4001492166127828E-2</v>
+        <v>-9.5928825551746671E-3</v>
       </c>
       <c r="H368">
-        <v>-0.39337999416739572</v>
+        <v>-2.0799964073469755E-2</v>
       </c>
       <c r="I368">
-        <v>-2.3525858258435246</v>
+        <v>-5.637221881252838E-2</v>
       </c>
       <c r="J368">
-        <v>0.15946014400984188</v>
+        <v>7.1878009470632553E-3</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -12185,31 +12185,31 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.28450704225352114</v>
+        <v>1.3971428428862976E-7</v>
       </c>
       <c r="C369">
-        <v>4.1541916167664672E-4</v>
+        <v>5.7382652475687218E-8</v>
       </c>
       <c r="D369">
-        <v>4.7478260869565213E-4</v>
+        <v>2.5472907903337674E-3</v>
       </c>
       <c r="E369">
-        <v>-0.1173089898362674</v>
+        <v>-0.16491524831719134</v>
       </c>
       <c r="F369">
-        <v>0.12776796302122406</v>
+        <v>-2.2536413035342723E-2</v>
       </c>
       <c r="G369">
-        <v>-6.3755284755036057E-2</v>
+        <v>-7.6144284937303217E-3</v>
       </c>
       <c r="H369">
-        <v>-0.38944298629337998</v>
+        <v>-2.2261974262632916E-2</v>
       </c>
       <c r="I369">
-        <v>-2.4946220716074849</v>
+        <v>-5.6951035133152701E-2</v>
       </c>
       <c r="J369">
-        <v>0.17577884719759743</v>
+        <v>9.562943779969961E-3</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -12217,31 +12217,31 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.23098591549295777</v>
+        <v>3.8920407766118289E-7</v>
       </c>
       <c r="C370">
-        <v>4.296407185628742E-4</v>
+        <v>5.2143366814863601E-7</v>
       </c>
       <c r="D370">
-        <v>4.6550724637681163E-4</v>
+        <v>2.4150611998463142E-6</v>
       </c>
       <c r="E370">
-        <v>0.37637530274805181</v>
+        <v>-0.24958210459610097</v>
       </c>
       <c r="F370">
-        <v>-5.9049877786113593E-6</v>
+        <v>-3.2588356810322891E-2</v>
       </c>
       <c r="G370">
-        <v>8.9858244217856251E-2</v>
+        <v>-1.3247908028082572E-2</v>
       </c>
       <c r="H370">
-        <v>-0.37095363079615046</v>
+        <v>-2.2294407935771348E-2</v>
       </c>
       <c r="I370">
-        <v>-2.3418299690584941</v>
+        <v>-5.9967366735026867E-2</v>
       </c>
       <c r="J370">
-        <v>0.16387451604732786</v>
+        <v>1.4892045766407696E-2</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -12249,31 +12249,31 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.10140845070422536</v>
+        <v>2.6944897684235739E-7</v>
       </c>
       <c r="C371">
-        <v>-3.652694610778443E-4</v>
+        <v>1.0104336631588402E-6</v>
       </c>
       <c r="D371">
-        <v>4.2840579710144927E-4</v>
+        <v>2.2828316093588614E-6</v>
       </c>
       <c r="E371">
-        <v>-0.1499587375574247</v>
+        <v>-0.25719403819189757</v>
       </c>
       <c r="F371">
-        <v>-0.19940224099126352</v>
+        <v>-4.7205963804020777E-2</v>
       </c>
       <c r="G371">
-        <v>8.3790101964685407E-2</v>
+        <v>7.0056733979012922E-3</v>
       </c>
       <c r="H371">
-        <v>-0.37451151939340915</v>
+        <v>-2.2324346710976054E-2</v>
       </c>
       <c r="I371">
-        <v>-0.66730514218358628</v>
+        <v>-6.261694834064338E-2</v>
       </c>
       <c r="J371">
-        <v>0.10026413865470203</v>
+        <v>2.8963270112619694E-2</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -12281,31 +12281,31 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.12394366197183099</v>
+        <v>1.1726020288509997E-7</v>
       </c>
       <c r="C372">
-        <v>-2.9191616766467064E-4</v>
+        <v>1.2224999875255103E-6</v>
       </c>
       <c r="D372">
-        <v>5.3391304347826093E-4</v>
+        <v>2.1905203858110164E-6</v>
       </c>
       <c r="E372">
-        <v>-0.40016504977030126</v>
+        <v>-0.14024569754851329</v>
       </c>
       <c r="F372">
-        <v>2.9537039277849036E-2</v>
+        <v>-1.004944887704644E-2</v>
       </c>
       <c r="G372">
-        <v>0.23983088783884607</v>
+        <v>1.7968254918691275E-2</v>
       </c>
       <c r="H372">
-        <v>-0.37664041994750658</v>
+        <v>-2.2840790583257237E-2</v>
       </c>
       <c r="I372">
-        <v>-0.80757330190069254</v>
+        <v>-6.3864397307506149E-2</v>
       </c>
       <c r="J372">
-        <v>9.1869595108007379E-2</v>
+        <v>3.2009540489698569E-2</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -12313,31 +12313,31 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2394366197183099</v>
+        <v>5.987755040941275E-8</v>
       </c>
       <c r="C373">
-        <v>-1.504491017964072E-4</v>
+        <v>1.2224999875255103E-6</v>
       </c>
       <c r="D373">
-        <v>0.58898550724637677</v>
+        <v>2.0882295705282695E-6</v>
       </c>
       <c r="E373">
-        <v>-0.46037864675316997</v>
+        <v>-0.16248022793387523</v>
       </c>
       <c r="F373">
-        <v>0.11004089930059775</v>
+        <v>-1.0353826424960955E-2</v>
       </c>
       <c r="G373">
-        <v>0.19125590649092267</v>
+        <v>-5.0247244385232199E-3</v>
       </c>
       <c r="H373">
-        <v>-0.38305628463108776</v>
+        <v>-2.268860180929998E-2</v>
       </c>
       <c r="I373">
-        <v>-1.0107558567850301</v>
+        <v>-6.5051968723959505E-2</v>
       </c>
       <c r="J373">
-        <v>0.11571444078590296</v>
+        <v>3.280042313468956E-2</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -12345,31 +12345,31 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.28169014084507044</v>
+        <v>1.2474489668627657E-7</v>
       </c>
       <c r="C374">
-        <v>-8.158682634730539E-5</v>
+        <v>1.3672040676815912E-6</v>
       </c>
       <c r="D374">
-        <v>0.58028985507246378</v>
+        <v>2.0433214077212098E-6</v>
       </c>
       <c r="E374">
-        <v>-0.42329889868255877</v>
+        <v>-0.19993862551083036</v>
       </c>
       <c r="F374">
-        <v>0.13663754507393336</v>
+        <v>-1.9337953884306595E-2</v>
       </c>
       <c r="G374">
-        <v>0.22647102710768466</v>
+        <v>1.0201637651003697E-2</v>
       </c>
       <c r="H374">
-        <v>-0.37556138815981338</v>
+        <v>-2.3115229355967049E-2</v>
       </c>
       <c r="I374">
-        <v>-1.0970973920730809</v>
+        <v>-6.3804519757096737E-2</v>
       </c>
       <c r="J374">
-        <v>7.4212106958063462E-2</v>
+        <v>4.041485162841988E-2</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
@@ -12377,31 +12377,31 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.22816901408450707</v>
+        <v>1.7214795742706167E-7</v>
       </c>
       <c r="C375">
-        <v>8.0838323353293415E-5</v>
+        <v>1.6017244734517911E-6</v>
       </c>
       <c r="D375">
-        <v>0.61159420289855071</v>
+        <v>1.916081613101208E-6</v>
       </c>
       <c r="E375">
-        <v>-0.361278893790204</v>
+        <v>-0.12288619772565104</v>
       </c>
       <c r="F375">
-        <v>9.6754676798722197E-2</v>
+        <v>-1.6141989631204189E-2</v>
       </c>
       <c r="G375">
-        <v>0.14268092514299927</v>
+        <v>2.223203548742821E-2</v>
       </c>
       <c r="H375">
-        <v>-0.37343248760571596</v>
+        <v>-2.4547300769925503E-2</v>
       </c>
       <c r="I375">
-        <v>-1.3129512302932076</v>
+        <v>-6.383445853230145E-2</v>
       </c>
       <c r="J375">
-        <v>0.11086586822013966</v>
+        <v>4.2363366914659521E-2</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -12409,31 +12409,31 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.23380281690140847</v>
+        <v>1.2723979462000208E-7</v>
       </c>
       <c r="C376">
-        <v>1.9311377245508982E-4</v>
+        <v>1.6591071259274785E-6</v>
       </c>
       <c r="D376">
-        <v>5.3275362318840579E-4</v>
+        <v>1.836244879221991E-6</v>
       </c>
       <c r="E376">
-        <v>-0.23396208156254283</v>
+        <v>-0.15090639641932249</v>
       </c>
       <c r="F376">
-        <v>8.1193581955906198E-6</v>
+        <v>-2.1318902843684664E-2</v>
       </c>
       <c r="G376">
-        <v>8.8644615767222087E-2</v>
+        <v>5.7856683083095072E-3</v>
       </c>
       <c r="H376">
-        <v>-0.38804316127150773</v>
+        <v>-2.3786356900139215E-2</v>
       </c>
       <c r="I376">
-        <v>-1.5899513776337115</v>
+        <v>-6.2160382018771609E-2</v>
       </c>
       <c r="J376">
-        <v>6.5817563411368823E-2</v>
+        <v>4.5317326068190548E-2</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -12441,31 +12441,31 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.26478873239436623</v>
+        <v>-4.9897958674510631E-9</v>
       </c>
       <c r="C377">
-        <v>2.3802395209580838E-4</v>
+        <v>1.7339540639392441E-6</v>
       </c>
       <c r="D377">
-        <v>0.59014492753623193</v>
+        <v>1.6840561052647338E-6</v>
       </c>
       <c r="E377">
-        <v>-0.45545672282122207</v>
+        <v>-0.24379394138985774</v>
       </c>
       <c r="F377">
-        <v>-0.10339778804965997</v>
+        <v>-1.6902933500990473E-2</v>
       </c>
       <c r="G377">
-        <v>0.11536433722954489</v>
+        <v>1.1269453966638225E-2</v>
       </c>
       <c r="H377">
-        <v>-0.40014581510644504</v>
+        <v>-2.3816295675343921E-2</v>
       </c>
       <c r="I377">
-        <v>-1.7554147635184911</v>
+        <v>-6.1032688152727672E-2</v>
       </c>
       <c r="J377">
-        <v>0.12675037087961791</v>
+        <v>4.9551167861722777E-2</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -12473,31 +12473,31 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.21971830985915494</v>
+        <v>-1.4969387602353188E-8</v>
       </c>
       <c r="C378">
-        <v>3.2410179640718562E-4</v>
+        <v>1.9460203883059143E-6</v>
       </c>
       <c r="D378">
-        <v>0.6376811594202898</v>
+        <v>1.5717856982470847E-6</v>
       </c>
       <c r="E378">
-        <v>-7.9245394600668262E-2</v>
+        <v>-0.24211986487632792</v>
       </c>
       <c r="F378">
-        <v>-5.0954720360107453E-2</v>
+        <v>6.7012958499867766E-3</v>
       </c>
       <c r="G378">
-        <v>0.13600596866451131</v>
+        <v>3.3805867001980947E-2</v>
       </c>
       <c r="H378">
-        <v>-0.39798775153105864</v>
+        <v>-2.3085290580762342E-2</v>
       </c>
       <c r="I378">
-        <v>-1.8220126712833358</v>
+        <v>-5.8779795318573518E-2</v>
       </c>
       <c r="J378">
-        <v>0.11220465318232804</v>
+        <v>5.2931754561920868E-2</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -12505,31 +12505,31 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.23098591549295777</v>
+        <v>3.7423469005882966E-8</v>
       </c>
       <c r="C379">
-        <v>2.9116766467065868E-4</v>
+        <v>2.1580867126725846E-6</v>
       </c>
       <c r="D379">
-        <v>5.7217391304347821E-4</v>
+        <v>1.2125203957906081E-6</v>
       </c>
       <c r="E379">
-        <v>-5.2665392503944794E-2</v>
+        <v>-0.23876921695133452</v>
       </c>
       <c r="F379">
-        <v>1.9203310665279156E-2</v>
+        <v>-2.0557958973898376E-2</v>
       </c>
       <c r="G379">
-        <v>-6.3755284755036057E-2</v>
+        <v>7.7666172676875787E-3</v>
       </c>
       <c r="H379">
-        <v>-0.42362204724409447</v>
+        <v>-2.4150611998463144E-2</v>
       </c>
       <c r="I379">
-        <v>-1.8525121555915722</v>
+        <v>-5.5154708620870317E-2</v>
       </c>
       <c r="J379">
-        <v>0.11614864131418026</v>
+        <v>5.9662989187112353E-2</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -12537,31 +12537,31 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.14647887323943662</v>
+        <v>2.7693367064353397E-7</v>
       </c>
       <c r="C380">
-        <v>-0.83607784431137722</v>
+        <v>-2.2454081403529781E-8</v>
       </c>
       <c r="D380">
-        <v>-2.4927536231884055E-5</v>
+        <v>2.4849183419906292E-6</v>
       </c>
       <c r="E380">
-        <v>-0.53470211742189033</v>
+        <v>-0.44906416378505953</v>
       </c>
       <c r="F380">
-        <v>1.5512693303647056E-2</v>
+        <v>-7.6291483915393019E-2</v>
       </c>
       <c r="G380">
-        <v>0.24347177319074856</v>
+        <v>-9.2885050072601533E-3</v>
       </c>
       <c r="H380">
-        <v>-0.39125109361329835</v>
+        <v>-2.5338183414916497E-2</v>
       </c>
       <c r="I380">
-        <v>0.48018270222484161</v>
+        <v>-5.0950805602542802E-2</v>
       </c>
       <c r="J380">
-        <v>0.40590512718457139</v>
+        <v>3.2283979262408375E-3</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -12569,31 +12569,31 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>3.3802816901408454E-2</v>
+        <v>1.5717856982470847E-7</v>
       </c>
       <c r="C381">
-        <v>-5.7185628742514969E-4</v>
+        <v>3.5178060865529987E-7</v>
       </c>
       <c r="D381">
-        <v>2.1391304347826088E-4</v>
+        <v>2.4574744647196484E-6</v>
       </c>
       <c r="E381">
-        <v>-1.0105024340808959</v>
+        <v>-0.40627416932373295</v>
       </c>
       <c r="F381">
-        <v>1.0333728612569879E-5</v>
+        <v>-8.61887440184822E-2</v>
       </c>
       <c r="G381">
-        <v>0.46872917184779905</v>
+        <v>-6.2422346301812797E-3</v>
       </c>
       <c r="H381">
-        <v>-0.39160104986876643</v>
+        <v>-2.4881617093044723E-2</v>
       </c>
       <c r="I381">
-        <v>0.52703698246648001</v>
+        <v>-5.603790248940916E-2</v>
       </c>
       <c r="J381">
-        <v>0.29594384339834279</v>
+        <v>1.190814783767196E-2</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -12601,31 +12601,31 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.3267605633802817</v>
+        <v>1.2723979462000208E-7</v>
       </c>
       <c r="C382">
-        <v>-6.3473053892215572E-4</v>
+        <v>9.9047447968903605E-7</v>
       </c>
       <c r="D382">
-        <v>4.0811594202898549E-4</v>
+        <v>2.4749387502557268E-6</v>
       </c>
       <c r="E382">
-        <v>-0.67908303293737515</v>
+        <v>-0.3883059144050417</v>
       </c>
       <c r="F382">
-        <v>8.3456353912054401E-2</v>
+        <v>-6.9133621743534476E-2</v>
       </c>
       <c r="G382">
-        <v>0.31998010445162894</v>
+        <v>-2.0710147747855637E-2</v>
       </c>
       <c r="H382">
-        <v>-0.37521143190434531</v>
+        <v>-2.5582683412421599E-2</v>
       </c>
       <c r="I382">
-        <v>0.3615735965817003</v>
+        <v>-5.9084172866488031E-2</v>
       </c>
       <c r="J382">
-        <v>0.21290299236530738</v>
+        <v>2.2079846713470953E-2</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -12633,31 +12633,31 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.41126760563380282</v>
+        <v>8.2331631812942542E-8</v>
       </c>
       <c r="C383">
-        <v>-4.3937125748502991E-4</v>
+        <v>1.1376734577788422E-6</v>
       </c>
       <c r="D383">
-        <v>4.8927536231884057E-4</v>
+        <v>2.2503979362204291E-6</v>
       </c>
       <c r="E383">
-        <v>-0.58293750957638124</v>
+        <v>-0.28414891546786819</v>
       </c>
       <c r="F383">
-        <v>9.1575712107645021E-2</v>
+        <v>-5.8016356550853507E-2</v>
       </c>
       <c r="G383">
-        <v>8.1969659288734148E-2</v>
+        <v>1.4465418219740631E-2</v>
       </c>
       <c r="H383">
-        <v>-0.36844561096529599</v>
+        <v>-2.552031096407846E-2</v>
       </c>
       <c r="I383">
-        <v>-5.4515986444673642E-6</v>
+        <v>-6.0423933056898645E-2</v>
       </c>
       <c r="J383">
-        <v>6.491297897745775E-2</v>
+        <v>3.0243152752620892E-2</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -12665,31 +12665,31 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.20281690140845071</v>
+        <v>5.4887754541961686E-8</v>
       </c>
       <c r="C384">
-        <v>-3.7799401197604791E-4</v>
+        <v>1.2599234565313933E-6</v>
       </c>
       <c r="D384">
-        <v>5.2463768115942032E-4</v>
+        <v>2.0882295705282695E-6</v>
       </c>
       <c r="E384">
-        <v>-0.36669542941165401</v>
+        <v>-0.21760250288160712</v>
       </c>
       <c r="F384">
-        <v>-0.12481546913191839</v>
+        <v>-2.786551502178046E-2</v>
       </c>
       <c r="G384">
-        <v>-0.10685899030092016</v>
+        <v>1.2486964158296284E-2</v>
       </c>
       <c r="H384">
-        <v>-0.39160104986876643</v>
+        <v>-2.716694360033731E-2</v>
       </c>
       <c r="I384">
-        <v>-0.29674377486371001</v>
+        <v>-5.9114111641692738E-2</v>
       </c>
       <c r="J384">
-        <v>4.6821290299236533E-2</v>
+        <v>3.2343856812817789E-2</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -12697,31 +12697,31 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.3436619718309859</v>
+        <v>0</v>
       </c>
       <c r="C385">
-        <v>-2.3952095808383233E-4</v>
+        <v>1.404627536687474E-6</v>
       </c>
       <c r="D385">
-        <v>4.9739130434782604E-4</v>
+        <v>1.9435254903721889E-6</v>
       </c>
       <c r="E385">
-        <v>-0.29237195874293365</v>
+        <v>-0.31856353756567818</v>
       </c>
       <c r="F385">
-        <v>-0.22821325718157837</v>
+        <v>-4.492063729672819E-2</v>
       </c>
       <c r="G385">
-        <v>-8.3183287739368311E-2</v>
+        <v>-8.5275611374738651E-3</v>
       </c>
       <c r="H385">
-        <v>-0.40262467191601048</v>
+        <v>-2.7987765020533011E-2</v>
       </c>
       <c r="I385">
-        <v>-0.57728009429792249</v>
+        <v>-5.8565234096273122E-2</v>
       </c>
       <c r="J385">
-        <v>0.11614864131418026</v>
+        <v>4.041485162841988E-2</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -12729,31 +12729,31 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.26478873239436623</v>
+        <v>-2.2454081403529781E-8</v>
       </c>
       <c r="C386">
-        <v>-1.3547904191616765E-4</v>
+        <v>1.7364489618729696E-6</v>
       </c>
       <c r="D386">
-        <v>5.5304347826086952E-4</v>
+        <v>1.6017244734517911E-6</v>
       </c>
       <c r="E386">
-        <v>-0.3258415791015809</v>
+        <v>-0.33028706295625448</v>
       </c>
       <c r="F386">
-        <v>-5.0954720360107453E-2</v>
+        <v>-3.5936509837382551E-2</v>
       </c>
       <c r="G386">
-        <v>4.3720467545386721E-2</v>
+        <v>2.6648004830122401E-2</v>
       </c>
       <c r="H386">
-        <v>-0.39372995042286379</v>
+        <v>-2.6892504827627502E-2</v>
       </c>
       <c r="I386">
-        <v>-0.72845145130396349</v>
+        <v>-5.7255412681067215E-2</v>
       </c>
       <c r="J386">
-        <v>9.7622752107681732E-2</v>
+        <v>4.5499453617352512E-2</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -12761,31 +12761,31 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.27042253521126763</v>
+        <v>-1.1726020288509997E-7</v>
       </c>
       <c r="C387">
-        <v>-6.362275449101797E-5</v>
+        <v>1.9011122254988548E-6</v>
       </c>
       <c r="D387">
-        <v>0.6156521739130435</v>
+        <v>1.5418469230423784E-6</v>
       </c>
       <c r="E387">
-        <v>-0.39475120225585941</v>
+        <v>-0.19658797758583696</v>
       </c>
       <c r="F387">
-        <v>-0.20015246484838217</v>
+        <v>-3.2740545584280148E-2</v>
       </c>
       <c r="G387">
-        <v>-5.5856752051728423E-2</v>
+        <v>2.4212984446806283E-2</v>
       </c>
       <c r="H387">
-        <v>-0.41116943715368914</v>
+        <v>-2.7256759925951429E-2</v>
       </c>
       <c r="I387">
-        <v>-1.0179755414763518</v>
+        <v>-5.2839443338373024E-2</v>
       </c>
       <c r="J387">
-        <v>5.3442848355465498E-2</v>
+        <v>5.0252234181099649E-2</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -12793,31 +12793,31 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>8.4507042253521125E-2</v>
+        <v>-1.0229081528274679E-7</v>
       </c>
       <c r="C388">
-        <v>5.239520958083833E-5</v>
+        <v>2.0483112035886612E-6</v>
       </c>
       <c r="D388">
-        <v>5.3681159420289858E-4</v>
+        <v>1.3198010069408062E-6</v>
       </c>
       <c r="E388">
-        <v>-0.26973003341317009</v>
+        <v>-0.19156325314731373</v>
       </c>
       <c r="F388">
-        <v>-0.11004089930059775</v>
+        <v>-1.0353826424960955E-2</v>
       </c>
       <c r="G388">
-        <v>1.0325789604575976E-2</v>
+        <v>-3.6550254729079035E-3</v>
       </c>
       <c r="H388">
-        <v>-0.38553514144065326</v>
+        <v>-2.8384453791995369E-2</v>
       </c>
       <c r="I388">
-        <v>-1.1799027552674231</v>
+        <v>-5.2931754561920868E-2</v>
       </c>
       <c r="J388">
-        <v>0.14574664399175019</v>
+        <v>5.4910208623365216E-2</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -12825,31 +12825,31 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>3.3802816901408454E-2</v>
+        <v>4.1415305699843824E-7</v>
       </c>
       <c r="C389">
-        <v>-7.3053892215568859E-4</v>
+        <v>-6.1374489169648072E-7</v>
       </c>
       <c r="D389">
-        <v>2.4927536231884055E-5</v>
+        <v>2.5123622192616099E-3</v>
       </c>
       <c r="E389">
-        <v>-1.0007822391393757E-2</v>
+        <v>-3.9287157762375943E-2</v>
       </c>
       <c r="F389">
-        <v>-2.8060792333196194E-2</v>
+        <v>2.2840790583257237E-2</v>
       </c>
       <c r="G389">
-        <v>-5.3429495150460082E-2</v>
+        <v>-1.0965076418723709E-2</v>
       </c>
       <c r="H389">
-        <v>-0.36383785360163312</v>
+        <v>-2.2963040582009792E-2</v>
       </c>
       <c r="I389">
-        <v>0.35789008398408723</v>
+        <v>-4.211886691715442E-2</v>
       </c>
       <c r="J389">
-        <v>0.34363353475413394</v>
+        <v>-2.953959153531029E-3</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -12857,31 +12857,31 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.18873239436619721</v>
+        <v>4.1415305699843824E-7</v>
       </c>
       <c r="C390">
-        <v>-0.78517964071856283</v>
+        <v>-4.9149489294392968E-7</v>
       </c>
       <c r="D390">
-        <v>1.8550724637681159E-5</v>
+        <v>2.4774336481894528E-6</v>
       </c>
       <c r="E390">
-        <v>-0.61214110411307254</v>
+        <v>-0.11588301922568348</v>
       </c>
       <c r="F390">
-        <v>-0.48005856586239443</v>
+        <v>5.1769132124804777E-3</v>
       </c>
       <c r="G390">
-        <v>0.30540661526983337</v>
+        <v>-2.6191438508250627E-2</v>
       </c>
       <c r="H390">
-        <v>-0.37238261883931173</v>
+        <v>-2.2172157937018797E-2</v>
       </c>
       <c r="I390">
-        <v>0.39752467953440401</v>
+        <v>-4.3276499558403063E-2</v>
       </c>
       <c r="J390">
-        <v>0.30831855845424611</v>
+        <v>-3.8072142468651609E-3</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -12889,31 +12889,31 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>5.6338028169014088E-3</v>
+        <v>4.1415305699843824E-7</v>
       </c>
       <c r="C391">
-        <v>-6.5718562874251499E-4</v>
+        <v>-3.7672958799255522E-7</v>
       </c>
       <c r="D391">
-        <v>2.8289855072463767E-4</v>
+        <v>2.4973928316592568E-3</v>
       </c>
       <c r="E391">
-        <v>-0.77293022480638907</v>
+        <v>-0.15745300859741829</v>
       </c>
       <c r="F391">
-        <v>-0.10635028193896566</v>
+        <v>2.8940816031216162E-3</v>
       </c>
       <c r="G391">
-        <v>0.43958219348420791</v>
+        <v>-3.7765270022803367E-2</v>
       </c>
       <c r="H391">
-        <v>-0.37343248760571596</v>
+        <v>-2.2903163031600376E-2</v>
       </c>
       <c r="I391">
-        <v>0.19242669809930749</v>
+        <v>-4.7235902579225483E-2</v>
       </c>
       <c r="J391">
-        <v>0.21818576545934798</v>
+        <v>1.3696989656153169E-6</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -12921,31 +12921,31 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.43943661971830988</v>
+        <v>4.3910203633569349E-7</v>
       </c>
       <c r="C392">
-        <v>-4.2889221556886224E-4</v>
+        <v>-1.8961224296314038E-7</v>
       </c>
       <c r="D392">
-        <v>4.7072463768115945E-4</v>
+        <v>2.5048775254604334E-3</v>
       </c>
       <c r="E392">
-        <v>-0.75619407057356136</v>
+        <v>-0.19049793172961293</v>
       </c>
       <c r="F392">
-        <v>5.9049877786113593E-6</v>
+        <v>-1.004944887704644E-2</v>
       </c>
       <c r="G392">
-        <v>0.3078338721711017</v>
+        <v>-3.9743724084247714E-2</v>
       </c>
       <c r="H392">
-        <v>-0.37308253135024788</v>
+        <v>-2.3419606903881562E-2</v>
       </c>
       <c r="I392">
-        <v>-9.5329306026226612E-5</v>
+        <v>-5.0676366829832994E-2</v>
       </c>
       <c r="J392">
-        <v>0.11220465318232804</v>
+        <v>2.0408265097874843E-6</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -12953,31 +12953,31 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.25070422535211268</v>
+        <v>3.9169897559490844E-7</v>
       </c>
       <c r="C393">
-        <v>-4.7679640718562873E-4</v>
+        <v>-9.9795917349021262E-9</v>
       </c>
       <c r="D393">
-        <v>4.7420289855072461E-4</v>
+        <v>2.4924030357918057E-6</v>
       </c>
       <c r="E393">
-        <v>-0.25102618485036654</v>
+        <v>-0.16461087076927683</v>
       </c>
       <c r="F393">
-        <v>-6.499116671910167E-2</v>
+        <v>-2.5887060960336113E-2</v>
       </c>
       <c r="G393">
-        <v>5.4613280278537684E-6</v>
+        <v>-2.268860180929998E-2</v>
       </c>
       <c r="H393">
-        <v>-0.37273257509477981</v>
+        <v>-2.3723984451796076E-2</v>
       </c>
       <c r="I393">
-        <v>-0.25534109326653898</v>
+        <v>-5.2749627012758905E-2</v>
       </c>
       <c r="J393">
-        <v>0.1095270832579513</v>
+        <v>2.1007040601968974E-6</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -12985,31 +12985,31 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.28732394366197184</v>
+        <v>3.6425509832392754E-7</v>
       </c>
       <c r="C394">
-        <v>-4.0119760479041919E-4</v>
+        <v>1.4220918222235528E-7</v>
       </c>
       <c r="D394">
-        <v>4.8521739130434778E-4</v>
+        <v>2.4998877295929825E-3</v>
       </c>
       <c r="E394">
-        <v>-0.26513605853621819</v>
+        <v>-0.17329062068070794</v>
       </c>
       <c r="F394">
-        <v>5.9086178940490307E-2</v>
+        <v>-1.9644826330154835E-2</v>
       </c>
       <c r="G394">
-        <v>4.6147724446655061E-2</v>
+        <v>-1.3704474349954343E-2</v>
       </c>
       <c r="H394">
-        <v>-0.36701662292213472</v>
+        <v>-2.2142219161814091E-2</v>
       </c>
       <c r="I394">
-        <v>-0.35435391189037868</v>
+        <v>-5.4728081074203253E-2</v>
       </c>
       <c r="J394">
-        <v>8.658682201396678E-2</v>
+        <v>6.4567958524816751E-3</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -13017,31 +13017,31 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.22253521126760564</v>
+        <v>3.3681122105294675E-7</v>
       </c>
       <c r="C395">
-        <v>-2.7395209580838325E-4</v>
+        <v>3.4928571072157443E-7</v>
       </c>
       <c r="D395">
-        <v>5.611594202898551E-4</v>
+        <v>2.4824234440569037E-6</v>
       </c>
       <c r="E395">
-        <v>-0.45742441715119797</v>
+        <v>-0.19841673777125779</v>
       </c>
       <c r="F395">
-        <v>-0.11373151666222986</v>
+        <v>-8.6797499114311238E-3</v>
       </c>
       <c r="G395">
-        <v>-1.5787117632429744E-2</v>
+        <v>-1.4769795767655145E-2</v>
       </c>
       <c r="H395">
-        <v>-0.36275882181393992</v>
+        <v>-2.3968484449301178E-2</v>
       </c>
       <c r="I395">
-        <v>-0.69603654044496832</v>
+        <v>-5.6798846359195444E-2</v>
       </c>
       <c r="J395">
-        <v>7.1570720411043162E-2</v>
+        <v>8.1308723660115066E-3</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -13049,31 +13049,31 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.25915492957746478</v>
+        <v>3.0437754791451482E-7</v>
       </c>
       <c r="C396">
-        <v>-1.7440119760479044E-4</v>
+        <v>4.2912244460079136E-7</v>
       </c>
       <c r="D396">
-        <v>5.7565217391304343E-4</v>
+        <v>2.3951020163765098E-6</v>
       </c>
       <c r="E396">
-        <v>-0.35242158119830436</v>
+        <v>-0.20435459485352453</v>
       </c>
       <c r="F396">
-        <v>-7.0896154497713026E-2</v>
+        <v>-2.4973928316592568E-2</v>
       </c>
       <c r="G396">
-        <v>-2.4282516786868939E-2</v>
+        <v>-9.2885050072601533E-3</v>
       </c>
       <c r="H396">
-        <v>-0.38944298629337998</v>
+        <v>-2.2142219161814091E-2</v>
       </c>
       <c r="I396">
-        <v>-0.9964638279062914</v>
+        <v>-5.9600616738769215E-2</v>
       </c>
       <c r="J396">
-        <v>7.5080508014618089E-2</v>
+        <v>1.2120214162038631E-2</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -13081,31 +13081,31 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.55211267605633807</v>
+        <v>3.5677040452275096E-7</v>
       </c>
       <c r="C397">
-        <v>-7.0359281437125742E-5</v>
+        <v>7.3100509458158057E-7</v>
       </c>
       <c r="D397">
-        <v>5.6347826086956517E-4</v>
+        <v>2.3951020163765098E-6</v>
       </c>
       <c r="E397">
-        <v>-0.31747350198516705</v>
+        <v>-0.25125618110963083</v>
       </c>
       <c r="F397">
-        <v>0.27400111323540088</v>
+        <v>-2.0862336521812894E-2</v>
       </c>
       <c r="G397">
-        <v>-0.31511564287490673</v>
+        <v>-4.8725356645659629E-3</v>
       </c>
       <c r="H397">
-        <v>-0.38731408573928261</v>
+        <v>-2.1957596714718402E-2</v>
       </c>
       <c r="I397">
-        <v>-1.2842198320318257</v>
+        <v>-6.1763693247309251E-2</v>
       </c>
       <c r="J397">
-        <v>3.267358975286753E-5</v>
+        <v>1.5685423309332414E-2</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -13113,31 +13113,31 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.14084507042253522</v>
+        <v>3.0437754791451482E-7</v>
       </c>
       <c r="C398">
-        <v>-3.1886227544910178E-4</v>
+        <v>4.2912244460079136E-7</v>
       </c>
       <c r="D398">
-        <v>5.6173913043478256E-4</v>
+        <v>2.3951020163765098E-6</v>
       </c>
       <c r="E398">
-        <v>-0.70205021921512656</v>
+        <v>-0.20435459485352453</v>
       </c>
       <c r="F398">
-        <v>4.8002226470801775E-2</v>
+        <v>-2.4973928316592568E-2</v>
       </c>
       <c r="G398">
-        <v>-5.4613280278537684E-6</v>
+        <v>-9.2885050072601533E-3</v>
       </c>
       <c r="H398">
-        <v>-0.3930300379119277</v>
+        <v>-2.2142219161814091E-2</v>
       </c>
       <c r="I398">
-        <v>1.2951230293207602E-4</v>
+        <v>-5.9600616738769215E-2</v>
       </c>
       <c r="J398">
-        <v>0.21818576545934798</v>
+        <v>1.2120214162038631E-2</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -13145,31 +13145,31 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>-2.2535211267605635E-2</v>
+        <v>3.5677040452275096E-7</v>
       </c>
       <c r="C399">
-        <v>-1.3847305389221557E-4</v>
+        <v>7.3100509458158057E-7</v>
       </c>
       <c r="D399">
-        <v>5.7855072463768118E-4</v>
+        <v>2.3951020163765098E-6</v>
       </c>
       <c r="E399">
-        <v>-0.83379971989924972</v>
+        <v>-0.25125618110963083</v>
       </c>
       <c r="F399">
-        <v>-5.1668643062849397E-6</v>
+        <v>-2.0862336521812894E-2</v>
       </c>
       <c r="G399">
-        <v>0.17850285998507834</v>
+        <v>-4.8725356645659629E-3</v>
       </c>
       <c r="H399">
-        <v>-0.37556138815981338</v>
+        <v>-2.1957596714718402E-2</v>
       </c>
       <c r="I399">
-        <v>-0.27154854869603656</v>
+        <v>-6.1763693247309251E-2</v>
       </c>
       <c r="J399">
-        <v>0.16123312950030755</v>
+        <v>1.5685423309332414E-2</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -13177,31 +13177,31 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>1.9718309859154931E-2</v>
+        <v>3.0188264998078927E-7</v>
       </c>
       <c r="C400">
-        <v>-1.2050898203592814E-4</v>
+        <v>9.5554590861687851E-7</v>
       </c>
       <c r="D400">
-        <v>0.59246376811594204</v>
+        <v>2.2703571196902335E-6</v>
       </c>
       <c r="E400">
-        <v>-0.41673454136862281</v>
+        <v>-0.25688966064398305</v>
       </c>
       <c r="F400">
-        <v>-0.20531932915466711</v>
+        <v>-1.218258661038177E-2</v>
       </c>
       <c r="G400">
-        <v>0.20097488187018156</v>
+        <v>1.3247908028082572E-2</v>
       </c>
       <c r="H400">
-        <v>-0.39125109361329835</v>
+        <v>-2.2079846713470953E-2</v>
       </c>
       <c r="I400">
-        <v>-0.41181670841314277</v>
+        <v>-6.0970315704384534E-2</v>
       </c>
       <c r="J400">
-        <v>0.10381010963563339</v>
+        <v>1.9612392657016402E-2</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -13209,31 +13209,31 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.22535211267605634</v>
+        <v>2.3452040577019994E-7</v>
       </c>
       <c r="C401">
-        <v>6.5868263473053894E-5</v>
+        <v>1.2424591709953146E-6</v>
       </c>
       <c r="D401">
-        <v>0.62492753623188402</v>
+        <v>2.1081887539980739E-6</v>
       </c>
       <c r="E401">
-        <v>-0.78785997112973072</v>
+        <v>-0.2026805183399947</v>
       </c>
       <c r="F401">
-        <v>0.1425425328525447</v>
+        <v>5.1769132124804777E-3</v>
       </c>
       <c r="G401">
-        <v>0.14146729669236507</v>
+        <v>-1.1421642740595482E-2</v>
       </c>
       <c r="H401">
-        <v>-0.3798483522892972</v>
+        <v>-2.4302800772420401E-2</v>
       </c>
       <c r="I401">
-        <v>-0.74465890673346102</v>
+        <v>-6.066593815647002E-2</v>
       </c>
       <c r="J401">
-        <v>0.10069833918297934</v>
+        <v>2.6009310959088663E-2</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -13241,31 +13241,31 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.9718309859154931E-2</v>
+        <v>3.2932652725177017E-7</v>
       </c>
       <c r="C402">
-        <v>3.6377245508982037E-4</v>
+        <v>1.3647091697478657E-6</v>
       </c>
       <c r="D402">
-        <v>4.5565217391304349E-4</v>
+        <v>1.9984132449141505E-6</v>
       </c>
       <c r="E402">
-        <v>-0.79835971710361842</v>
+        <v>-0.18090504917443828</v>
       </c>
       <c r="F402">
-        <v>7.5336995716463781E-2</v>
+        <v>2.9542086433244016E-2</v>
       </c>
       <c r="G402">
-        <v>0.25986570504849538</v>
+        <v>-1.3552285575997086E-2</v>
       </c>
       <c r="H402">
-        <v>-0.39550889472149314</v>
+        <v>-2.3511918127429407E-2</v>
       </c>
       <c r="I402">
-        <v>-1.2607926919110064</v>
+        <v>-6.301114221417202E-2</v>
       </c>
       <c r="J402">
-        <v>5.1669862864999819E-2</v>
+        <v>2.8841020113867143E-2</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -13273,31 +13273,31 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>9.014084507042254E-2</v>
+        <v>3.2433673138431908E-7</v>
       </c>
       <c r="C403">
-        <v>5.2470059880239516E-4</v>
+        <v>1.4744846788317888E-6</v>
       </c>
       <c r="D403">
-        <v>4.9681159420289858E-4</v>
+        <v>1.911091817233757E-6</v>
       </c>
       <c r="E403">
-        <v>-0.65283097989564765</v>
+        <v>-0.16872246256405651</v>
       </c>
       <c r="F403">
-        <v>0.28359671837564432</v>
+        <v>6.3944234041385366E-3</v>
       </c>
       <c r="G403">
-        <v>0.27019149465307135</v>
+        <v>5.1769132124804777E-3</v>
       </c>
       <c r="H403">
-        <v>-0.37416156313794108</v>
+        <v>-2.369404567659137E-2</v>
       </c>
       <c r="I403">
-        <v>-1.6798290850154707</v>
+        <v>-6.3530080984386922E-2</v>
       </c>
       <c r="J403">
-        <v>6.361037739262583E-2</v>
+        <v>3.3958055775938203E-2</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -13305,31 +13305,31 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-7.6056338028169024E-2</v>
+        <v>3.61760200390202E-7</v>
       </c>
       <c r="C404">
-        <v>5.1646706586826348E-4</v>
+        <v>1.6017244734517911E-6</v>
       </c>
       <c r="D404">
-        <v>3.0434782608695655E-4</v>
+        <v>1.8013163081498334E-6</v>
       </c>
       <c r="E404">
-        <v>-0.43248684843646257</v>
+        <v>-0.15501798821410215</v>
       </c>
       <c r="F404">
-        <v>0.12038672829795988</v>
+        <v>-8.6797499114311238E-3</v>
       </c>
       <c r="G404">
-        <v>0.14086048246704799</v>
+        <v>1.2791341706210799E-2</v>
       </c>
       <c r="H404">
-        <v>-0.34814814814814815</v>
+        <v>-2.4212984446806283E-2</v>
       </c>
       <c r="I404">
-        <v>-1.8327685280683661</v>
+        <v>-6.3133392212924563E-2</v>
       </c>
       <c r="J404">
-        <v>9.0096609617541706E-2</v>
+        <v>3.663757615675943E-2</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -13337,31 +13337,31 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.10985915492957747</v>
+        <v>3.592653024564765E-7</v>
       </c>
       <c r="C405">
-        <v>5.995508982035929E-4</v>
+        <v>1.6516224321263018E-6</v>
       </c>
       <c r="D405">
-        <v>2.3826086956521737E-4</v>
+        <v>1.8811530420290507E-6</v>
       </c>
       <c r="E405">
-        <v>-0.3394595292049386</v>
+        <v>-0.17252967681092166</v>
       </c>
       <c r="F405">
-        <v>4.7264102998475353E-2</v>
+        <v>-1.0810392746832728E-2</v>
       </c>
       <c r="G405">
-        <v>0.31390201442427257</v>
+        <v>3.5175565967596266E-2</v>
       </c>
       <c r="H405">
-        <v>-0.38197725284339457</v>
+        <v>-2.3786356900139215E-2</v>
       </c>
       <c r="I405">
-        <v>-1.8903786650950347</v>
+        <v>-6.2891387113353195E-2</v>
       </c>
       <c r="J405">
-        <v>9.7622752107681732E-2</v>
+        <v>3.9561596535085751E-2</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -13369,31 +13369,31 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>-7.8873239436619724E-2</v>
+        <v>2.39510201637651E-7</v>
       </c>
       <c r="C406">
-        <v>7.2080838323353288E-4</v>
+        <v>1.9859387552455231E-6</v>
       </c>
       <c r="D406">
-        <v>2.3942028985507246E-4</v>
+        <v>1.2948520276035508E-6</v>
       </c>
       <c r="E406">
-        <v>-0.24725208261090456</v>
+        <v>-0.12273400895169378</v>
       </c>
       <c r="F406">
-        <v>-5.318119116187895E-2</v>
+        <v>-1.3552285575997086E-2</v>
       </c>
       <c r="G406">
-        <v>0.18579457846306888</v>
+        <v>2.2384224261385467E-2</v>
       </c>
       <c r="H406">
-        <v>-0.37165354330708661</v>
+        <v>-2.3816295675343921E-2</v>
       </c>
       <c r="I406">
-        <v>-1.991012229261824</v>
+        <v>-6.0149494284188837E-2</v>
       </c>
       <c r="J406">
-        <v>0.13912508593552123</v>
+        <v>4.3458627107565033E-2</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -13401,31 +13401,31 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.19436619718309861</v>
+        <v>3.8171938386000625E-7</v>
       </c>
       <c r="C407">
-        <v>-7.3952095808383234E-4</v>
+        <v>-1.7713775329451271E-7</v>
       </c>
       <c r="D407">
-        <v>1.1130434782608696E-4</v>
+        <v>2.5323214027314143E-3</v>
       </c>
       <c r="E407">
-        <v>0.50992583512764478</v>
+        <v>-0.27699105329600965</v>
       </c>
       <c r="F407">
-        <v>-0.11743423440865419</v>
+        <v>-5.6798846359195444E-2</v>
       </c>
       <c r="G407">
-        <v>0.13357871176324299</v>
+        <v>-4.2637805687369325E-3</v>
       </c>
       <c r="H407">
-        <v>-0.43572470107903177</v>
+        <v>-2.4302800772420401E-2</v>
       </c>
       <c r="I407">
-        <v>0.44599970531899219</v>
+        <v>-4.9336606639422381E-2</v>
       </c>
       <c r="J407">
-        <v>0.59583167492853784</v>
+        <v>3.3506479249933883E-3</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -13433,31 +13433,31 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>-4.7887323943661977E-2</v>
+        <v>2.4200509957137655E-7</v>
       </c>
       <c r="C408">
-        <v>-0.78068862275449102</v>
+        <v>1.8711734502941484E-7</v>
       </c>
       <c r="D408">
-        <v>1.1246376811594204E-4</v>
+        <v>2.4649591585208249E-6</v>
       </c>
       <c r="E408">
-        <v>0.10221526898542777</v>
+        <v>-0.39409158271335121</v>
       </c>
       <c r="F408">
-        <v>6.5729290191428091E-2</v>
+        <v>-8.1620585901830758E-2</v>
       </c>
       <c r="G408">
-        <v>0.19307634916687391</v>
+        <v>-4.8725356645659629E-3</v>
       </c>
       <c r="H408">
-        <v>-0.42933799941673956</v>
+        <v>-2.5278305864507081E-2</v>
       </c>
       <c r="I408">
-        <v>0.47296301753351999</v>
+        <v>-5.2505127015253804E-2</v>
       </c>
       <c r="J408">
-        <v>0.6886058544704563</v>
+        <v>7.8888672664401294E-3</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -13465,31 +13465,31 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>3.0985915492957747E-2</v>
+        <v>1.2973469255372763E-7</v>
       </c>
       <c r="C409">
-        <v>-0.79416167664670656</v>
+        <v>7.1603570697922741E-7</v>
       </c>
       <c r="D409">
-        <v>-4.6376811594202897E-6</v>
+        <v>2.5023826275267077E-3</v>
       </c>
       <c r="E409">
-        <v>-1.6397452749799064E-6</v>
+        <v>-0.3677479554311433</v>
       </c>
       <c r="F409">
-        <v>3.1013286222501876E-2</v>
+        <v>-5.1469744372757711E-2</v>
       </c>
       <c r="G409">
-        <v>0.10746580452623726</v>
+        <v>-7.9188060416448356E-3</v>
       </c>
       <c r="H409">
-        <v>-0.41116943715368914</v>
+        <v>-2.5248367089302375E-2</v>
       </c>
       <c r="I409">
-        <v>0.47487844408427876</v>
+        <v>-5.6676596360442894E-2</v>
       </c>
       <c r="J409">
-        <v>0.71994065926113548</v>
+        <v>1.6688372278690078E-2</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -13497,31 +13497,31 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>8.1690140845070425E-2</v>
+        <v>1.197551008188255E-7</v>
       </c>
       <c r="C410">
-        <v>-7.0733532934131736E-4</v>
+        <v>8.5325509333413173E-7</v>
       </c>
       <c r="D410">
-        <v>5.9710144927536229E-5</v>
+        <v>2.357678547370627E-6</v>
       </c>
       <c r="E410">
-        <v>-0.23560182683752276</v>
+        <v>-0.29145647151575027</v>
       </c>
       <c r="F410">
-        <v>-3.0275162750175454E-2</v>
+        <v>-4.5531887290490944E-2</v>
       </c>
       <c r="G410">
-        <v>7.8885849291221091E-6</v>
+        <v>1.6740765135298316E-6</v>
       </c>
       <c r="H410">
-        <v>-0.4225721784776903</v>
+        <v>-2.4454989546377658E-2</v>
       </c>
       <c r="I410">
-        <v>0.42271990570207751</v>
+        <v>-5.8899550419392342E-2</v>
       </c>
       <c r="J410">
-        <v>0.66519520932083798</v>
+        <v>2.1805407940761145E-2</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -13529,31 +13529,31 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.11549295774647889</v>
+        <v>1.7963265122823825E-7</v>
       </c>
       <c r="C411">
-        <v>-0.77844311377245512</v>
+        <v>1.1077346825741359E-6</v>
       </c>
       <c r="D411">
-        <v>1.5014492753623188E-4</v>
+        <v>2.2029948754796443E-6</v>
       </c>
       <c r="E411">
-        <v>-0.6050875113236508</v>
+        <v>-0.31231880803756318</v>
       </c>
       <c r="F411">
-        <v>-2.5108298443890516E-2</v>
+        <v>-1.4161040671826115E-2</v>
       </c>
       <c r="G411">
-        <v>0.16392937080328276</v>
+        <v>5.0247244385232199E-3</v>
       </c>
       <c r="H411">
-        <v>-0.41367745698454361</v>
+        <v>-2.7713326247823203E-2</v>
       </c>
       <c r="I411">
-        <v>0.5862678650360984</v>
+        <v>-5.917398919210215E-2</v>
       </c>
       <c r="J411">
-        <v>0.58258855881607985</v>
+        <v>2.8324576241585957E-2</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -13561,31 +13561,31 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-7.0422535211267609E-2</v>
+        <v>9.2311223547844658E-8</v>
       </c>
       <c r="C412">
-        <v>-5.6287425149700594E-4</v>
+        <v>1.3447499862780615E-6</v>
       </c>
       <c r="D412">
-        <v>3.1072463768115947E-4</v>
+        <v>1.9834438573117976E-6</v>
       </c>
       <c r="E412">
-        <v>-0.89745678195957623</v>
+        <v>-0.37444675638319636</v>
       </c>
       <c r="F412">
-        <v>0.17724643643667867</v>
+        <v>-1.5533234535375157E-2</v>
       </c>
       <c r="G412">
-        <v>-1.5180303407112659E-2</v>
+        <v>3.5175565967596266E-2</v>
       </c>
       <c r="H412">
-        <v>-0.40761154855643045</v>
+        <v>-2.6403504832617299E-2</v>
       </c>
       <c r="I412">
-        <v>0.61146309120377196</v>
+        <v>-5.8472922872725278E-2</v>
       </c>
       <c r="J412">
-        <v>0.4032637406375511</v>
+        <v>3.4354744547400569E-2</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -13593,31 +13593,31 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.16056338028169015</v>
+        <v>6.2372448343138283E-8</v>
       </c>
       <c r="C413">
-        <v>-4.6931137724550901E-4</v>
+        <v>1.7913367164149315E-6</v>
       </c>
       <c r="D413">
-        <v>5.2405797101449274E-4</v>
+        <v>1.6042193713855166E-6</v>
       </c>
       <c r="E413">
-        <v>-1.047415519517001</v>
+        <v>-0.35815507287596865</v>
       </c>
       <c r="F413">
-        <v>0.10561215846663924</v>
+        <v>-3.6393076159254328E-2</v>
       </c>
       <c r="G413">
-        <v>0.26229296194976376</v>
+        <v>7.3245213538314147E-2</v>
       </c>
       <c r="H413">
-        <v>-0.38661417322834646</v>
+        <v>-2.7835576246575754E-2</v>
       </c>
       <c r="I413">
-        <v>0.35067039929276556</v>
+        <v>-5.6951035133152701E-2</v>
       </c>
       <c r="J413">
-        <v>0.26544125628686183</v>
+        <v>4.2151300590292852E-2</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -13625,31 +13625,31 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-5.0704225352112678E-2</v>
+        <v>0</v>
       </c>
       <c r="C414">
-        <v>-2.8742514970059882E-4</v>
+        <v>1.9759591635106207E-6</v>
       </c>
       <c r="D414">
-        <v>5.4144927536231883E-4</v>
+        <v>1.6890459011321848E-6</v>
       </c>
       <c r="E414">
-        <v>-0.52748186199796243</v>
+        <v>-0.26343876772001257</v>
       </c>
       <c r="F414">
-        <v>4.3573485636843254E-2</v>
+        <v>-5.1621933146714968E-2</v>
       </c>
       <c r="G414">
-        <v>6.0681422531708529E-7</v>
+        <v>5.0404422955056906E-2</v>
       </c>
       <c r="H414">
-        <v>-0.35777194517351996</v>
+        <v>-2.9055581336167539E-2</v>
       </c>
       <c r="I414">
-        <v>1.443936938264329E-5</v>
+        <v>-5.4483581076698151E-2</v>
       </c>
       <c r="J414">
-        <v>0.17404204508448817</v>
+        <v>4.8211407671312163E-2</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -13657,31 +13657,31 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.19718309859154931</v>
+        <v>-7.7341835945491464E-8</v>
       </c>
       <c r="C415">
-        <v>-2.7320359281437123E-4</v>
+        <v>2.0508061015223867E-6</v>
       </c>
       <c r="D415">
-        <v>5.6985507246376814E-4</v>
+        <v>1.26740815033257E-6</v>
       </c>
       <c r="E415">
-        <v>-0.34438145313688645</v>
+        <v>-0.26206906875439728</v>
       </c>
       <c r="F415">
-        <v>0.14180440938021829</v>
+        <v>-5.7103223907109958E-2</v>
       </c>
       <c r="G415">
-        <v>6.9823427008206915E-2</v>
+        <v>2.6191438508250627E-2</v>
       </c>
       <c r="H415">
-        <v>-0.36631671041119862</v>
+        <v>-2.9085520111372245E-2</v>
       </c>
       <c r="I415">
-        <v>-0.25902460586415205</v>
+        <v>-5.2230688242543996E-2</v>
       </c>
       <c r="J415">
-        <v>9.8491153164236345E-2</v>
+        <v>5.2048560693382033E-2</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -13689,31 +13689,31 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.15211267605633805</v>
+        <v>3.1685203758314249E-7</v>
       </c>
       <c r="C416">
-        <v>-1.7215568862275448E-5</v>
+        <v>-6.6364285037099132E-7</v>
       </c>
       <c r="D416">
-        <v>0.64463768115942033</v>
+        <v>2.4824234440569037E-6</v>
       </c>
       <c r="E416">
-        <v>-0.53060006612743238</v>
+        <v>-1.3400096802039829E-2</v>
       </c>
       <c r="F416">
-        <v>0.22230826940296702</v>
+        <v>1.9033576336392077E-2</v>
       </c>
       <c r="G416">
-        <v>6.6749564784879388E-6</v>
+        <v>-5.0247244385232199E-3</v>
       </c>
       <c r="H416">
-        <v>-0.34531933508311463</v>
+        <v>-2.552031096407846E-2</v>
       </c>
       <c r="I416">
-        <v>-0.55223220863415357</v>
+        <v>-3.8556152667794358E-2</v>
       </c>
       <c r="J416">
-        <v>4.0633932771284874E-2</v>
+        <v>-4.4459081178988965E-3</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -13721,31 +13721,31 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>9.2957746478873254E-2</v>
+        <v>3.1685203758314249E-7</v>
       </c>
       <c r="C417">
-        <v>4.7904191616766468E-5</v>
+        <v>-5.4638264748589136E-7</v>
       </c>
       <c r="D417">
-        <v>5.211594202898551E-4</v>
+        <v>2.5148571171953356E-3</v>
       </c>
       <c r="E417">
-        <v>-0.47711211287898947</v>
+        <v>-0.14846888113807263</v>
       </c>
       <c r="F417">
-        <v>1.9941434137605577E-2</v>
+        <v>-9.8972601030891828E-3</v>
       </c>
       <c r="G417">
-        <v>0.21797562795324546</v>
+        <v>-1.5989800857246932E-2</v>
       </c>
       <c r="H417">
-        <v>-0.36167979002624673</v>
+        <v>-2.5460433413669048E-2</v>
       </c>
       <c r="I417">
-        <v>-0.80757330190069254</v>
+        <v>-4.0262662854462623E-2</v>
       </c>
       <c r="J417">
-        <v>3.7558345695987261E-2</v>
+        <v>-2.1930152837447419E-6</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -13753,31 +13753,31 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.18873239436619721</v>
+        <v>3.1934693551686804E-7</v>
       </c>
       <c r="C418">
-        <v>3.4356287425149704E-4</v>
+        <v>-3.3431632311922121E-7</v>
       </c>
       <c r="D418">
-        <v>5.5652173913043473E-4</v>
+        <v>2.554775484134944E-3</v>
       </c>
       <c r="E418">
-        <v>-0.82543164278283587</v>
+        <v>-0.27303165027518722</v>
       </c>
       <c r="F418">
-        <v>-4.4287408339585201E-6</v>
+        <v>-2.603924973429337E-2</v>
       </c>
       <c r="G418">
-        <v>0.44930116886346683</v>
+        <v>-3.5327754741553523E-2</v>
       </c>
       <c r="H418">
-        <v>-0.36132983377077865</v>
+        <v>-2.5338183414916497E-2</v>
       </c>
       <c r="I418">
-        <v>-1.1799027552674231</v>
+        <v>-4.3368810781950907E-2</v>
       </c>
       <c r="J418">
-        <v>8.658682201396678E-2</v>
+        <v>1.5543214127110061E-6</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -13785,31 +13785,31 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.19718309859154931</v>
+        <v>2.7942856857725952E-7</v>
       </c>
       <c r="C419">
-        <v>4.3113772455089818E-4</v>
+        <v>-7.7341835945491464E-8</v>
       </c>
       <c r="D419">
-        <v>4.8347826086956518E-4</v>
+        <v>2.53481630066514E-3</v>
       </c>
       <c r="E419">
-        <v>-0.66513713377902151</v>
+        <v>-0.33546397616873491</v>
       </c>
       <c r="F419">
-        <v>9.5278429854069355E-2</v>
+        <v>-4.4007504652984648E-2</v>
       </c>
       <c r="G419">
-        <v>0.29750808256652572</v>
+        <v>-4.2333428139454815E-2</v>
       </c>
       <c r="H419">
-        <v>-0.38410615339749199</v>
+        <v>-2.5338183414916497E-2</v>
       </c>
       <c r="I419">
-        <v>-1.5971710623250333</v>
+        <v>-4.738809135318274E-2</v>
       </c>
       <c r="J419">
-        <v>8.3945435466946492E-6</v>
+        <v>3.8072142468651609E-3</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -13817,31 +13817,31 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.15492957746478875</v>
+        <v>2.0707652849921912E-7</v>
       </c>
       <c r="C420">
-        <v>5.4041916167664667E-4</v>
+        <v>3.393061189866723E-7</v>
       </c>
       <c r="D420">
-        <v>3.4260869565217388E-4</v>
+        <v>2.4549795667859229E-6</v>
       </c>
       <c r="E420">
-        <v>-0.47120634178205367</v>
+        <v>-0.34216527201872171</v>
       </c>
       <c r="F420">
-        <v>3.3977880496599791E-2</v>
+        <v>-4.7966907673807062E-2</v>
       </c>
       <c r="G420">
-        <v>9.3499129569758768E-2</v>
+        <v>-2.2536413035342723E-2</v>
       </c>
       <c r="H420">
-        <v>-0.37521143190434531</v>
+        <v>-2.6009310959088663E-2</v>
       </c>
       <c r="I420">
-        <v>-1.8111094739944011</v>
+        <v>-5.2657315789211061E-2</v>
       </c>
       <c r="J420">
-        <v>4.9896877374534139E-2</v>
+        <v>1.3552285575997086E-2</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -13849,31 +13849,31 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>6.4788732394366194E-2</v>
+        <v>1.9959183469804251E-7</v>
       </c>
       <c r="C421">
-        <v>6.4670658682634732E-4</v>
+        <v>6.7611734003961899E-7</v>
       </c>
       <c r="D421">
-        <v>3.2753623188405792E-4</v>
+        <v>2.352688751503176E-6</v>
       </c>
       <c r="E421">
-        <v>-0.3456932493568704</v>
+        <v>-0.30973159888028978</v>
       </c>
       <c r="F421">
-        <v>2.9524938893056796E-6</v>
+        <v>-3.4871188419681752E-2</v>
       </c>
       <c r="G421">
-        <v>-7.4071126585426514E-2</v>
+        <v>-2.1927657939513696E-2</v>
       </c>
       <c r="H421">
-        <v>-0.39160104986876643</v>
+        <v>-2.5430494638464342E-2</v>
       </c>
       <c r="I421">
-        <v>-2.1564756151466038</v>
+        <v>-5.570358616628994E-2</v>
       </c>
       <c r="J421">
-        <v>5.1669862864999819E-2</v>
+        <v>1.7633938595572055E-2</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -13881,31 +13881,31 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7.6056338028169024E-2</v>
+        <v>2.0208673263176803E-7</v>
       </c>
       <c r="C422">
-        <v>6.152694610778443E-4</v>
+        <v>8.6822448093648479E-7</v>
       </c>
       <c r="D422">
-        <v>2.2028985507246377E-4</v>
+        <v>2.3202550783647442E-6</v>
       </c>
       <c r="E422">
-        <v>-8.9745140574555987E-2</v>
+        <v>-0.23602732412217017</v>
       </c>
       <c r="F422">
-        <v>2.8798915805522615E-2</v>
+        <v>-2.8017703795737717E-2</v>
       </c>
       <c r="G422">
-        <v>2.4282516786868939E-2</v>
+        <v>-2.3753923227000782E-2</v>
       </c>
       <c r="H422">
-        <v>-0.38270632837561969</v>
+        <v>-2.6009310959088663E-2</v>
       </c>
       <c r="I422">
-        <v>-2.1222926182407544</v>
+        <v>-5.7225473905862509E-2</v>
       </c>
       <c r="J422">
-        <v>8.9662409089264386E-2</v>
+        <v>2.3571795677838819E-2</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -13913,31 +13913,31 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.15492957746478875</v>
+        <v>1.4220918222235528E-7</v>
       </c>
       <c r="C423">
-        <v>6.7065868263473051E-4</v>
+        <v>1.0877754991043317E-6</v>
       </c>
       <c r="D423">
-        <v>2.5217391304347824E-4</v>
+        <v>2.2304387527506252E-6</v>
       </c>
       <c r="E423">
-        <v>-5.020577459147494E-2</v>
+        <v>-0.1920198194691855</v>
       </c>
       <c r="F423">
-        <v>1.4774569831320635E-2</v>
+        <v>-4.7358152577978034E-2</v>
       </c>
       <c r="G423">
-        <v>3.6428749067396168E-2</v>
+        <v>-2.8940816031216162E-3</v>
       </c>
       <c r="H423">
-        <v>-0.3890930300379119</v>
+        <v>-2.6221377283455333E-2</v>
       </c>
       <c r="I423">
-        <v>-2.1961102106969204</v>
+        <v>-5.8230917773153902E-2</v>
       </c>
       <c r="J423">
-        <v>9.3642580598473066E-2</v>
+        <v>2.4821739542635311E-2</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -13945,31 +13945,31 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.18028169014084508</v>
+        <v>1.4969387602353186E-7</v>
       </c>
       <c r="C424">
-        <v>6.9311377245508989E-4</v>
+        <v>1.1950561102545294E-6</v>
       </c>
       <c r="D424">
-        <v>2.2956521739130435E-4</v>
+        <v>2.1456122230039567E-6</v>
       </c>
       <c r="E424">
-        <v>0.48958224128986128</v>
+        <v>-0.20405021730561002</v>
       </c>
       <c r="F424">
-        <v>-6.5729290191428091E-2</v>
+        <v>-5.3296009660244802E-2</v>
       </c>
       <c r="G424">
-        <v>-2.6112907237005718E-2</v>
+        <v>1.8262652874870888E-6</v>
       </c>
       <c r="H424">
-        <v>-0.37451151939340915</v>
+        <v>-2.6435938505755728E-2</v>
       </c>
       <c r="I424">
-        <v>-2.1367319876233979</v>
+        <v>-5.8657545319820967E-2</v>
       </c>
       <c r="J424">
-        <v>0.10113253971125664</v>
+        <v>3.0637346626149524E-2</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -13977,31 +13977,31 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4.7887323943661977E-2</v>
+        <v>1.4969387602353186E-7</v>
       </c>
       <c r="C425">
-        <v>-6.1826347305389215E-4</v>
+        <v>1.1950561102545294E-6</v>
       </c>
       <c r="D425">
-        <v>3.4840579710144928E-4</v>
+        <v>2.1456122230039567E-6</v>
       </c>
       <c r="E425">
-        <v>-0.62526713063393624</v>
+        <v>-0.20405021730561002</v>
       </c>
       <c r="F425">
-        <v>3.9882868275211154E-2</v>
+        <v>-5.3296009660244802E-2</v>
       </c>
       <c r="G425">
-        <v>-2.7326535687639892E-2</v>
+        <v>1.8262652874870888E-6</v>
       </c>
       <c r="H425">
-        <v>-0.39798775153105864</v>
+        <v>-2.6435938505755728E-2</v>
       </c>
       <c r="I425">
-        <v>0.65831737144541036</v>
+        <v>-5.8657545319820967E-2</v>
       </c>
       <c r="J425">
-        <v>0.44035170242790461</v>
+        <v>3.0637346626149524E-2</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -14009,31 +14009,31 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-1.9718309859154931E-2</v>
+        <v>5.4887754541961686E-8</v>
       </c>
       <c r="C426">
-        <v>-4.6032934131736526E-4</v>
+        <v>1.4171020263561016E-6</v>
       </c>
       <c r="D426">
-        <v>4.6260869565217393E-4</v>
+        <v>2.0083928366490529E-6</v>
       </c>
       <c r="E426">
-        <v>-0.6779325231378811</v>
+        <v>-0.25719403819189757</v>
       </c>
       <c r="F426">
-        <v>6.4253043246775249E-2</v>
+        <v>-2.6648004830122401E-2</v>
       </c>
       <c r="G426">
-        <v>2.3068888336234768E-2</v>
+        <v>8.5275611374738651E-3</v>
       </c>
       <c r="H426">
-        <v>-0.38127734033245847</v>
+        <v>-2.786551502178046E-2</v>
       </c>
       <c r="I426">
-        <v>0.50007367025195226</v>
+        <v>-5.8353167771906453E-2</v>
       </c>
       <c r="J426">
-        <v>0.34363353475413394</v>
+        <v>3.5694504737811175E-2</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -14041,31 +14041,31 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>6.7605633802816908E-2</v>
+        <v>6.2372448343138283E-8</v>
       </c>
       <c r="C427">
-        <v>-3.0314371257485033E-4</v>
+        <v>1.6715816155961061E-6</v>
       </c>
       <c r="D427">
-        <v>5.5304347826086952E-4</v>
+        <v>1.8088010019510101E-6</v>
       </c>
       <c r="E427">
-        <v>-0.90976293584294998</v>
+        <v>-0.19369639088064908</v>
       </c>
       <c r="F427">
-        <v>0.24815469131918394</v>
+        <v>-2.5430494638464342E-2</v>
       </c>
       <c r="G427">
-        <v>7.0430241233523996E-2</v>
+        <v>7.4622397197730639E-3</v>
       </c>
       <c r="H427">
-        <v>-0.38982210557013708</v>
+        <v>-2.6495816056165144E-2</v>
       </c>
       <c r="I427">
-        <v>0.23206129364962427</v>
+        <v>-5.7133162682314664E-2</v>
       </c>
       <c r="J427">
-        <v>0.17313746065057711</v>
+        <v>4.3154249559650512E-2</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -14073,31 +14073,31 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>8.4507042253521125E-2</v>
+        <v>4.9897958674510628E-8</v>
       </c>
       <c r="C428">
-        <v>-1.0179640718562875E-4</v>
+        <v>1.7239744722043419E-6</v>
       </c>
       <c r="D428">
-        <v>0.58144927536231883</v>
+        <v>1.7164897784031654E-6</v>
       </c>
       <c r="E428">
-        <v>-0.39146902359889141</v>
+        <v>-0.15943395755679635</v>
       </c>
       <c r="F428">
-        <v>0.13367295079983543</v>
+        <v>-1.507417331556966E-2</v>
       </c>
       <c r="G428">
-        <v>3.4608306391444917E-2</v>
+        <v>2.1306428354016038E-6</v>
       </c>
       <c r="H428">
-        <v>-0.36917468649752117</v>
+        <v>-2.8017703795737717E-2</v>
       </c>
       <c r="I428">
-        <v>-0.22660969500515693</v>
+        <v>-5.7956479000444094E-2</v>
       </c>
       <c r="J428">
-        <v>0.12544776929478599</v>
+        <v>4.5195076069437998E-2</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -14105,31 +14105,31 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.20563380281690141</v>
+        <v>-1.2474489668627657E-8</v>
       </c>
       <c r="C429">
-        <v>-3.4431137724550896E-5</v>
+        <v>1.8237703895533633E-6</v>
       </c>
       <c r="D429">
-        <v>0.59536231884057966</v>
+        <v>1.5717856982470847E-6</v>
       </c>
       <c r="E429">
-        <v>-0.27957388127706589</v>
+        <v>-0.16963559520780006</v>
       </c>
       <c r="F429">
-        <v>4.6525979526148932E-2</v>
+        <v>-1.1421642740595482E-2</v>
       </c>
       <c r="G429">
-        <v>1.1539418055210146E-2</v>
+        <v>-1.004944887704644E-2</v>
       </c>
       <c r="H429">
-        <v>-0.36987459900845726</v>
+        <v>-2.7349071149499273E-2</v>
       </c>
       <c r="I429">
-        <v>-0.35258582584352438</v>
+        <v>-5.6586780034828775E-2</v>
       </c>
       <c r="J429">
-        <v>0.1210333972573</v>
+        <v>4.7298275027568622E-2</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -14137,31 +14137,31 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>6.4788732394366194E-2</v>
+        <v>5.239285660823616E-8</v>
       </c>
       <c r="C430">
-        <v>1.7964071856287426E-5</v>
+        <v>1.9584948779745422E-6</v>
       </c>
       <c r="D430">
-        <v>5.7855072463768118E-4</v>
+        <v>1.447040801560808E-6</v>
       </c>
       <c r="E430">
-        <v>-0.12879527108215125</v>
+        <v>-0.13918037613081249</v>
       </c>
       <c r="F430">
-        <v>3.6906173616320997E-6</v>
+        <v>-1.5989800857246932E-2</v>
       </c>
       <c r="G430">
-        <v>-4.2476995772195972E-6</v>
+        <v>-2.5897040552071014E-3</v>
       </c>
       <c r="H430">
-        <v>-0.36027996500437448</v>
+        <v>-2.7134509927198878E-2</v>
       </c>
       <c r="I430">
-        <v>-0.55031678208339474</v>
+        <v>-5.734772390461506E-2</v>
       </c>
       <c r="J430">
-        <v>0.11086586822013966</v>
+        <v>5.006761173400396E-2</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -14169,31 +14169,31 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.15492957746478875</v>
+        <v>3.7423469005882966E-8</v>
       </c>
       <c r="C431">
-        <v>7.6347305389221553E-5</v>
+        <v>2.0283520201188569E-6</v>
       </c>
       <c r="D431">
-        <v>5.7913043478260864E-4</v>
+        <v>1.342255088344336E-6</v>
       </c>
       <c r="E431">
-        <v>-0.27826208505708194</v>
+        <v>-0.12867436093189427</v>
       </c>
       <c r="F431">
-        <v>2.5846421916216937E-2</v>
+        <v>-1.9490142658263852E-2</v>
       </c>
       <c r="G431">
-        <v>-2.4272569012683412E-6</v>
+        <v>-5.7856683083095072E-3</v>
       </c>
       <c r="H431">
-        <v>-0.35599300087489066</v>
+        <v>-2.7074632376789465E-2</v>
       </c>
       <c r="I431">
-        <v>-0.68351259761308381</v>
+        <v>-5.5184647396075023E-2</v>
       </c>
       <c r="J431">
-        <v>7.2004920939320483E-2</v>
+        <v>5.0556611729014163E-2</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -14201,31 +14201,31 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.11830985915492959</v>
+        <v>2.4948979337255315E-9</v>
       </c>
       <c r="C432">
-        <v>1.504491017964072E-4</v>
+        <v>2.0657754891247397E-6</v>
       </c>
       <c r="D432">
-        <v>5.628985507246377E-4</v>
+        <v>1.2798826400011976E-6</v>
       </c>
       <c r="E432">
-        <v>-0.28646349953898964</v>
+        <v>-0.10994266724548299</v>
       </c>
       <c r="F432">
-        <v>0.11077902277292417</v>
+        <v>-7.0056733979012922E-3</v>
       </c>
       <c r="G432">
-        <v>6.0104451628948022E-2</v>
+        <v>-5.9378570822667641E-3</v>
       </c>
       <c r="H432">
-        <v>-0.35885097696121321</v>
+        <v>-2.5764810961583562E-2</v>
       </c>
       <c r="I432">
-        <v>-0.87048769706792395</v>
+        <v>-5.3540509657749903E-2</v>
       </c>
       <c r="J432">
-        <v>6.0064406411694471E-2</v>
+        <v>5.5276958619622868E-2</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -14233,31 +14233,31 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.26478873239436623</v>
+        <v>5.239285660823616E-8</v>
       </c>
       <c r="C433">
-        <v>2.9041916167664672E-4</v>
+        <v>2.1805407940761145E-6</v>
       </c>
       <c r="D433">
-        <v>5.4666666666666665E-4</v>
+        <v>1.1676122329835488E-6</v>
       </c>
       <c r="E433">
-        <v>-0.55291135429519178</v>
+        <v>-6.2891387113353195E-2</v>
       </c>
       <c r="F433">
-        <v>0.13588732121681468</v>
+        <v>1.0965076418723709E-2</v>
       </c>
       <c r="G433">
-        <v>0.25804526237254416</v>
+        <v>-5.3291019864377346E-3</v>
       </c>
       <c r="H433">
-        <v>-0.35707203266258386</v>
+        <v>-2.7319132374294567E-2</v>
       </c>
       <c r="I433">
-        <v>-1.1133048475025784</v>
+        <v>-5.4331392302740894E-2</v>
       </c>
       <c r="J433">
-        <v>4.461410428049354E-2</v>
+        <v>5.4575892300245996E-2</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
@@ -14265,31 +14265,31 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>2.5352112676056339E-2</v>
+        <v>2.3202550783647442E-7</v>
       </c>
       <c r="C434">
-        <v>-0.77320359281437123</v>
+        <v>-2.5447958924000417E-7</v>
       </c>
       <c r="D434">
-        <v>-1.681159420289855E-5</v>
+        <v>2.5497856882674931E-3</v>
       </c>
       <c r="E434">
-        <v>4.7579494044498925E-2</v>
+        <v>-0.10705108054029509</v>
       </c>
       <c r="F434">
-        <v>-5.2430967304760288E-2</v>
+        <v>-3.3506479249933883E-3</v>
       </c>
       <c r="G434">
-        <v>4.8574981347923402E-2</v>
+        <v>-2.0862336521812894E-2</v>
       </c>
       <c r="H434">
-        <v>-0.39407990667833187</v>
+        <v>-2.4943989541387861E-2</v>
       </c>
       <c r="I434">
-        <v>0.5844997789892441</v>
+        <v>-4.7358152577978034E-2</v>
       </c>
       <c r="J434">
-        <v>0.72305242971378947</v>
+        <v>4.0816530195749694E-3</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -14297,31 +14297,31 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-1.1267605633802818E-2</v>
+        <v>2.39510201637651E-7</v>
       </c>
       <c r="C435">
-        <v>-0.78293413173652693</v>
+        <v>-9.9795917349021262E-9</v>
       </c>
       <c r="D435">
-        <v>-9.2753623188405795E-6</v>
+        <v>2.5797244634721992E-3</v>
       </c>
       <c r="E435">
-        <v>-9.3683217341515926E-2</v>
+        <v>-0.28003732367308853</v>
       </c>
       <c r="F435">
-        <v>7.3812347232641993E-6</v>
+        <v>-1.9644826330154835E-2</v>
       </c>
       <c r="G435">
-        <v>3.6428749067396168E-2</v>
+        <v>-2.0710147747855637E-2</v>
       </c>
       <c r="H435">
-        <v>-0.38874307378244388</v>
+        <v>-2.5642560962831011E-2</v>
       </c>
       <c r="I435">
-        <v>0.5862678650360984</v>
+        <v>-4.9032229091507867E-2</v>
       </c>
       <c r="J435">
-        <v>0.77515649310706658</v>
+        <v>3.9893417960271248E-3</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
@@ -14329,31 +14329,31 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.12394366197183099</v>
+        <v>2.2204591610157226E-7</v>
       </c>
       <c r="C436">
-        <v>-0.75149700598802394</v>
+        <v>4.2912244460079136E-7</v>
       </c>
       <c r="D436">
-        <v>1.4434782608695651E-4</v>
+        <v>2.527331606863963E-3</v>
       </c>
       <c r="E436">
-        <v>-0.68466085497931506</v>
+        <v>-0.31323194068130672</v>
       </c>
       <c r="F436">
-        <v>9.0099465162992179E-2</v>
+        <v>-4.0352479180076742E-2</v>
       </c>
       <c r="G436">
-        <v>0.10200447649838348</v>
+        <v>-3.5784321063425294E-2</v>
       </c>
       <c r="H436">
-        <v>-0.38197725284339457</v>
+        <v>-2.6740316053670245E-2</v>
       </c>
       <c r="I436">
-        <v>0.77339030499484307</v>
+        <v>-5.1926310694629482E-2</v>
       </c>
       <c r="J436">
-        <v>0.61573253247458115</v>
+        <v>1.190814783767196E-2</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -14361,31 +14361,31 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.25633802816901408</v>
+        <v>1.9959183469804251E-7</v>
       </c>
       <c r="C437">
-        <v>-6.9086826347305389E-4</v>
+        <v>5.6384693302197013E-7</v>
       </c>
       <c r="D437">
-        <v>2.144927536231884E-4</v>
+        <v>2.4499897709184715E-6</v>
       </c>
       <c r="E437">
-        <v>-0.52617006577797854</v>
+        <v>-0.27683886452205242</v>
       </c>
       <c r="F437">
-        <v>9.2313835579971443E-2</v>
+        <v>-2.8781142563457728E-2</v>
       </c>
       <c r="G437">
-        <v>1.8821188759015169E-2</v>
+        <v>-2.3908606898891765E-2</v>
       </c>
       <c r="H437">
-        <v>-0.36809565470982791</v>
+        <v>-2.6343627282207883E-2</v>
       </c>
       <c r="I437">
-        <v>0.78591424782672759</v>
+        <v>-5.6282402486914261E-2</v>
       </c>
       <c r="J437">
-        <v>0.49734052176430149</v>
+        <v>1.6171928406408895E-2</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
@@ -14393,31 +14393,31 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>4.2253521126760563E-2</v>
+        <v>1.9709693676431696E-7</v>
       </c>
       <c r="C438">
-        <v>-6.3772455089820357E-4</v>
+        <v>8.3329590986432747E-7</v>
       </c>
       <c r="D438">
-        <v>3.2405797101449276E-4</v>
+        <v>2.3352244659670976E-6</v>
       </c>
       <c r="E438">
-        <v>-0.63363520775035009</v>
+        <v>-0.22415160995763664</v>
       </c>
       <c r="F438">
-        <v>0.22968950412623121</v>
+        <v>-1.6740765135298316E-6</v>
       </c>
       <c r="G438">
-        <v>-4.4934095996020891E-2</v>
+        <v>-2.0862336521812894E-2</v>
       </c>
       <c r="H438">
-        <v>-0.36844561096529599</v>
+        <v>-2.4517361994720797E-2</v>
       </c>
       <c r="I438">
-        <v>0.72668336525710919</v>
+        <v>-5.8931984092530774E-2</v>
       </c>
       <c r="J438">
-        <v>0.39309621160039077</v>
+        <v>1.8943760010777959E-2</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
@@ -14425,31 +14425,31 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.12957746478873239</v>
+        <v>1.9709693676431696E-7</v>
       </c>
       <c r="C439">
-        <v>-4.902694610778443E-4</v>
+        <v>1.0054438672913892E-6</v>
       </c>
       <c r="D439">
-        <v>5.0840579710144927E-4</v>
+        <v>2.2404183444855271E-6</v>
       </c>
       <c r="E439">
-        <v>-0.99622589776053805</v>
+        <v>-0.2052677274972681</v>
       </c>
       <c r="F439">
-        <v>0.3434210207884611</v>
+        <v>-7.7666172676875787E-3</v>
       </c>
       <c r="G439">
-        <v>0.12628699328525242</v>
+        <v>-1.3856663123911601E-2</v>
       </c>
       <c r="H439">
-        <v>-0.34354039078448528</v>
+        <v>-2.6770254828874952E-2</v>
       </c>
       <c r="I439">
-        <v>0.51981729777515839</v>
+        <v>-5.8779795318573518E-2</v>
       </c>
       <c r="J439">
-        <v>0.22922169555306293</v>
+        <v>2.4759367094292172E-2</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
@@ -14457,31 +14457,31 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.14929577464788732</v>
+        <v>1.5468367189098293E-7</v>
       </c>
       <c r="C440">
-        <v>-2.4401197604790421E-4</v>
+        <v>1.2324795792604124E-6</v>
       </c>
       <c r="D440">
-        <v>5.4318840579710144E-4</v>
+        <v>2.1530969168051336E-6</v>
       </c>
       <c r="E440">
-        <v>-0.74749804440215151</v>
+        <v>-0.22019220693681421</v>
       </c>
       <c r="F440">
-        <v>0.16912707824108808</v>
+        <v>-7.1578621718585492E-3</v>
       </c>
       <c r="G440">
-        <v>0.11718477990549614</v>
+        <v>-1.0201637651003697E-2</v>
       </c>
       <c r="H440">
-        <v>-0.34496937882764656</v>
+        <v>-2.58271834099267E-2</v>
       </c>
       <c r="I440">
-        <v>2.8731398261382054E-5</v>
+        <v>-6.0209371834598249E-2</v>
       </c>
       <c r="J440">
-        <v>7.7287694033361068E-2</v>
+        <v>3.0455219076987561E-2</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -14489,31 +14489,31 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.25352112676056338</v>
+        <v>1.7214795742706167E-7</v>
       </c>
       <c r="C441">
-        <v>-4.8652694610778443E-5</v>
+        <v>1.4320714139584548E-6</v>
       </c>
       <c r="D441">
-        <v>0.58666666666666667</v>
+        <v>1.995918346980425E-6</v>
       </c>
       <c r="E441">
-        <v>-0.84577523662061938</v>
+        <v>-0.18440788587338891</v>
       </c>
       <c r="F441">
-        <v>0.18463977154473513</v>
+        <v>-1.8729198788477563E-2</v>
       </c>
       <c r="G441">
-        <v>9.1071872668490428E-2</v>
+        <v>-1.004944887704644E-2</v>
       </c>
       <c r="H441">
-        <v>-0.32254301545640129</v>
+        <v>-2.3601734453043526E-2</v>
       </c>
       <c r="I441">
-        <v>-0.37586562546043906</v>
+        <v>-5.9358611639197839E-2</v>
       </c>
       <c r="J441">
-        <v>4.461410428049354E-2</v>
+        <v>3.1278535395116984E-2</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -14521,31 +14521,31 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.3211267605633803</v>
+        <v>2.2703571196902335E-7</v>
       </c>
       <c r="C442">
-        <v>1.474550898203593E-4</v>
+        <v>1.5019285561027699E-6</v>
       </c>
       <c r="D442">
-        <v>0.59536231884057966</v>
+        <v>1.878658144095325E-6</v>
       </c>
       <c r="E442">
-        <v>-0.57309366171248544</v>
+        <v>-0.16324117180366152</v>
       </c>
       <c r="F442">
-        <v>0.15435250840976744</v>
+        <v>-2.1014525295770151E-2</v>
       </c>
       <c r="G442">
-        <v>8.6824173091270829E-2</v>
+        <v>-1.8272632466605793E-2</v>
       </c>
       <c r="H442">
-        <v>-0.33391659375911342</v>
+        <v>-2.3085290580762342E-2</v>
       </c>
       <c r="I442">
-        <v>-0.91734197730956235</v>
+        <v>-6.1032688152727672E-2</v>
       </c>
       <c r="J442">
-        <v>1.3387849621883707E-6</v>
+        <v>3.7368581251341008E-2</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -14553,31 +14553,31 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.28732394366197184</v>
+        <v>1.7214795742706167E-7</v>
       </c>
       <c r="C443">
-        <v>2.9491017964071859E-4</v>
+        <v>1.4320714139584548E-6</v>
       </c>
       <c r="D443">
-        <v>5.1768115942028988E-4</v>
+        <v>1.995918346980425E-6</v>
       </c>
       <c r="E443">
-        <v>-8.9417191519560013E-2</v>
+        <v>-0.18440788587338891</v>
       </c>
       <c r="F443">
-        <v>1.0333728612569879E-5</v>
+        <v>-1.8729198788477563E-2</v>
       </c>
       <c r="G443">
-        <v>5.949763740363094E-2</v>
+        <v>-1.004944887704644E-2</v>
       </c>
       <c r="H443">
-        <v>-0.36523767862350537</v>
+        <v>-2.3601734453043526E-2</v>
       </c>
       <c r="I443">
-        <v>-1.0629143951672315</v>
+        <v>-5.9358611639197839E-2</v>
       </c>
       <c r="J443">
-        <v>1.6354886565111986E-5</v>
+        <v>3.1278535395116984E-2</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -14585,31 +14585,31 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.10704225352112676</v>
+        <v>2.2703571196902335E-7</v>
       </c>
       <c r="C444">
-        <v>3.5254491017964069E-4</v>
+        <v>1.5019285561027699E-6</v>
       </c>
       <c r="D444">
-        <v>5.0840579710144927E-4</v>
+        <v>1.878658144095325E-6</v>
       </c>
       <c r="E444">
-        <v>-0.10615334575238772</v>
+        <v>-0.16324117180366152</v>
       </c>
       <c r="F444">
-        <v>4.8740349943128189E-2</v>
+        <v>-2.1014525295770151E-2</v>
       </c>
       <c r="G444">
-        <v>5.1609052474508831E-2</v>
+        <v>-1.8272632466605793E-2</v>
       </c>
       <c r="H444">
-        <v>-0.35777194517351996</v>
+        <v>-2.3085290580762342E-2</v>
       </c>
       <c r="I444">
-        <v>-1.2607926919110064</v>
+        <v>-6.1032688152727672E-2</v>
       </c>
       <c r="J444">
-        <v>1.8562072583854979E-5</v>
+        <v>3.7368581251341008E-2</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -14617,31 +14617,31 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.18309859154929578</v>
+        <v>2.4449999750510209E-7</v>
       </c>
       <c r="C445">
-        <v>3.1062874251497005E-4</v>
+        <v>1.6067142693192423E-6</v>
       </c>
       <c r="D445">
-        <v>4.9275362318840579E-4</v>
+        <v>1.8212754916196378E-6</v>
       </c>
       <c r="E445">
-        <v>-0.23051592837807688</v>
+        <v>-0.15212390661098055</v>
       </c>
       <c r="F445">
-        <v>5.6133685051184629E-2</v>
+        <v>-2.7713326247823203E-2</v>
       </c>
       <c r="G445">
-        <v>4.3720467545386721E-2</v>
+        <v>-8.0709948156020943E-3</v>
       </c>
       <c r="H445">
-        <v>-0.34887722368037327</v>
+        <v>-2.4060795672849022E-2</v>
       </c>
       <c r="I445">
-        <v>-1.3219390010313836</v>
+        <v>-6.0970315704384534E-2</v>
       </c>
       <c r="J445">
-        <v>-3.8860947280819194E-2</v>
+        <v>3.9075091438009274E-2</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -14649,31 +14649,31 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.24788732394366197</v>
+        <v>1.7464285536078721E-7</v>
       </c>
       <c r="C446">
-        <v>5.2919161676646704E-4</v>
+        <v>1.7264693701380676E-6</v>
       </c>
       <c r="D446">
-        <v>4.2028985507246375E-4</v>
+        <v>1.6291683507227719E-6</v>
       </c>
       <c r="E446">
-        <v>-0.51041775871013872</v>
+        <v>-0.14938201378181618</v>
       </c>
       <c r="F446">
-        <v>7.9765736550422309E-2</v>
+        <v>-2.9998652755115787E-2</v>
       </c>
       <c r="G446">
-        <v>9.7149962695846803E-2</v>
+        <v>-4.7203468906087051E-3</v>
       </c>
       <c r="H446">
-        <v>-0.35243511227763197</v>
+        <v>-2.4180550773667851E-2</v>
       </c>
       <c r="I446">
-        <v>-1.4801827022248417</v>
+        <v>-6.0087121835845698E-2</v>
       </c>
       <c r="J446">
-        <v>8.8287440749719579E-6</v>
+        <v>4.5469514842147805E-2</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
@@ -14681,31 +14681,31 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.27605633802816903</v>
+        <v>1.0977550908392337E-7</v>
       </c>
       <c r="C447">
-        <v>5.0973053892215572E-4</v>
+        <v>1.83125508335454E-6</v>
       </c>
       <c r="D447">
-        <v>3.8898550724637685E-4</v>
+        <v>1.6117040651866932E-6</v>
       </c>
       <c r="E447">
-        <v>-0.23675233663701684</v>
+        <v>-0.14588167198079927</v>
       </c>
       <c r="F447">
-        <v>8.1193581955906198E-6</v>
+        <v>-1.5228856987460643E-2</v>
       </c>
       <c r="G447">
-        <v>6.8609798557572738E-2</v>
+        <v>2.437515281249844E-6</v>
       </c>
       <c r="H447">
-        <v>-0.35634295713035868</v>
+        <v>-2.4302800772420401E-2</v>
       </c>
       <c r="I447">
-        <v>-1.8220126712833358</v>
+        <v>-6.0149494284188837E-2</v>
       </c>
       <c r="J447">
-        <v>4.284111879002786E-2</v>
+        <v>4.6961463806515676E-2</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -14713,31 +14713,31 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.14366197183098592</v>
+        <v>9.480612148157019E-8</v>
       </c>
       <c r="C448">
-        <v>5.6736526946107781E-4</v>
+        <v>1.9535050821070913E-6</v>
       </c>
       <c r="D448">
-        <v>3.3913043478260867E-4</v>
+        <v>1.5144030457713976E-6</v>
       </c>
       <c r="E448">
-        <v>-0.11714501530876942</v>
+        <v>-0.17511688596819505</v>
       </c>
       <c r="F448">
-        <v>-4.6525979526148932E-2</v>
+        <v>-1.5218877395725741E-7</v>
       </c>
       <c r="G448">
-        <v>1.2146232280527232E-2</v>
+        <v>-1.6446367179118702E-2</v>
       </c>
       <c r="H448">
-        <v>-0.35351414406532516</v>
+        <v>-2.2810851808052531E-2</v>
       </c>
       <c r="I448">
-        <v>-1.8956829232355974</v>
+        <v>-5.9782744287931178E-2</v>
       </c>
       <c r="J448">
-        <v>5.6988819336396858E-2</v>
+        <v>4.854572399443139E-2</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -14745,31 +14745,31 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.17183098591549295</v>
+        <v>4.4908162807059563E-8</v>
       </c>
       <c r="C449">
-        <v>5.7335329341317361E-4</v>
+        <v>2.0982091622631719E-6</v>
       </c>
       <c r="D449">
-        <v>3.3333333333333332E-4</v>
+        <v>1.2748928441337464E-6</v>
       </c>
       <c r="E449">
-        <v>-0.1683346370652323</v>
+        <v>-0.19384857965460633</v>
       </c>
       <c r="F449">
-        <v>-7.7551366133443045E-2</v>
+        <v>-8.8319386853883807E-3</v>
       </c>
       <c r="G449">
-        <v>-1.8214374533698084E-2</v>
+        <v>-2.8017703795737717E-2</v>
       </c>
       <c r="H449">
-        <v>-0.36488772236803735</v>
+        <v>-2.369404567659137E-2</v>
       </c>
       <c r="I449">
-        <v>-1.9874760571681156</v>
+        <v>-5.8991861642940187E-2</v>
       </c>
       <c r="J449">
-        <v>8.2172449976480808E-2</v>
+        <v>5.3480632107340491E-2</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
@@ -14777,31 +14777,31 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.14366197183098592</v>
+        <v>2.9439795617961269E-7</v>
       </c>
       <c r="C450">
-        <v>6.2350299401197598E-4</v>
+        <v>2.1980050796121929E-6</v>
       </c>
       <c r="D450">
-        <v>2.7594202898550724E-4</v>
+        <v>1.0204132548937422E-6</v>
       </c>
       <c r="E450">
-        <v>-0.24807195524839454</v>
+        <v>-0.14359634547350669</v>
       </c>
       <c r="F450">
-        <v>-7.3860748771810938E-2</v>
+        <v>-7.1578621718585492E-3</v>
       </c>
       <c r="G450">
-        <v>7.4071126585426514E-2</v>
+        <v>-1.6750744727033216E-2</v>
       </c>
       <c r="H450">
-        <v>-0.37343248760571596</v>
+        <v>-2.2870729358461947E-2</v>
       </c>
       <c r="I450">
-        <v>-2.1222926182407544</v>
+        <v>-5.9203927967306856E-2</v>
       </c>
       <c r="J450">
-        <v>6.9797734920577489E-2</v>
+        <v>5.8230917773153902E-2</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -14809,31 +14809,31 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.16901408450704225</v>
+        <v>3.0687244584824036E-7</v>
       </c>
       <c r="C451">
-        <v>6.3697604790419161E-4</v>
+        <v>2.2179642630819973E-6</v>
       </c>
       <c r="D451">
-        <v>1.1942028985507246E-4</v>
+        <v>9.9296937762276154E-7</v>
       </c>
       <c r="E451">
-        <v>-0.60639930754363469</v>
+        <v>-4.5531887290490944E-2</v>
       </c>
       <c r="F451">
-        <v>3.0275162750175454E-2</v>
+        <v>-7.6094386978628702E-7</v>
       </c>
       <c r="G451">
-        <v>8.9251429992539169E-2</v>
+        <v>-9.8972601030891828E-3</v>
       </c>
       <c r="H451">
-        <v>-0.37200349956255468</v>
+        <v>-2.2628724258890568E-2</v>
       </c>
       <c r="I451">
-        <v>-2.4406954471784292</v>
+        <v>-5.8747361645435085E-2</v>
       </c>
       <c r="J451">
-        <v>0.14223685638817526</v>
+        <v>5.6646657585238187E-2</v>
       </c>
     </row>
   </sheetData>
